--- a/database/industries/khodro/khedizel/product/monthly.xlsx
+++ b/database/industries/khodro/khedizel/product/monthly.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3312" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3311" uniqueCount="92">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -34,9 +34,6 @@
   </si>
   <si>
     <t>مقدار تولید</t>
-  </si>
-  <si>
-    <t>ماه 6 منتهی به 1397/06</t>
   </si>
   <si>
     <t>ماه 7 منتهی به 1397/07</t>
@@ -184,6 +181,9 @@
   </si>
   <si>
     <t>ماه 7 منتهی به 1401/07</t>
+  </si>
+  <si>
+    <t>ماه 8 منتهی به 1401/08</t>
   </si>
   <si>
     <t>کامیونت 6 تن</t>
@@ -1413,154 +1413,154 @@
       </c>
       <c r="D11" s="11"/>
       <c r="E11" s="11">
-        <v>7</v>
+        <v>49</v>
       </c>
       <c r="F11" s="11">
-        <v>49</v>
+        <v>12</v>
       </c>
       <c r="G11" s="11">
+        <v>17</v>
+      </c>
+      <c r="H11" s="11">
+        <v>8</v>
+      </c>
+      <c r="I11" s="11">
+        <v>1</v>
+      </c>
+      <c r="J11" s="11">
+        <v>61</v>
+      </c>
+      <c r="K11" s="11">
+        <v>83</v>
+      </c>
+      <c r="L11" s="11">
+        <v>6</v>
+      </c>
+      <c r="M11" s="11">
+        <v>2</v>
+      </c>
+      <c r="N11" s="11">
+        <v>0</v>
+      </c>
+      <c r="O11" s="11">
+        <v>3</v>
+      </c>
+      <c r="P11" s="11">
+        <v>125</v>
+      </c>
+      <c r="Q11" s="11">
+        <v>1</v>
+      </c>
+      <c r="R11" s="11">
+        <v>48</v>
+      </c>
+      <c r="S11" s="11">
+        <v>1</v>
+      </c>
+      <c r="T11" s="11">
+        <v>43</v>
+      </c>
+      <c r="U11" s="11">
+        <v>48</v>
+      </c>
+      <c r="V11" s="11">
+        <v>30</v>
+      </c>
+      <c r="W11" s="11">
+        <v>9</v>
+      </c>
+      <c r="X11" s="11">
+        <v>116</v>
+      </c>
+      <c r="Y11" s="11">
+        <v>1</v>
+      </c>
+      <c r="Z11" s="11">
+        <v>20</v>
+      </c>
+      <c r="AA11" s="11">
+        <v>39</v>
+      </c>
+      <c r="AB11" s="11">
+        <v>99</v>
+      </c>
+      <c r="AC11" s="11">
         <v>12</v>
       </c>
-      <c r="H11" s="11">
+      <c r="AD11" s="11">
         <v>17</v>
       </c>
-      <c r="I11" s="11">
-        <v>8</v>
-      </c>
-      <c r="J11" s="11">
-        <v>1</v>
-      </c>
-      <c r="K11" s="11">
-        <v>61</v>
-      </c>
-      <c r="L11" s="11">
-        <v>83</v>
-      </c>
-      <c r="M11" s="11">
-        <v>6</v>
-      </c>
-      <c r="N11" s="11">
-        <v>2</v>
-      </c>
-      <c r="O11" s="11">
-        <v>0</v>
-      </c>
-      <c r="P11" s="11">
-        <v>3</v>
-      </c>
-      <c r="Q11" s="11">
-        <v>125</v>
-      </c>
-      <c r="R11" s="11">
-        <v>1</v>
-      </c>
-      <c r="S11" s="11">
-        <v>48</v>
-      </c>
-      <c r="T11" s="11">
-        <v>1</v>
-      </c>
-      <c r="U11" s="11">
-        <v>43</v>
-      </c>
-      <c r="V11" s="11">
-        <v>48</v>
-      </c>
-      <c r="W11" s="11">
-        <v>30</v>
-      </c>
-      <c r="X11" s="11">
+      <c r="AE11" s="11">
+        <v>188</v>
+      </c>
+      <c r="AF11" s="11">
+        <v>111</v>
+      </c>
+      <c r="AG11" s="11">
+        <v>170</v>
+      </c>
+      <c r="AH11" s="11">
         <v>9</v>
       </c>
-      <c r="Y11" s="11">
-        <v>116</v>
-      </c>
-      <c r="Z11" s="11">
-        <v>1</v>
-      </c>
-      <c r="AA11" s="11">
-        <v>20</v>
-      </c>
-      <c r="AB11" s="11">
-        <v>39</v>
-      </c>
-      <c r="AC11" s="11">
-        <v>99</v>
-      </c>
-      <c r="AD11" s="11">
-        <v>12</v>
-      </c>
-      <c r="AE11" s="11">
-        <v>17</v>
-      </c>
-      <c r="AF11" s="11">
-        <v>188</v>
-      </c>
-      <c r="AG11" s="11">
-        <v>111</v>
-      </c>
-      <c r="AH11" s="11">
-        <v>170</v>
-      </c>
       <c r="AI11" s="11">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="AJ11" s="11">
-        <v>36</v>
+        <v>118</v>
       </c>
       <c r="AK11" s="11">
-        <v>118</v>
+        <v>189</v>
       </c>
       <c r="AL11" s="11">
-        <v>189</v>
+        <v>174</v>
       </c>
       <c r="AM11" s="11">
-        <v>174</v>
+        <v>141</v>
       </c>
       <c r="AN11" s="11">
-        <v>141</v>
+        <v>191</v>
       </c>
       <c r="AO11" s="11">
-        <v>191</v>
+        <v>126</v>
       </c>
       <c r="AP11" s="11">
-        <v>126</v>
+        <v>225</v>
       </c>
       <c r="AQ11" s="11">
-        <v>225</v>
+        <v>241</v>
       </c>
       <c r="AR11" s="11">
-        <v>241</v>
+        <v>67</v>
       </c>
       <c r="AS11" s="11">
-        <v>67</v>
+        <v>94</v>
       </c>
       <c r="AT11" s="11">
-        <v>94</v>
+        <v>202</v>
       </c>
       <c r="AU11" s="11">
-        <v>202</v>
+        <v>62</v>
       </c>
       <c r="AV11" s="11">
-        <v>62</v>
+        <v>235</v>
       </c>
       <c r="AW11" s="11">
-        <v>235</v>
+        <v>327</v>
       </c>
       <c r="AX11" s="11">
-        <v>327</v>
+        <v>283</v>
       </c>
       <c r="AY11" s="11">
-        <v>283</v>
+        <v>169</v>
       </c>
       <c r="AZ11" s="11">
-        <v>169</v>
+        <v>328</v>
       </c>
       <c r="BA11" s="11">
-        <v>328</v>
+        <v>207</v>
       </c>
       <c r="BB11" s="11">
-        <v>207</v>
+        <v>220</v>
       </c>
     </row>
     <row r="12" spans="2:54" x14ac:dyDescent="0.25">
@@ -1572,133 +1572,133 @@
       </c>
       <c r="D12" s="13"/>
       <c r="E12" s="13">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F12" s="13">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="G12" s="13">
         <v>12</v>
       </c>
       <c r="H12" s="13">
+        <v>0</v>
+      </c>
+      <c r="I12" s="13">
+        <v>0</v>
+      </c>
+      <c r="J12" s="13">
+        <v>0</v>
+      </c>
+      <c r="K12" s="13">
+        <v>0</v>
+      </c>
+      <c r="L12" s="13">
+        <v>0</v>
+      </c>
+      <c r="M12" s="13">
+        <v>0</v>
+      </c>
+      <c r="N12" s="13">
+        <v>1</v>
+      </c>
+      <c r="O12" s="13">
+        <v>0</v>
+      </c>
+      <c r="P12" s="13">
+        <v>26</v>
+      </c>
+      <c r="Q12" s="13">
+        <v>0</v>
+      </c>
+      <c r="R12" s="13">
+        <v>0</v>
+      </c>
+      <c r="S12" s="13">
+        <v>0</v>
+      </c>
+      <c r="T12" s="13">
+        <v>11</v>
+      </c>
+      <c r="U12" s="13">
+        <v>58</v>
+      </c>
+      <c r="V12" s="13">
+        <v>3</v>
+      </c>
+      <c r="W12" s="13">
+        <v>0</v>
+      </c>
+      <c r="X12" s="13">
         <v>12</v>
       </c>
-      <c r="I12" s="13">
-        <v>0</v>
-      </c>
-      <c r="J12" s="13">
-        <v>0</v>
-      </c>
-      <c r="K12" s="13">
-        <v>0</v>
-      </c>
-      <c r="L12" s="13">
-        <v>0</v>
-      </c>
-      <c r="M12" s="13">
-        <v>0</v>
-      </c>
-      <c r="N12" s="13">
-        <v>0</v>
-      </c>
-      <c r="O12" s="13">
+      <c r="Y12" s="13">
+        <v>0</v>
+      </c>
+      <c r="Z12" s="13">
+        <v>0</v>
+      </c>
+      <c r="AA12" s="13">
+        <v>12</v>
+      </c>
+      <c r="AB12" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC12" s="13">
+        <v>0</v>
+      </c>
+      <c r="AD12" s="13">
+        <v>0</v>
+      </c>
+      <c r="AE12" s="13">
+        <v>22</v>
+      </c>
+      <c r="AF12" s="13">
+        <v>0</v>
+      </c>
+      <c r="AG12" s="13">
+        <v>0</v>
+      </c>
+      <c r="AH12" s="13">
+        <v>0</v>
+      </c>
+      <c r="AI12" s="13">
+        <v>0</v>
+      </c>
+      <c r="AJ12" s="13">
+        <v>0</v>
+      </c>
+      <c r="AK12" s="13">
+        <v>0</v>
+      </c>
+      <c r="AL12" s="13">
+        <v>0</v>
+      </c>
+      <c r="AM12" s="13">
+        <v>0</v>
+      </c>
+      <c r="AN12" s="13">
+        <v>0</v>
+      </c>
+      <c r="AO12" s="13">
         <v>1</v>
       </c>
-      <c r="P12" s="13">
-        <v>0</v>
-      </c>
-      <c r="Q12" s="13">
-        <v>26</v>
-      </c>
-      <c r="R12" s="13">
-        <v>0</v>
-      </c>
-      <c r="S12" s="13">
-        <v>0</v>
-      </c>
-      <c r="T12" s="13">
-        <v>0</v>
-      </c>
-      <c r="U12" s="13">
-        <v>11</v>
-      </c>
-      <c r="V12" s="13">
-        <v>58</v>
-      </c>
-      <c r="W12" s="13">
-        <v>3</v>
-      </c>
-      <c r="X12" s="13">
-        <v>0</v>
-      </c>
-      <c r="Y12" s="13">
-        <v>12</v>
-      </c>
-      <c r="Z12" s="13">
-        <v>0</v>
-      </c>
-      <c r="AA12" s="13">
-        <v>0</v>
-      </c>
-      <c r="AB12" s="13">
-        <v>12</v>
-      </c>
-      <c r="AC12" s="13">
-        <v>0</v>
-      </c>
-      <c r="AD12" s="13">
-        <v>0</v>
-      </c>
-      <c r="AE12" s="13">
-        <v>0</v>
-      </c>
-      <c r="AF12" s="13">
-        <v>22</v>
-      </c>
-      <c r="AG12" s="13">
-        <v>0</v>
-      </c>
-      <c r="AH12" s="13">
-        <v>0</v>
-      </c>
-      <c r="AI12" s="13">
-        <v>0</v>
-      </c>
-      <c r="AJ12" s="13">
-        <v>0</v>
-      </c>
-      <c r="AK12" s="13">
-        <v>0</v>
-      </c>
-      <c r="AL12" s="13">
-        <v>0</v>
-      </c>
-      <c r="AM12" s="13">
-        <v>0</v>
-      </c>
-      <c r="AN12" s="13">
-        <v>0</v>
-      </c>
-      <c r="AO12" s="13">
-        <v>0</v>
-      </c>
       <c r="AP12" s="13">
+        <v>0</v>
+      </c>
+      <c r="AQ12" s="13">
+        <v>0</v>
+      </c>
+      <c r="AR12" s="13">
+        <v>0</v>
+      </c>
+      <c r="AS12" s="13">
+        <v>0</v>
+      </c>
+      <c r="AT12" s="13">
         <v>1</v>
       </c>
-      <c r="AQ12" s="13">
-        <v>0</v>
-      </c>
-      <c r="AR12" s="13">
-        <v>0</v>
-      </c>
-      <c r="AS12" s="13">
-        <v>0</v>
-      </c>
-      <c r="AT12" s="13">
-        <v>0</v>
-      </c>
       <c r="AU12" s="13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV12" s="13">
         <v>0</v>
@@ -1731,31 +1731,31 @@
       </c>
       <c r="D13" s="11"/>
       <c r="E13" s="11">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="F13" s="11">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G13" s="11">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="H13" s="11">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="I13" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J13" s="11">
         <v>0</v>
       </c>
       <c r="K13" s="11">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L13" s="11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M13" s="11">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N13" s="11">
         <v>0</v>
@@ -1784,8 +1784,8 @@
       <c r="V13" s="11">
         <v>0</v>
       </c>
-      <c r="W13" s="11">
-        <v>0</v>
+      <c r="W13" s="11" t="s">
+        <v>59</v>
       </c>
       <c r="X13" s="11" t="s">
         <v>59</v>
@@ -1890,133 +1890,133 @@
       </c>
       <c r="D14" s="13"/>
       <c r="E14" s="13">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="F14" s="13">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="G14" s="13">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="H14" s="13">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="I14" s="13">
+        <v>1</v>
+      </c>
+      <c r="J14" s="13">
+        <v>12</v>
+      </c>
+      <c r="K14" s="13">
+        <v>0</v>
+      </c>
+      <c r="L14" s="13">
+        <v>0</v>
+      </c>
+      <c r="M14" s="13">
+        <v>0</v>
+      </c>
+      <c r="N14" s="13">
+        <v>0</v>
+      </c>
+      <c r="O14" s="13">
+        <v>1</v>
+      </c>
+      <c r="P14" s="13">
+        <v>22</v>
+      </c>
+      <c r="Q14" s="13">
+        <v>8</v>
+      </c>
+      <c r="R14" s="13">
+        <v>1</v>
+      </c>
+      <c r="S14" s="13">
+        <v>52</v>
+      </c>
+      <c r="T14" s="13">
+        <v>25</v>
+      </c>
+      <c r="U14" s="13">
+        <v>35</v>
+      </c>
+      <c r="V14" s="13">
+        <v>46</v>
+      </c>
+      <c r="W14" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="X14" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="Y14" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="Z14" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="AA14" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="AB14" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="AC14" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="AD14" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="AE14" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="AF14" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="AG14" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="AH14" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="AI14" s="13">
+        <v>10</v>
+      </c>
+      <c r="AJ14" s="13">
         <v>13</v>
       </c>
-      <c r="J14" s="13">
-        <v>1</v>
-      </c>
-      <c r="K14" s="13">
-        <v>12</v>
-      </c>
-      <c r="L14" s="13">
-        <v>0</v>
-      </c>
-      <c r="M14" s="13">
-        <v>0</v>
-      </c>
-      <c r="N14" s="13">
-        <v>0</v>
-      </c>
-      <c r="O14" s="13">
-        <v>0</v>
-      </c>
-      <c r="P14" s="13">
-        <v>1</v>
-      </c>
-      <c r="Q14" s="13">
-        <v>22</v>
-      </c>
-      <c r="R14" s="13">
-        <v>8</v>
-      </c>
-      <c r="S14" s="13">
-        <v>1</v>
-      </c>
-      <c r="T14" s="13">
-        <v>52</v>
-      </c>
-      <c r="U14" s="13">
+      <c r="AK14" s="13">
+        <v>20</v>
+      </c>
+      <c r="AL14" s="13">
         <v>25</v>
       </c>
-      <c r="V14" s="13">
-        <v>35</v>
-      </c>
-      <c r="W14" s="13">
-        <v>46</v>
-      </c>
-      <c r="X14" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="Y14" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="Z14" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="AA14" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="AB14" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="AC14" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="AD14" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="AE14" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="AF14" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="AG14" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="AH14" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="AI14" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="AJ14" s="13">
-        <v>10</v>
-      </c>
-      <c r="AK14" s="13">
-        <v>13</v>
-      </c>
-      <c r="AL14" s="13">
-        <v>20</v>
-      </c>
       <c r="AM14" s="13">
+        <v>19</v>
+      </c>
+      <c r="AN14" s="13">
         <v>25</v>
       </c>
-      <c r="AN14" s="13">
-        <v>19</v>
-      </c>
       <c r="AO14" s="13">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="AP14" s="13">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="AQ14" s="13">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="AR14" s="13">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="AS14" s="13">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="AT14" s="13">
-        <v>56</v>
-      </c>
-      <c r="AU14" s="13">
         <v>41</v>
+      </c>
+      <c r="AU14" s="13" t="s">
+        <v>59</v>
       </c>
       <c r="AV14" s="13" t="s">
         <v>59</v>
@@ -2049,25 +2049,25 @@
       </c>
       <c r="D15" s="11"/>
       <c r="E15" s="11">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="F15" s="11">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G15" s="11">
         <v>10</v>
       </c>
       <c r="H15" s="11">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="I15" s="11">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J15" s="11">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="K15" s="11">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="L15" s="11">
         <v>0</v>
@@ -2082,121 +2082,121 @@
         <v>0</v>
       </c>
       <c r="P15" s="11">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="Q15" s="11">
-        <v>48</v>
+        <v>0</v>
       </c>
       <c r="R15" s="11">
         <v>0</v>
       </c>
       <c r="S15" s="11">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="T15" s="11">
-        <v>31</v>
+        <v>4</v>
       </c>
       <c r="U15" s="11">
+        <v>21</v>
+      </c>
+      <c r="V15" s="11">
+        <v>3</v>
+      </c>
+      <c r="W15" s="11">
+        <v>0</v>
+      </c>
+      <c r="X15" s="11">
+        <v>13</v>
+      </c>
+      <c r="Y15" s="11">
+        <v>0</v>
+      </c>
+      <c r="Z15" s="11">
         <v>4</v>
-      </c>
-      <c r="V15" s="11">
-        <v>21</v>
-      </c>
-      <c r="W15" s="11">
-        <v>3</v>
-      </c>
-      <c r="X15" s="11">
-        <v>0</v>
-      </c>
-      <c r="Y15" s="11">
-        <v>13</v>
-      </c>
-      <c r="Z15" s="11">
-        <v>0</v>
       </c>
       <c r="AA15" s="11">
         <v>4</v>
       </c>
       <c r="AB15" s="11">
+        <v>40</v>
+      </c>
+      <c r="AC15" s="11">
+        <v>0</v>
+      </c>
+      <c r="AD15" s="11">
+        <v>0</v>
+      </c>
+      <c r="AE15" s="11">
+        <v>12</v>
+      </c>
+      <c r="AF15" s="11">
+        <v>38</v>
+      </c>
+      <c r="AG15" s="11">
+        <v>23</v>
+      </c>
+      <c r="AH15" s="11">
+        <v>1</v>
+      </c>
+      <c r="AI15" s="11">
         <v>4</v>
       </c>
-      <c r="AC15" s="11">
-        <v>40</v>
-      </c>
-      <c r="AD15" s="11">
-        <v>0</v>
-      </c>
-      <c r="AE15" s="11">
-        <v>0</v>
-      </c>
-      <c r="AF15" s="11">
+      <c r="AJ15" s="11">
+        <v>8</v>
+      </c>
+      <c r="AK15" s="11">
+        <v>0</v>
+      </c>
+      <c r="AL15" s="11">
         <v>12</v>
       </c>
-      <c r="AG15" s="11">
-        <v>38</v>
-      </c>
-      <c r="AH15" s="11">
-        <v>23</v>
-      </c>
-      <c r="AI15" s="11">
+      <c r="AM15" s="11">
+        <v>0</v>
+      </c>
+      <c r="AN15" s="11">
+        <v>0</v>
+      </c>
+      <c r="AO15" s="11">
+        <v>0</v>
+      </c>
+      <c r="AP15" s="11">
+        <v>49</v>
+      </c>
+      <c r="AQ15" s="11">
+        <v>30</v>
+      </c>
+      <c r="AR15" s="11">
+        <v>24</v>
+      </c>
+      <c r="AS15" s="11">
+        <v>47</v>
+      </c>
+      <c r="AT15" s="11">
+        <v>101</v>
+      </c>
+      <c r="AU15" s="11">
+        <v>5</v>
+      </c>
+      <c r="AV15" s="11">
+        <v>25</v>
+      </c>
+      <c r="AW15" s="11">
+        <v>72</v>
+      </c>
+      <c r="AX15" s="11">
         <v>1</v>
       </c>
-      <c r="AJ15" s="11">
-        <v>4</v>
-      </c>
-      <c r="AK15" s="11">
+      <c r="AY15" s="11">
         <v>8</v>
       </c>
-      <c r="AL15" s="11">
-        <v>0</v>
-      </c>
-      <c r="AM15" s="11">
-        <v>12</v>
-      </c>
-      <c r="AN15" s="11">
-        <v>0</v>
-      </c>
-      <c r="AO15" s="11">
-        <v>0</v>
-      </c>
-      <c r="AP15" s="11">
-        <v>0</v>
-      </c>
-      <c r="AQ15" s="11">
-        <v>49</v>
-      </c>
-      <c r="AR15" s="11">
-        <v>30</v>
-      </c>
-      <c r="AS15" s="11">
-        <v>24</v>
-      </c>
-      <c r="AT15" s="11">
-        <v>47</v>
-      </c>
-      <c r="AU15" s="11">
-        <v>101</v>
-      </c>
-      <c r="AV15" s="11">
-        <v>5</v>
-      </c>
-      <c r="AW15" s="11">
-        <v>25</v>
-      </c>
-      <c r="AX15" s="11">
-        <v>72</v>
-      </c>
-      <c r="AY15" s="11">
-        <v>1</v>
-      </c>
       <c r="AZ15" s="11">
-        <v>8</v>
+        <v>88</v>
       </c>
       <c r="BA15" s="11">
         <v>88</v>
       </c>
       <c r="BB15" s="11">
-        <v>88</v>
+        <v>99</v>
       </c>
     </row>
     <row r="16" spans="2:54" x14ac:dyDescent="0.25">
@@ -2208,103 +2208,103 @@
       </c>
       <c r="D16" s="13"/>
       <c r="E16" s="13">
-        <v>42</v>
+        <v>3</v>
       </c>
       <c r="F16" s="13">
-        <v>3</v>
+        <v>58</v>
       </c>
       <c r="G16" s="13">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="H16" s="13">
-        <v>61</v>
+        <v>86</v>
       </c>
       <c r="I16" s="13">
+        <v>68</v>
+      </c>
+      <c r="J16" s="13">
+        <v>17</v>
+      </c>
+      <c r="K16" s="13">
+        <v>57</v>
+      </c>
+      <c r="L16" s="13">
         <v>86</v>
       </c>
-      <c r="J16" s="13">
-        <v>68</v>
-      </c>
-      <c r="K16" s="13">
-        <v>17</v>
-      </c>
-      <c r="L16" s="13">
-        <v>57</v>
-      </c>
       <c r="M16" s="13">
-        <v>86</v>
+        <v>1</v>
       </c>
       <c r="N16" s="13">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="O16" s="13">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="P16" s="13">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="Q16" s="13">
+        <v>21</v>
+      </c>
+      <c r="R16" s="13">
+        <v>8</v>
+      </c>
+      <c r="S16" s="13">
+        <v>38</v>
+      </c>
+      <c r="T16" s="13">
+        <v>54</v>
+      </c>
+      <c r="U16" s="13">
+        <v>14</v>
+      </c>
+      <c r="V16" s="13">
+        <v>10</v>
+      </c>
+      <c r="W16" s="13">
+        <v>0</v>
+      </c>
+      <c r="X16" s="13">
+        <v>2</v>
+      </c>
+      <c r="Y16" s="13">
+        <v>10</v>
+      </c>
+      <c r="Z16" s="13">
+        <v>53</v>
+      </c>
+      <c r="AA16" s="13">
+        <v>7</v>
+      </c>
+      <c r="AB16" s="13">
+        <v>50</v>
+      </c>
+      <c r="AC16" s="13">
+        <v>26</v>
+      </c>
+      <c r="AD16" s="13">
         <v>23</v>
       </c>
-      <c r="R16" s="13">
-        <v>21</v>
-      </c>
-      <c r="S16" s="13">
-        <v>8</v>
-      </c>
-      <c r="T16" s="13">
-        <v>38</v>
-      </c>
-      <c r="U16" s="13">
-        <v>54</v>
-      </c>
-      <c r="V16" s="13">
-        <v>14</v>
-      </c>
-      <c r="W16" s="13">
-        <v>10</v>
-      </c>
-      <c r="X16" s="13">
-        <v>0</v>
-      </c>
-      <c r="Y16" s="13">
-        <v>2</v>
-      </c>
-      <c r="Z16" s="13">
-        <v>10</v>
-      </c>
-      <c r="AA16" s="13">
-        <v>53</v>
-      </c>
-      <c r="AB16" s="13">
-        <v>7</v>
-      </c>
-      <c r="AC16" s="13">
-        <v>50</v>
-      </c>
-      <c r="AD16" s="13">
-        <v>26</v>
-      </c>
       <c r="AE16" s="13">
-        <v>23</v>
+        <v>109</v>
       </c>
       <c r="AF16" s="13">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="AG16" s="13">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="AH16" s="13">
-        <v>0</v>
+        <v>155</v>
       </c>
       <c r="AI16" s="13">
-        <v>155</v>
+        <v>37</v>
       </c>
       <c r="AJ16" s="13">
-        <v>37</v>
-      </c>
-      <c r="AK16" s="13">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="AK16" s="13" t="s">
+        <v>59</v>
       </c>
       <c r="AL16" s="13" t="s">
         <v>59</v>
@@ -2420,8 +2420,8 @@
       <c r="V17" s="11">
         <v>1000</v>
       </c>
-      <c r="W17" s="11">
-        <v>1000</v>
+      <c r="W17" s="11" t="s">
+        <v>59</v>
       </c>
       <c r="X17" s="11" t="s">
         <v>59</v>
@@ -2526,7 +2526,7 @@
       </c>
       <c r="D18" s="13"/>
       <c r="E18" s="13">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="F18" s="13">
         <v>0</v>
@@ -2543,8 +2543,8 @@
       <c r="J18" s="13">
         <v>0</v>
       </c>
-      <c r="K18" s="13">
-        <v>0</v>
+      <c r="K18" s="13" t="s">
+        <v>59</v>
       </c>
       <c r="L18" s="13" t="s">
         <v>59</v>
@@ -2579,8 +2579,8 @@
       <c r="V18" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="W18" s="13" t="s">
-        <v>59</v>
+      <c r="W18" s="13">
+        <v>1000</v>
       </c>
       <c r="X18" s="13">
         <v>1000</v>
@@ -2588,8 +2588,8 @@
       <c r="Y18" s="13">
         <v>1000</v>
       </c>
-      <c r="Z18" s="13">
-        <v>1000</v>
+      <c r="Z18" s="13" t="s">
+        <v>59</v>
       </c>
       <c r="AA18" s="13" t="s">
         <v>59</v>
@@ -2694,22 +2694,22 @@
         <v>0</v>
       </c>
       <c r="H19" s="11">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I19" s="11">
         <v>2</v>
       </c>
       <c r="J19" s="11">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="K19" s="11">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="L19" s="11">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="M19" s="11">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="N19" s="11">
         <v>0</v>
@@ -2738,8 +2738,8 @@
       <c r="V19" s="11">
         <v>0</v>
       </c>
-      <c r="W19" s="11">
-        <v>0</v>
+      <c r="W19" s="11" t="s">
+        <v>59</v>
       </c>
       <c r="X19" s="11" t="s">
         <v>59</v>
@@ -2897,8 +2897,8 @@
       <c r="V20" s="13">
         <v>0</v>
       </c>
-      <c r="W20" s="13">
-        <v>0</v>
+      <c r="W20" s="13" t="s">
+        <v>59</v>
       </c>
       <c r="X20" s="13" t="s">
         <v>59</v>
@@ -3020,8 +3020,8 @@
       <c r="J21" s="11">
         <v>0</v>
       </c>
-      <c r="K21" s="11">
-        <v>0</v>
+      <c r="K21" s="11" t="s">
+        <v>59</v>
       </c>
       <c r="L21" s="11" t="s">
         <v>59</v>
@@ -3174,13 +3174,13 @@
         <v>0</v>
       </c>
       <c r="I22" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J22" s="13">
-        <v>1</v>
-      </c>
-      <c r="K22" s="13">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K22" s="13" t="s">
+        <v>59</v>
       </c>
       <c r="L22" s="13" t="s">
         <v>59</v>
@@ -3321,34 +3321,34 @@
       </c>
       <c r="D23" s="11"/>
       <c r="E23" s="11">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F23" s="11">
+        <v>9</v>
+      </c>
+      <c r="G23" s="11">
+        <v>39</v>
+      </c>
+      <c r="H23" s="11">
+        <v>13</v>
+      </c>
+      <c r="I23" s="11">
+        <v>4</v>
+      </c>
+      <c r="J23" s="11">
         <v>3</v>
       </c>
-      <c r="G23" s="11">
-        <v>9</v>
-      </c>
-      <c r="H23" s="11">
-        <v>39</v>
-      </c>
-      <c r="I23" s="11">
-        <v>13</v>
-      </c>
-      <c r="J23" s="11">
-        <v>4</v>
-      </c>
       <c r="K23" s="11">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L23" s="11">
         <v>0</v>
       </c>
       <c r="M23" s="11">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N23" s="11">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O23" s="11">
         <v>0</v>
@@ -3374,8 +3374,8 @@
       <c r="V23" s="11">
         <v>0</v>
       </c>
-      <c r="W23" s="11">
-        <v>0</v>
+      <c r="W23" s="11" t="s">
+        <v>59</v>
       </c>
       <c r="X23" s="11" t="s">
         <v>59</v>
@@ -3506,128 +3506,128 @@
       <c r="M24" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="N24" s="13" t="s">
-        <v>59</v>
+      <c r="N24" s="13">
+        <v>6</v>
       </c>
       <c r="O24" s="13">
+        <v>0</v>
+      </c>
+      <c r="P24" s="13">
+        <v>13</v>
+      </c>
+      <c r="Q24" s="13">
+        <v>0</v>
+      </c>
+      <c r="R24" s="13">
+        <v>0</v>
+      </c>
+      <c r="S24" s="13">
+        <v>0</v>
+      </c>
+      <c r="T24" s="13">
+        <v>0</v>
+      </c>
+      <c r="U24" s="13">
         <v>6</v>
-      </c>
-      <c r="P24" s="13">
-        <v>0</v>
-      </c>
-      <c r="Q24" s="13">
-        <v>13</v>
-      </c>
-      <c r="R24" s="13">
-        <v>0</v>
-      </c>
-      <c r="S24" s="13">
-        <v>0</v>
-      </c>
-      <c r="T24" s="13">
-        <v>0</v>
-      </c>
-      <c r="U24" s="13">
-        <v>0</v>
       </c>
       <c r="V24" s="13">
         <v>6</v>
       </c>
       <c r="W24" s="13">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="X24" s="13">
         <v>0</v>
       </c>
       <c r="Y24" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z24" s="13">
+        <v>0</v>
+      </c>
+      <c r="AA24" s="13">
+        <v>0</v>
+      </c>
+      <c r="AB24" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC24" s="13">
+        <v>0</v>
+      </c>
+      <c r="AD24" s="13">
+        <v>0</v>
+      </c>
+      <c r="AE24" s="13">
+        <v>0</v>
+      </c>
+      <c r="AF24" s="13">
+        <v>0</v>
+      </c>
+      <c r="AG24" s="13">
+        <v>0</v>
+      </c>
+      <c r="AH24" s="13">
+        <v>0</v>
+      </c>
+      <c r="AI24" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="AJ24" s="13">
+        <v>0</v>
+      </c>
+      <c r="AK24" s="13">
+        <v>0</v>
+      </c>
+      <c r="AL24" s="13">
+        <v>0</v>
+      </c>
+      <c r="AM24" s="13">
+        <v>0</v>
+      </c>
+      <c r="AN24" s="13">
+        <v>0</v>
+      </c>
+      <c r="AO24" s="13">
+        <v>0</v>
+      </c>
+      <c r="AP24" s="13">
+        <v>0</v>
+      </c>
+      <c r="AQ24" s="13">
+        <v>0</v>
+      </c>
+      <c r="AR24" s="13">
+        <v>13</v>
+      </c>
+      <c r="AS24" s="13">
+        <v>18</v>
+      </c>
+      <c r="AT24" s="13">
+        <v>0</v>
+      </c>
+      <c r="AU24" s="13">
+        <v>36</v>
+      </c>
+      <c r="AV24" s="13">
+        <v>45</v>
+      </c>
+      <c r="AW24" s="13">
         <v>1</v>
       </c>
-      <c r="AA24" s="13">
-        <v>0</v>
-      </c>
-      <c r="AB24" s="13">
-        <v>0</v>
-      </c>
-      <c r="AC24" s="13">
-        <v>0</v>
-      </c>
-      <c r="AD24" s="13">
-        <v>0</v>
-      </c>
-      <c r="AE24" s="13">
-        <v>0</v>
-      </c>
-      <c r="AF24" s="13">
-        <v>0</v>
-      </c>
-      <c r="AG24" s="13">
-        <v>0</v>
-      </c>
-      <c r="AH24" s="13">
-        <v>0</v>
-      </c>
-      <c r="AI24" s="13">
-        <v>0</v>
-      </c>
-      <c r="AJ24" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="AK24" s="13">
-        <v>0</v>
-      </c>
-      <c r="AL24" s="13">
-        <v>0</v>
-      </c>
-      <c r="AM24" s="13">
-        <v>0</v>
-      </c>
-      <c r="AN24" s="13">
-        <v>0</v>
-      </c>
-      <c r="AO24" s="13">
-        <v>0</v>
-      </c>
-      <c r="AP24" s="13">
-        <v>0</v>
-      </c>
-      <c r="AQ24" s="13">
-        <v>0</v>
-      </c>
-      <c r="AR24" s="13">
-        <v>0</v>
-      </c>
-      <c r="AS24" s="13">
-        <v>13</v>
-      </c>
-      <c r="AT24" s="13">
-        <v>18</v>
-      </c>
-      <c r="AU24" s="13">
-        <v>0</v>
-      </c>
-      <c r="AV24" s="13">
-        <v>36</v>
-      </c>
-      <c r="AW24" s="13">
-        <v>45</v>
-      </c>
       <c r="AX24" s="13">
-        <v>1</v>
+        <v>52</v>
       </c>
       <c r="AY24" s="13">
-        <v>52</v>
+        <v>65</v>
       </c>
       <c r="AZ24" s="13">
-        <v>65</v>
+        <v>124</v>
       </c>
       <c r="BA24" s="13">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="BB24" s="13">
-        <v>131</v>
+        <v>189</v>
       </c>
     </row>
     <row r="25" spans="2:54" x14ac:dyDescent="0.25">
@@ -3639,25 +3639,25 @@
       </c>
       <c r="D25" s="11"/>
       <c r="E25" s="11">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="F25" s="11">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="G25" s="11">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="H25" s="11">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="I25" s="11">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="J25" s="11">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="K25" s="11">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="L25" s="11">
         <v>0</v>
@@ -3692,8 +3692,8 @@
       <c r="V25" s="11">
         <v>0</v>
       </c>
-      <c r="W25" s="11">
-        <v>0</v>
+      <c r="W25" s="11" t="s">
+        <v>59</v>
       </c>
       <c r="X25" s="11" t="s">
         <v>59</v>
@@ -3851,101 +3851,101 @@
       <c r="V26" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="W26" s="13" t="s">
-        <v>59</v>
+      <c r="W26" s="13">
+        <v>4</v>
       </c>
       <c r="X26" s="13">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="Y26" s="13">
+        <v>3</v>
+      </c>
+      <c r="Z26" s="13">
+        <v>77</v>
+      </c>
+      <c r="AA26" s="13">
+        <v>0</v>
+      </c>
+      <c r="AB26" s="13">
+        <v>53</v>
+      </c>
+      <c r="AC26" s="13">
+        <v>2</v>
+      </c>
+      <c r="AD26" s="13">
+        <v>1</v>
+      </c>
+      <c r="AE26" s="13">
+        <v>2</v>
+      </c>
+      <c r="AF26" s="13">
+        <v>0</v>
+      </c>
+      <c r="AG26" s="13">
+        <v>7</v>
+      </c>
+      <c r="AH26" s="13">
+        <v>15</v>
+      </c>
+      <c r="AI26" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="AJ26" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="AK26" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="AL26" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="AM26" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="AN26" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="AO26" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="AP26" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="AQ26" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="AR26" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="AS26" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="AT26" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="AU26" s="13">
+        <v>21</v>
+      </c>
+      <c r="AV26" s="13">
+        <v>47</v>
+      </c>
+      <c r="AW26" s="13">
+        <v>49</v>
+      </c>
+      <c r="AX26" s="13">
+        <v>31</v>
+      </c>
+      <c r="AY26" s="13">
+        <v>32</v>
+      </c>
+      <c r="AZ26" s="13">
         <v>24</v>
       </c>
-      <c r="Z26" s="13">
-        <v>3</v>
-      </c>
-      <c r="AA26" s="13">
-        <v>77</v>
-      </c>
-      <c r="AB26" s="13">
-        <v>0</v>
-      </c>
-      <c r="AC26" s="13">
-        <v>53</v>
-      </c>
-      <c r="AD26" s="13">
-        <v>2</v>
-      </c>
-      <c r="AE26" s="13">
+      <c r="BA26" s="13">
         <v>1</v>
       </c>
-      <c r="AF26" s="13">
-        <v>2</v>
-      </c>
-      <c r="AG26" s="13">
-        <v>0</v>
-      </c>
-      <c r="AH26" s="13">
-        <v>7</v>
-      </c>
-      <c r="AI26" s="13">
-        <v>15</v>
-      </c>
-      <c r="AJ26" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="AK26" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="AL26" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="AM26" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="AN26" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="AO26" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="AP26" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="AQ26" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="AR26" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="AS26" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="AT26" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="AU26" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="AV26" s="13">
-        <v>21</v>
-      </c>
-      <c r="AW26" s="13">
-        <v>47</v>
-      </c>
-      <c r="AX26" s="13">
-        <v>49</v>
-      </c>
-      <c r="AY26" s="13">
-        <v>31</v>
-      </c>
-      <c r="AZ26" s="13">
-        <v>32</v>
-      </c>
-      <c r="BA26" s="13">
-        <v>24</v>
-      </c>
       <c r="BB26" s="13">
-        <v>1</v>
+        <v>68</v>
       </c>
     </row>
     <row r="27" spans="2:54" x14ac:dyDescent="0.25">
@@ -4052,59 +4052,59 @@
       <c r="AJ27" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="AK27" s="11" t="s">
-        <v>59</v>
+      <c r="AK27" s="11">
+        <v>33</v>
       </c>
       <c r="AL27" s="11">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="AM27" s="11">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="AN27" s="11">
-        <v>34</v>
+        <v>213</v>
       </c>
       <c r="AO27" s="11">
-        <v>213</v>
+        <v>298</v>
       </c>
       <c r="AP27" s="11">
-        <v>298</v>
+        <v>6</v>
       </c>
       <c r="AQ27" s="11">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="AR27" s="11">
         <v>23</v>
       </c>
       <c r="AS27" s="11">
-        <v>23</v>
+        <v>52</v>
       </c>
       <c r="AT27" s="11">
-        <v>52</v>
+        <v>97</v>
       </c>
       <c r="AU27" s="11">
-        <v>97</v>
+        <v>0</v>
       </c>
       <c r="AV27" s="11">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AW27" s="11">
-        <v>5</v>
+        <v>176</v>
       </c>
       <c r="AX27" s="11">
-        <v>176</v>
+        <v>51</v>
       </c>
       <c r="AY27" s="11">
-        <v>51</v>
+        <v>102</v>
       </c>
       <c r="AZ27" s="11">
-        <v>102</v>
+        <v>134</v>
       </c>
       <c r="BA27" s="11">
-        <v>134</v>
+        <v>172</v>
       </c>
       <c r="BB27" s="11">
-        <v>172</v>
+        <v>233</v>
       </c>
     </row>
     <row r="28" spans="2:54" x14ac:dyDescent="0.25">
@@ -4244,8 +4244,8 @@
       <c r="AB29" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="AC29" s="11" t="s">
-        <v>59</v>
+      <c r="AC29" s="11">
+        <v>0</v>
       </c>
       <c r="AD29" s="11">
         <v>0</v>
@@ -4265,8 +4265,8 @@
       <c r="AI29" s="11">
         <v>0</v>
       </c>
-      <c r="AJ29" s="11">
-        <v>0</v>
+      <c r="AJ29" s="11" t="s">
+        <v>59</v>
       </c>
       <c r="AK29" s="11" t="s">
         <v>59</v>
@@ -4298,8 +4298,8 @@
       <c r="AT29" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="AU29" s="11" t="s">
-        <v>59</v>
+      <c r="AU29" s="11">
+        <v>0</v>
       </c>
       <c r="AV29" s="11" t="s">
         <v>59</v>
@@ -4310,8 +4310,8 @@
       <c r="AX29" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="AY29" s="11" t="s">
-        <v>59</v>
+      <c r="AY29" s="11">
+        <v>0</v>
       </c>
       <c r="AZ29" s="11" t="s">
         <v>59</v>
@@ -4394,8 +4394,8 @@
       <c r="Y30" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="Z30" s="13" t="s">
-        <v>59</v>
+      <c r="Z30" s="13">
+        <v>1000</v>
       </c>
       <c r="AA30" s="13">
         <v>1000</v>
@@ -4416,7 +4416,7 @@
         <v>1000</v>
       </c>
       <c r="AG30" s="13">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AH30" s="13">
         <v>0</v>
@@ -4424,8 +4424,8 @@
       <c r="AI30" s="13">
         <v>0</v>
       </c>
-      <c r="AJ30" s="13">
-        <v>0</v>
+      <c r="AJ30" s="13" t="s">
+        <v>59</v>
       </c>
       <c r="AK30" s="13" t="s">
         <v>59</v>
@@ -4457,8 +4457,8 @@
       <c r="AT30" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="AU30" s="13" t="s">
-        <v>59</v>
+      <c r="AU30" s="13">
+        <v>0</v>
       </c>
       <c r="AV30" s="13" t="s">
         <v>59</v>
@@ -4469,8 +4469,8 @@
       <c r="AX30" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="AY30" s="13" t="s">
-        <v>59</v>
+      <c r="AY30" s="13">
+        <v>0</v>
       </c>
       <c r="AZ30" s="13" t="s">
         <v>59</v>
@@ -4551,8 +4551,8 @@
       <c r="Y31" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="Z31" s="15" t="s">
-        <v>59</v>
+      <c r="Z31" s="15">
+        <v>0</v>
       </c>
       <c r="AA31" s="15">
         <v>0</v>
@@ -4646,154 +4646,154 @@
       <c r="C32" s="17"/>
       <c r="D32" s="17"/>
       <c r="E32" s="17">
-        <v>1148</v>
+        <v>1159</v>
       </c>
       <c r="F32" s="17">
-        <v>1159</v>
+        <v>1151</v>
       </c>
       <c r="G32" s="17">
-        <v>1151</v>
+        <v>1182</v>
       </c>
       <c r="H32" s="17">
+        <v>1132</v>
+      </c>
+      <c r="I32" s="17">
+        <v>1077</v>
+      </c>
+      <c r="J32" s="17">
+        <v>1183</v>
+      </c>
+      <c r="K32" s="17">
+        <v>1146</v>
+      </c>
+      <c r="L32" s="17">
+        <v>1102</v>
+      </c>
+      <c r="M32" s="17">
+        <v>1005</v>
+      </c>
+      <c r="N32" s="17">
+        <v>1011</v>
+      </c>
+      <c r="O32" s="17">
+        <v>1017</v>
+      </c>
+      <c r="P32" s="17">
+        <v>1257</v>
+      </c>
+      <c r="Q32" s="17">
+        <v>1030</v>
+      </c>
+      <c r="R32" s="17">
+        <v>1057</v>
+      </c>
+      <c r="S32" s="17">
+        <v>1122</v>
+      </c>
+      <c r="T32" s="17">
+        <v>1137</v>
+      </c>
+      <c r="U32" s="17">
         <v>1182</v>
       </c>
-      <c r="I32" s="17">
-        <v>1132</v>
-      </c>
-      <c r="J32" s="17">
-        <v>1077</v>
-      </c>
-      <c r="K32" s="17">
-        <v>1183</v>
-      </c>
-      <c r="L32" s="17">
-        <v>1146</v>
-      </c>
-      <c r="M32" s="17">
-        <v>1102</v>
-      </c>
-      <c r="N32" s="17">
-        <v>1005</v>
-      </c>
-      <c r="O32" s="17">
-        <v>1011</v>
-      </c>
-      <c r="P32" s="17">
-        <v>1017</v>
-      </c>
-      <c r="Q32" s="17">
-        <v>1257</v>
-      </c>
-      <c r="R32" s="17">
-        <v>1030</v>
-      </c>
-      <c r="S32" s="17">
-        <v>1057</v>
-      </c>
-      <c r="T32" s="17">
-        <v>1122</v>
-      </c>
-      <c r="U32" s="17">
-        <v>1137</v>
-      </c>
       <c r="V32" s="17">
-        <v>1182</v>
+        <v>1098</v>
       </c>
       <c r="W32" s="17">
-        <v>1098</v>
+        <v>1013</v>
       </c>
       <c r="X32" s="17">
-        <v>1013</v>
+        <v>1167</v>
       </c>
       <c r="Y32" s="17">
-        <v>1167</v>
+        <v>1015</v>
       </c>
       <c r="Z32" s="17">
-        <v>1015</v>
+        <v>1154</v>
       </c>
       <c r="AA32" s="17">
-        <v>1154</v>
+        <v>1062</v>
       </c>
       <c r="AB32" s="17">
-        <v>1062</v>
+        <v>1242</v>
       </c>
       <c r="AC32" s="17">
-        <v>1242</v>
+        <v>1040</v>
       </c>
       <c r="AD32" s="17">
-        <v>1040</v>
+        <v>1041</v>
       </c>
       <c r="AE32" s="17">
-        <v>1041</v>
+        <v>1333</v>
       </c>
       <c r="AF32" s="17">
-        <v>1333</v>
+        <v>1248</v>
       </c>
       <c r="AG32" s="17">
-        <v>1248</v>
+        <v>200</v>
       </c>
       <c r="AH32" s="17">
-        <v>200</v>
+        <v>180</v>
       </c>
       <c r="AI32" s="17">
-        <v>180</v>
+        <v>87</v>
       </c>
       <c r="AJ32" s="17">
-        <v>87</v>
+        <v>139</v>
       </c>
       <c r="AK32" s="17">
-        <v>139</v>
+        <v>242</v>
       </c>
       <c r="AL32" s="17">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="AM32" s="17">
-        <v>235</v>
+        <v>194</v>
       </c>
       <c r="AN32" s="17">
-        <v>194</v>
+        <v>429</v>
       </c>
       <c r="AO32" s="17">
-        <v>429</v>
+        <v>441</v>
       </c>
       <c r="AP32" s="17">
-        <v>441</v>
+        <v>280</v>
       </c>
       <c r="AQ32" s="17">
-        <v>280</v>
+        <v>330</v>
       </c>
       <c r="AR32" s="17">
-        <v>330</v>
+        <v>170</v>
       </c>
       <c r="AS32" s="17">
-        <v>170</v>
+        <v>267</v>
       </c>
       <c r="AT32" s="17">
-        <v>267</v>
+        <v>442</v>
       </c>
       <c r="AU32" s="17">
-        <v>442</v>
+        <v>124</v>
       </c>
       <c r="AV32" s="17">
-        <v>124</v>
+        <v>357</v>
       </c>
       <c r="AW32" s="17">
-        <v>357</v>
+        <v>625</v>
       </c>
       <c r="AX32" s="17">
-        <v>625</v>
+        <v>418</v>
       </c>
       <c r="AY32" s="17">
-        <v>418</v>
+        <v>376</v>
       </c>
       <c r="AZ32" s="17">
-        <v>376</v>
+        <v>698</v>
       </c>
       <c r="BA32" s="17">
-        <v>698</v>
+        <v>599</v>
       </c>
       <c r="BB32" s="17">
-        <v>599</v>
+        <v>809</v>
       </c>
     </row>
     <row r="33" spans="2:54" x14ac:dyDescent="0.25">
@@ -5239,154 +5239,154 @@
       </c>
       <c r="D39" s="11"/>
       <c r="E39" s="11">
+        <v>39</v>
+      </c>
+      <c r="F39" s="11">
         <v>19</v>
       </c>
-      <c r="F39" s="11">
+      <c r="G39" s="11">
+        <v>24</v>
+      </c>
+      <c r="H39" s="11">
+        <v>32</v>
+      </c>
+      <c r="I39" s="11">
+        <v>23</v>
+      </c>
+      <c r="J39" s="11">
+        <v>110</v>
+      </c>
+      <c r="K39" s="11">
+        <v>36</v>
+      </c>
+      <c r="L39" s="11">
+        <v>78</v>
+      </c>
+      <c r="M39" s="11">
+        <v>17</v>
+      </c>
+      <c r="N39" s="11">
+        <v>12</v>
+      </c>
+      <c r="O39" s="11">
+        <v>28</v>
+      </c>
+      <c r="P39" s="11">
+        <v>35</v>
+      </c>
+      <c r="Q39" s="11">
+        <v>19</v>
+      </c>
+      <c r="R39" s="11">
+        <v>26</v>
+      </c>
+      <c r="S39" s="11">
+        <v>99</v>
+      </c>
+      <c r="T39" s="11">
+        <v>46</v>
+      </c>
+      <c r="U39" s="11">
+        <v>33</v>
+      </c>
+      <c r="V39" s="11">
+        <v>42</v>
+      </c>
+      <c r="W39" s="11">
+        <v>0</v>
+      </c>
+      <c r="X39" s="11">
+        <v>44</v>
+      </c>
+      <c r="Y39" s="11">
+        <v>43</v>
+      </c>
+      <c r="Z39" s="11">
+        <v>124</v>
+      </c>
+      <c r="AA39" s="11">
+        <v>9</v>
+      </c>
+      <c r="AB39" s="11">
+        <v>12</v>
+      </c>
+      <c r="AC39" s="11">
+        <v>25</v>
+      </c>
+      <c r="AD39" s="11">
+        <v>12</v>
+      </c>
+      <c r="AE39" s="11">
+        <v>106</v>
+      </c>
+      <c r="AF39" s="11">
+        <v>89</v>
+      </c>
+      <c r="AG39" s="11">
+        <v>60</v>
+      </c>
+      <c r="AH39" s="11">
+        <v>113</v>
+      </c>
+      <c r="AI39" s="11">
+        <v>26</v>
+      </c>
+      <c r="AJ39" s="11">
         <v>39</v>
       </c>
-      <c r="G39" s="11">
-        <v>19</v>
-      </c>
-      <c r="H39" s="11">
-        <v>24</v>
-      </c>
-      <c r="I39" s="11">
-        <v>32</v>
-      </c>
-      <c r="J39" s="11">
-        <v>23</v>
-      </c>
-      <c r="K39" s="11">
-        <v>110</v>
-      </c>
-      <c r="L39" s="11">
-        <v>36</v>
-      </c>
-      <c r="M39" s="11">
-        <v>78</v>
-      </c>
-      <c r="N39" s="11">
-        <v>17</v>
-      </c>
-      <c r="O39" s="11">
-        <v>12</v>
-      </c>
-      <c r="P39" s="11">
-        <v>28</v>
-      </c>
-      <c r="Q39" s="11">
-        <v>35</v>
-      </c>
-      <c r="R39" s="11">
-        <v>19</v>
-      </c>
-      <c r="S39" s="11">
-        <v>26</v>
-      </c>
-      <c r="T39" s="11">
-        <v>99</v>
-      </c>
-      <c r="U39" s="11">
-        <v>46</v>
-      </c>
-      <c r="V39" s="11">
-        <v>33</v>
-      </c>
-      <c r="W39" s="11">
-        <v>42</v>
-      </c>
-      <c r="X39" s="11">
-        <v>0</v>
-      </c>
-      <c r="Y39" s="11">
-        <v>44</v>
-      </c>
-      <c r="Z39" s="11">
-        <v>43</v>
-      </c>
-      <c r="AA39" s="11">
-        <v>124</v>
-      </c>
-      <c r="AB39" s="11">
-        <v>9</v>
-      </c>
-      <c r="AC39" s="11">
-        <v>12</v>
-      </c>
-      <c r="AD39" s="11">
-        <v>25</v>
-      </c>
-      <c r="AE39" s="11">
-        <v>12</v>
-      </c>
-      <c r="AF39" s="11">
-        <v>106</v>
-      </c>
-      <c r="AG39" s="11">
-        <v>89</v>
-      </c>
-      <c r="AH39" s="11">
-        <v>60</v>
-      </c>
-      <c r="AI39" s="11">
-        <v>113</v>
-      </c>
-      <c r="AJ39" s="11">
-        <v>26</v>
-      </c>
       <c r="AK39" s="11">
-        <v>39</v>
+        <v>88</v>
       </c>
       <c r="AL39" s="11">
-        <v>88</v>
+        <v>102</v>
       </c>
       <c r="AM39" s="11">
-        <v>102</v>
+        <v>65</v>
       </c>
       <c r="AN39" s="11">
-        <v>65</v>
+        <v>236</v>
       </c>
       <c r="AO39" s="11">
-        <v>236</v>
+        <v>301</v>
       </c>
       <c r="AP39" s="11">
-        <v>301</v>
+        <v>64</v>
       </c>
       <c r="AQ39" s="11">
-        <v>64</v>
+        <v>248</v>
       </c>
       <c r="AR39" s="11">
-        <v>248</v>
+        <v>305</v>
       </c>
       <c r="AS39" s="11">
-        <v>305</v>
+        <v>274</v>
       </c>
       <c r="AT39" s="11">
-        <v>274</v>
+        <v>161</v>
       </c>
       <c r="AU39" s="11">
-        <v>161</v>
+        <v>0</v>
       </c>
       <c r="AV39" s="11">
-        <v>0</v>
+        <v>128</v>
       </c>
       <c r="AW39" s="11">
-        <v>128</v>
+        <v>323</v>
       </c>
       <c r="AX39" s="11">
-        <v>323</v>
+        <v>159</v>
       </c>
       <c r="AY39" s="11">
-        <v>159</v>
+        <v>260</v>
       </c>
       <c r="AZ39" s="11">
-        <v>260</v>
+        <v>483</v>
       </c>
       <c r="BA39" s="11">
-        <v>483</v>
+        <v>234</v>
       </c>
       <c r="BB39" s="11">
-        <v>234</v>
+        <v>231</v>
       </c>
     </row>
     <row r="40" spans="2:54" x14ac:dyDescent="0.25">
@@ -5398,133 +5398,133 @@
       </c>
       <c r="D40" s="13"/>
       <c r="E40" s="13">
+        <v>2</v>
+      </c>
+      <c r="F40" s="13">
+        <v>1</v>
+      </c>
+      <c r="G40" s="13">
+        <v>5</v>
+      </c>
+      <c r="H40" s="13">
+        <v>0</v>
+      </c>
+      <c r="I40" s="13">
+        <v>100</v>
+      </c>
+      <c r="J40" s="13">
+        <v>0</v>
+      </c>
+      <c r="K40" s="13">
+        <v>0</v>
+      </c>
+      <c r="L40" s="13">
+        <v>0</v>
+      </c>
+      <c r="M40" s="13">
+        <v>0</v>
+      </c>
+      <c r="N40" s="13">
+        <v>0</v>
+      </c>
+      <c r="O40" s="13">
+        <v>0</v>
+      </c>
+      <c r="P40" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q40" s="13">
+        <v>8</v>
+      </c>
+      <c r="R40" s="13">
+        <v>7</v>
+      </c>
+      <c r="S40" s="13">
+        <v>16</v>
+      </c>
+      <c r="T40" s="13">
+        <v>75</v>
+      </c>
+      <c r="U40" s="13">
+        <v>47</v>
+      </c>
+      <c r="V40" s="13">
+        <v>33</v>
+      </c>
+      <c r="W40" s="13">
+        <v>0</v>
+      </c>
+      <c r="X40" s="13">
         <v>4</v>
       </c>
-      <c r="F40" s="13">
+      <c r="Y40" s="13">
+        <v>0</v>
+      </c>
+      <c r="Z40" s="13">
+        <v>7</v>
+      </c>
+      <c r="AA40" s="13">
+        <v>0</v>
+      </c>
+      <c r="AB40" s="13">
+        <v>9</v>
+      </c>
+      <c r="AC40" s="13">
+        <v>0</v>
+      </c>
+      <c r="AD40" s="13">
+        <v>0</v>
+      </c>
+      <c r="AE40" s="13">
+        <v>11</v>
+      </c>
+      <c r="AF40" s="13">
+        <v>3</v>
+      </c>
+      <c r="AG40" s="13">
+        <v>1</v>
+      </c>
+      <c r="AH40" s="13">
+        <v>12</v>
+      </c>
+      <c r="AI40" s="13">
+        <v>0</v>
+      </c>
+      <c r="AJ40" s="13">
+        <v>0</v>
+      </c>
+      <c r="AK40" s="13">
+        <v>0</v>
+      </c>
+      <c r="AL40" s="13">
         <v>2</v>
       </c>
-      <c r="G40" s="13">
+      <c r="AM40" s="13">
         <v>1</v>
       </c>
-      <c r="H40" s="13">
+      <c r="AN40" s="13">
+        <v>2</v>
+      </c>
+      <c r="AO40" s="13">
+        <v>1</v>
+      </c>
+      <c r="AP40" s="13">
+        <v>0</v>
+      </c>
+      <c r="AQ40" s="13">
+        <v>0</v>
+      </c>
+      <c r="AR40" s="13">
+        <v>3</v>
+      </c>
+      <c r="AS40" s="13">
         <v>5</v>
       </c>
-      <c r="I40" s="13">
-        <v>0</v>
-      </c>
-      <c r="J40" s="13">
-        <v>100</v>
-      </c>
-      <c r="K40" s="13">
-        <v>0</v>
-      </c>
-      <c r="L40" s="13">
-        <v>0</v>
-      </c>
-      <c r="M40" s="13">
-        <v>0</v>
-      </c>
-      <c r="N40" s="13">
-        <v>0</v>
-      </c>
-      <c r="O40" s="13">
-        <v>0</v>
-      </c>
-      <c r="P40" s="13">
-        <v>0</v>
-      </c>
-      <c r="Q40" s="13">
-        <v>0</v>
-      </c>
-      <c r="R40" s="13">
+      <c r="AT40" s="13">
         <v>8</v>
       </c>
-      <c r="S40" s="13">
-        <v>7</v>
-      </c>
-      <c r="T40" s="13">
-        <v>16</v>
-      </c>
-      <c r="U40" s="13">
-        <v>75</v>
-      </c>
-      <c r="V40" s="13">
-        <v>47</v>
-      </c>
-      <c r="W40" s="13">
-        <v>33</v>
-      </c>
-      <c r="X40" s="13">
-        <v>0</v>
-      </c>
-      <c r="Y40" s="13">
-        <v>4</v>
-      </c>
-      <c r="Z40" s="13">
-        <v>0</v>
-      </c>
-      <c r="AA40" s="13">
-        <v>7</v>
-      </c>
-      <c r="AB40" s="13">
-        <v>0</v>
-      </c>
-      <c r="AC40" s="13">
-        <v>9</v>
-      </c>
-      <c r="AD40" s="13">
-        <v>0</v>
-      </c>
-      <c r="AE40" s="13">
-        <v>0</v>
-      </c>
-      <c r="AF40" s="13">
-        <v>11</v>
-      </c>
-      <c r="AG40" s="13">
-        <v>3</v>
-      </c>
-      <c r="AH40" s="13">
-        <v>1</v>
-      </c>
-      <c r="AI40" s="13">
-        <v>12</v>
-      </c>
-      <c r="AJ40" s="13">
-        <v>0</v>
-      </c>
-      <c r="AK40" s="13">
-        <v>0</v>
-      </c>
-      <c r="AL40" s="13">
-        <v>0</v>
-      </c>
-      <c r="AM40" s="13">
-        <v>2</v>
-      </c>
-      <c r="AN40" s="13">
-        <v>1</v>
-      </c>
-      <c r="AO40" s="13">
-        <v>2</v>
-      </c>
-      <c r="AP40" s="13">
-        <v>1</v>
-      </c>
-      <c r="AQ40" s="13">
-        <v>0</v>
-      </c>
-      <c r="AR40" s="13">
-        <v>0</v>
-      </c>
-      <c r="AS40" s="13">
-        <v>3</v>
-      </c>
-      <c r="AT40" s="13">
-        <v>5</v>
-      </c>
       <c r="AU40" s="13">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="AV40" s="13">
         <v>0</v>
@@ -5557,31 +5557,31 @@
       </c>
       <c r="D41" s="11"/>
       <c r="E41" s="11">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F41" s="11">
+        <v>3</v>
+      </c>
+      <c r="G41" s="11">
         <v>10</v>
       </c>
-      <c r="G41" s="11">
+      <c r="H41" s="11">
         <v>3</v>
-      </c>
-      <c r="H41" s="11">
-        <v>10</v>
       </c>
       <c r="I41" s="11">
         <v>3</v>
       </c>
       <c r="J41" s="11">
+        <v>0</v>
+      </c>
+      <c r="K41" s="11">
+        <v>0</v>
+      </c>
+      <c r="L41" s="11">
         <v>3</v>
       </c>
-      <c r="K41" s="11">
-        <v>0</v>
-      </c>
-      <c r="L41" s="11">
-        <v>0</v>
-      </c>
       <c r="M41" s="11">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N41" s="11">
         <v>0</v>
@@ -5610,8 +5610,8 @@
       <c r="V41" s="11">
         <v>0</v>
       </c>
-      <c r="W41" s="11">
-        <v>0</v>
+      <c r="W41" s="11" t="s">
+        <v>59</v>
       </c>
       <c r="X41" s="11" t="s">
         <v>59</v>
@@ -5716,133 +5716,133 @@
       </c>
       <c r="D42" s="13"/>
       <c r="E42" s="13">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="F42" s="13">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="G42" s="13">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="H42" s="13">
-        <v>48</v>
+        <v>1</v>
       </c>
       <c r="I42" s="13">
         <v>1</v>
       </c>
       <c r="J42" s="13">
+        <v>3</v>
+      </c>
+      <c r="K42" s="13">
+        <v>0</v>
+      </c>
+      <c r="L42" s="13">
+        <v>0</v>
+      </c>
+      <c r="M42" s="13">
+        <v>19</v>
+      </c>
+      <c r="N42" s="13">
+        <v>3</v>
+      </c>
+      <c r="O42" s="13">
+        <v>5</v>
+      </c>
+      <c r="P42" s="13">
+        <v>15</v>
+      </c>
+      <c r="Q42" s="13">
         <v>1</v>
       </c>
-      <c r="K42" s="13">
+      <c r="R42" s="13">
+        <v>50</v>
+      </c>
+      <c r="S42" s="13">
         <v>3</v>
       </c>
-      <c r="L42" s="13">
-        <v>0</v>
-      </c>
-      <c r="M42" s="13">
-        <v>0</v>
-      </c>
-      <c r="N42" s="13">
-        <v>19</v>
-      </c>
-      <c r="O42" s="13">
-        <v>3</v>
-      </c>
-      <c r="P42" s="13">
-        <v>5</v>
-      </c>
-      <c r="Q42" s="13">
-        <v>15</v>
-      </c>
-      <c r="R42" s="13">
+      <c r="T42" s="13">
+        <v>11</v>
+      </c>
+      <c r="U42" s="13">
+        <v>68</v>
+      </c>
+      <c r="V42" s="13">
+        <v>39</v>
+      </c>
+      <c r="W42" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="X42" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="Y42" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="Z42" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="AA42" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="AB42" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="AC42" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="AD42" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="AE42" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="AF42" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="AG42" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="AH42" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="AI42" s="13">
+        <v>0</v>
+      </c>
+      <c r="AJ42" s="13">
+        <v>0</v>
+      </c>
+      <c r="AK42" s="13">
         <v>1</v>
       </c>
-      <c r="S42" s="13">
-        <v>50</v>
-      </c>
-      <c r="T42" s="13">
-        <v>3</v>
-      </c>
-      <c r="U42" s="13">
-        <v>11</v>
-      </c>
-      <c r="V42" s="13">
-        <v>68</v>
-      </c>
-      <c r="W42" s="13">
-        <v>39</v>
-      </c>
-      <c r="X42" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="Y42" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="Z42" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="AA42" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="AB42" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="AC42" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="AD42" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="AE42" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="AF42" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="AG42" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="AH42" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="AI42" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="AJ42" s="13">
-        <v>0</v>
-      </c>
-      <c r="AK42" s="13">
-        <v>0</v>
-      </c>
       <c r="AL42" s="13">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="AM42" s="13">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="AN42" s="13">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="AO42" s="13">
         <v>32</v>
       </c>
       <c r="AP42" s="13">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="AQ42" s="13">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="AR42" s="13">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="AS42" s="13">
-        <v>1</v>
+        <v>83</v>
       </c>
       <c r="AT42" s="13">
-        <v>83</v>
-      </c>
-      <c r="AU42" s="13">
         <v>61</v>
+      </c>
+      <c r="AU42" s="13" t="s">
+        <v>59</v>
       </c>
       <c r="AV42" s="13" t="s">
         <v>59</v>
@@ -5875,154 +5875,154 @@
       </c>
       <c r="D43" s="11"/>
       <c r="E43" s="11">
+        <v>14</v>
+      </c>
+      <c r="F43" s="11">
+        <v>16</v>
+      </c>
+      <c r="G43" s="11">
         <v>10</v>
       </c>
-      <c r="F43" s="11">
-        <v>14</v>
-      </c>
-      <c r="G43" s="11">
-        <v>16</v>
-      </c>
       <c r="H43" s="11">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="I43" s="11">
         <v>18</v>
       </c>
       <c r="J43" s="11">
+        <v>32</v>
+      </c>
+      <c r="K43" s="11">
         <v>18</v>
       </c>
-      <c r="K43" s="11">
-        <v>32</v>
-      </c>
       <c r="L43" s="11">
+        <v>25</v>
+      </c>
+      <c r="M43" s="11">
+        <v>2</v>
+      </c>
+      <c r="N43" s="11">
+        <v>12</v>
+      </c>
+      <c r="O43" s="11">
+        <v>8</v>
+      </c>
+      <c r="P43" s="11">
+        <v>4</v>
+      </c>
+      <c r="Q43" s="11">
+        <v>40</v>
+      </c>
+      <c r="R43" s="11">
+        <v>14</v>
+      </c>
+      <c r="S43" s="11">
+        <v>31</v>
+      </c>
+      <c r="T43" s="11">
+        <v>24</v>
+      </c>
+      <c r="U43" s="11">
+        <v>11</v>
+      </c>
+      <c r="V43" s="11">
+        <v>13</v>
+      </c>
+      <c r="W43" s="11">
+        <v>0</v>
+      </c>
+      <c r="X43" s="11">
+        <v>15</v>
+      </c>
+      <c r="Y43" s="11">
+        <v>0</v>
+      </c>
+      <c r="Z43" s="11">
+        <v>10</v>
+      </c>
+      <c r="AA43" s="11">
+        <v>7</v>
+      </c>
+      <c r="AB43" s="11">
+        <v>0</v>
+      </c>
+      <c r="AC43" s="11">
+        <v>9</v>
+      </c>
+      <c r="AD43" s="11">
+        <v>0</v>
+      </c>
+      <c r="AE43" s="11">
+        <v>16</v>
+      </c>
+      <c r="AF43" s="11">
+        <v>7</v>
+      </c>
+      <c r="AG43" s="11">
+        <v>4</v>
+      </c>
+      <c r="AH43" s="11">
+        <v>27</v>
+      </c>
+      <c r="AI43" s="11">
+        <v>0</v>
+      </c>
+      <c r="AJ43" s="11">
+        <v>5</v>
+      </c>
+      <c r="AK43" s="11">
+        <v>6</v>
+      </c>
+      <c r="AL43" s="11">
+        <v>2</v>
+      </c>
+      <c r="AM43" s="11">
+        <v>0</v>
+      </c>
+      <c r="AN43" s="11">
+        <v>20</v>
+      </c>
+      <c r="AO43" s="11">
+        <v>21</v>
+      </c>
+      <c r="AP43" s="11">
+        <v>2</v>
+      </c>
+      <c r="AQ43" s="11">
+        <v>4</v>
+      </c>
+      <c r="AR43" s="11">
+        <v>62</v>
+      </c>
+      <c r="AS43" s="11">
+        <v>33</v>
+      </c>
+      <c r="AT43" s="11">
+        <v>63</v>
+      </c>
+      <c r="AU43" s="11">
+        <v>0</v>
+      </c>
+      <c r="AV43" s="11">
+        <v>46</v>
+      </c>
+      <c r="AW43" s="11">
+        <v>23</v>
+      </c>
+      <c r="AX43" s="11">
         <v>18</v>
       </c>
-      <c r="M43" s="11">
-        <v>25</v>
-      </c>
-      <c r="N43" s="11">
-        <v>2</v>
-      </c>
-      <c r="O43" s="11">
-        <v>12</v>
-      </c>
-      <c r="P43" s="11">
-        <v>8</v>
-      </c>
-      <c r="Q43" s="11">
-        <v>4</v>
-      </c>
-      <c r="R43" s="11">
-        <v>40</v>
-      </c>
-      <c r="S43" s="11">
-        <v>14</v>
-      </c>
-      <c r="T43" s="11">
-        <v>31</v>
-      </c>
-      <c r="U43" s="11">
-        <v>24</v>
-      </c>
-      <c r="V43" s="11">
-        <v>11</v>
-      </c>
-      <c r="W43" s="11">
-        <v>13</v>
-      </c>
-      <c r="X43" s="11">
-        <v>0</v>
-      </c>
-      <c r="Y43" s="11">
-        <v>15</v>
-      </c>
-      <c r="Z43" s="11">
-        <v>0</v>
-      </c>
-      <c r="AA43" s="11">
-        <v>10</v>
-      </c>
-      <c r="AB43" s="11">
-        <v>7</v>
-      </c>
-      <c r="AC43" s="11">
-        <v>0</v>
-      </c>
-      <c r="AD43" s="11">
-        <v>9</v>
-      </c>
-      <c r="AE43" s="11">
-        <v>0</v>
-      </c>
-      <c r="AF43" s="11">
-        <v>16</v>
-      </c>
-      <c r="AG43" s="11">
-        <v>7</v>
-      </c>
-      <c r="AH43" s="11">
-        <v>4</v>
-      </c>
-      <c r="AI43" s="11">
-        <v>27</v>
-      </c>
-      <c r="AJ43" s="11">
-        <v>0</v>
-      </c>
-      <c r="AK43" s="11">
-        <v>5</v>
-      </c>
-      <c r="AL43" s="11">
-        <v>6</v>
-      </c>
-      <c r="AM43" s="11">
-        <v>2</v>
-      </c>
-      <c r="AN43" s="11">
-        <v>0</v>
-      </c>
-      <c r="AO43" s="11">
-        <v>20</v>
-      </c>
-      <c r="AP43" s="11">
-        <v>21</v>
-      </c>
-      <c r="AQ43" s="11">
-        <v>2</v>
-      </c>
-      <c r="AR43" s="11">
-        <v>4</v>
-      </c>
-      <c r="AS43" s="11">
-        <v>62</v>
-      </c>
-      <c r="AT43" s="11">
-        <v>33</v>
-      </c>
-      <c r="AU43" s="11">
-        <v>63</v>
-      </c>
-      <c r="AV43" s="11">
-        <v>0</v>
-      </c>
-      <c r="AW43" s="11">
-        <v>46</v>
-      </c>
-      <c r="AX43" s="11">
-        <v>23</v>
-      </c>
       <c r="AY43" s="11">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AZ43" s="11">
-        <v>19</v>
+        <v>119</v>
       </c>
       <c r="BA43" s="11">
-        <v>119</v>
+        <v>79</v>
       </c>
       <c r="BB43" s="11">
-        <v>79</v>
+        <v>39</v>
       </c>
     </row>
     <row r="44" spans="2:54" x14ac:dyDescent="0.25">
@@ -6034,103 +6034,103 @@
       </c>
       <c r="D44" s="13"/>
       <c r="E44" s="13">
-        <v>4</v>
+        <v>58</v>
       </c>
       <c r="F44" s="13">
-        <v>58</v>
+        <v>26</v>
       </c>
       <c r="G44" s="13">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="H44" s="13">
-        <v>38</v>
+        <v>87</v>
       </c>
       <c r="I44" s="13">
-        <v>87</v>
+        <v>67</v>
       </c>
       <c r="J44" s="13">
+        <v>21</v>
+      </c>
+      <c r="K44" s="13">
+        <v>57</v>
+      </c>
+      <c r="L44" s="13">
+        <v>89</v>
+      </c>
+      <c r="M44" s="13">
+        <v>10</v>
+      </c>
+      <c r="N44" s="13">
+        <v>19</v>
+      </c>
+      <c r="O44" s="13">
+        <v>11</v>
+      </c>
+      <c r="P44" s="13">
+        <v>21</v>
+      </c>
+      <c r="Q44" s="13">
+        <v>39</v>
+      </c>
+      <c r="R44" s="13">
+        <v>17</v>
+      </c>
+      <c r="S44" s="13">
+        <v>42</v>
+      </c>
+      <c r="T44" s="13">
+        <v>43</v>
+      </c>
+      <c r="U44" s="13">
+        <v>11</v>
+      </c>
+      <c r="V44" s="13">
+        <v>12</v>
+      </c>
+      <c r="W44" s="13">
+        <v>0</v>
+      </c>
+      <c r="X44" s="13">
+        <v>19</v>
+      </c>
+      <c r="Y44" s="13">
+        <v>0</v>
+      </c>
+      <c r="Z44" s="13">
+        <v>40</v>
+      </c>
+      <c r="AA44" s="13">
+        <v>34</v>
+      </c>
+      <c r="AB44" s="13">
+        <v>24</v>
+      </c>
+      <c r="AC44" s="13">
+        <v>32</v>
+      </c>
+      <c r="AD44" s="13">
+        <v>22</v>
+      </c>
+      <c r="AE44" s="13">
+        <v>106</v>
+      </c>
+      <c r="AF44" s="13">
+        <v>98</v>
+      </c>
+      <c r="AG44" s="13">
         <v>67</v>
       </c>
-      <c r="K44" s="13">
-        <v>21</v>
-      </c>
-      <c r="L44" s="13">
-        <v>57</v>
-      </c>
-      <c r="M44" s="13">
-        <v>89</v>
-      </c>
-      <c r="N44" s="13">
-        <v>10</v>
-      </c>
-      <c r="O44" s="13">
-        <v>19</v>
-      </c>
-      <c r="P44" s="13">
-        <v>11</v>
-      </c>
-      <c r="Q44" s="13">
-        <v>21</v>
-      </c>
-      <c r="R44" s="13">
-        <v>39</v>
-      </c>
-      <c r="S44" s="13">
-        <v>17</v>
-      </c>
-      <c r="T44" s="13">
-        <v>42</v>
-      </c>
-      <c r="U44" s="13">
-        <v>43</v>
-      </c>
-      <c r="V44" s="13">
-        <v>11</v>
-      </c>
-      <c r="W44" s="13">
-        <v>12</v>
-      </c>
-      <c r="X44" s="13">
-        <v>0</v>
-      </c>
-      <c r="Y44" s="13">
-        <v>19</v>
-      </c>
-      <c r="Z44" s="13">
-        <v>0</v>
-      </c>
-      <c r="AA44" s="13">
-        <v>40</v>
-      </c>
-      <c r="AB44" s="13">
-        <v>34</v>
-      </c>
-      <c r="AC44" s="13">
-        <v>24</v>
-      </c>
-      <c r="AD44" s="13">
-        <v>32</v>
-      </c>
-      <c r="AE44" s="13">
-        <v>22</v>
-      </c>
-      <c r="AF44" s="13">
-        <v>106</v>
-      </c>
-      <c r="AG44" s="13">
-        <v>98</v>
-      </c>
       <c r="AH44" s="13">
-        <v>67</v>
+        <v>96</v>
       </c>
       <c r="AI44" s="13">
-        <v>96</v>
+        <v>25</v>
       </c>
       <c r="AJ44" s="13">
-        <v>25</v>
-      </c>
-      <c r="AK44" s="13">
         <v>33</v>
+      </c>
+      <c r="AK44" s="13" t="s">
+        <v>59</v>
       </c>
       <c r="AL44" s="13" t="s">
         <v>59</v>
@@ -6246,8 +6246,8 @@
       <c r="V45" s="11">
         <v>1000</v>
       </c>
-      <c r="W45" s="11">
-        <v>1000</v>
+      <c r="W45" s="11" t="s">
+        <v>59</v>
       </c>
       <c r="X45" s="11" t="s">
         <v>59</v>
@@ -6352,7 +6352,7 @@
       </c>
       <c r="D46" s="13"/>
       <c r="E46" s="13">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="F46" s="13">
         <v>0</v>
@@ -6369,8 +6369,8 @@
       <c r="J46" s="13">
         <v>0</v>
       </c>
-      <c r="K46" s="13">
-        <v>0</v>
+      <c r="K46" s="13" t="s">
+        <v>59</v>
       </c>
       <c r="L46" s="13" t="s">
         <v>59</v>
@@ -6405,8 +6405,8 @@
       <c r="V46" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="W46" s="13" t="s">
-        <v>59</v>
+      <c r="W46" s="13">
+        <v>1000</v>
       </c>
       <c r="X46" s="13">
         <v>1000</v>
@@ -6414,8 +6414,8 @@
       <c r="Y46" s="13">
         <v>1000</v>
       </c>
-      <c r="Z46" s="13">
-        <v>1000</v>
+      <c r="Z46" s="13" t="s">
+        <v>59</v>
       </c>
       <c r="AA46" s="13" t="s">
         <v>59</v>
@@ -6511,10 +6511,10 @@
       </c>
       <c r="D47" s="11"/>
       <c r="E47" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F47" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G47" s="11">
         <v>0</v>
@@ -6526,13 +6526,13 @@
         <v>0</v>
       </c>
       <c r="J47" s="11">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K47" s="11">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L47" s="11">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M47" s="11">
         <v>0</v>
@@ -6564,8 +6564,8 @@
       <c r="V47" s="11">
         <v>0</v>
       </c>
-      <c r="W47" s="11">
-        <v>0</v>
+      <c r="W47" s="11" t="s">
+        <v>59</v>
       </c>
       <c r="X47" s="11" t="s">
         <v>59</v>
@@ -6670,34 +6670,34 @@
       </c>
       <c r="D48" s="13"/>
       <c r="E48" s="13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F48" s="13">
+        <v>0</v>
+      </c>
+      <c r="G48" s="13">
         <v>2</v>
       </c>
-      <c r="G48" s="13">
-        <v>0</v>
-      </c>
       <c r="H48" s="13">
+        <v>0</v>
+      </c>
+      <c r="I48" s="13">
+        <v>0</v>
+      </c>
+      <c r="J48" s="13">
         <v>2</v>
       </c>
-      <c r="I48" s="13">
-        <v>0</v>
-      </c>
-      <c r="J48" s="13">
-        <v>0</v>
-      </c>
       <c r="K48" s="13">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L48" s="13">
         <v>0</v>
       </c>
       <c r="M48" s="13">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N48" s="13">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O48" s="13">
         <v>0</v>
@@ -6723,8 +6723,8 @@
       <c r="V48" s="13">
         <v>0</v>
       </c>
-      <c r="W48" s="13">
-        <v>0</v>
+      <c r="W48" s="13" t="s">
+        <v>59</v>
       </c>
       <c r="X48" s="13" t="s">
         <v>59</v>
@@ -6846,8 +6846,8 @@
       <c r="J49" s="11">
         <v>0</v>
       </c>
-      <c r="K49" s="11">
-        <v>0</v>
+      <c r="K49" s="11" t="s">
+        <v>59</v>
       </c>
       <c r="L49" s="11" t="s">
         <v>59</v>
@@ -7005,8 +7005,8 @@
       <c r="J50" s="13">
         <v>0</v>
       </c>
-      <c r="K50" s="13">
-        <v>0</v>
+      <c r="K50" s="13" t="s">
+        <v>59</v>
       </c>
       <c r="L50" s="13" t="s">
         <v>59</v>
@@ -7147,31 +7147,31 @@
       </c>
       <c r="D51" s="11"/>
       <c r="E51" s="11">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F51" s="11">
+        <v>5</v>
+      </c>
+      <c r="G51" s="11">
+        <v>1</v>
+      </c>
+      <c r="H51" s="11">
+        <v>53</v>
+      </c>
+      <c r="I51" s="11">
+        <v>11</v>
+      </c>
+      <c r="J51" s="11">
+        <v>6</v>
+      </c>
+      <c r="K51" s="11">
+        <v>1</v>
+      </c>
+      <c r="L51" s="11">
         <v>2</v>
       </c>
-      <c r="G51" s="11">
-        <v>5</v>
-      </c>
-      <c r="H51" s="11">
-        <v>1</v>
-      </c>
-      <c r="I51" s="11">
-        <v>53</v>
-      </c>
-      <c r="J51" s="11">
-        <v>11</v>
-      </c>
-      <c r="K51" s="11">
-        <v>6</v>
-      </c>
-      <c r="L51" s="11">
-        <v>1</v>
-      </c>
       <c r="M51" s="11">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N51" s="11">
         <v>0</v>
@@ -7200,8 +7200,8 @@
       <c r="V51" s="11">
         <v>0</v>
       </c>
-      <c r="W51" s="11">
-        <v>0</v>
+      <c r="W51" s="11" t="s">
+        <v>59</v>
       </c>
       <c r="X51" s="11" t="s">
         <v>59</v>
@@ -7332,92 +7332,92 @@
       <c r="M52" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="N52" s="13" t="s">
-        <v>59</v>
+      <c r="N52" s="13">
+        <v>3</v>
       </c>
       <c r="O52" s="13">
+        <v>4</v>
+      </c>
+      <c r="P52" s="13">
+        <v>8</v>
+      </c>
+      <c r="Q52" s="13">
+        <v>6</v>
+      </c>
+      <c r="R52" s="13">
+        <v>9</v>
+      </c>
+      <c r="S52" s="13">
+        <v>0</v>
+      </c>
+      <c r="T52" s="13">
+        <v>0</v>
+      </c>
+      <c r="U52" s="13">
+        <v>12</v>
+      </c>
+      <c r="V52" s="13">
+        <v>7</v>
+      </c>
+      <c r="W52" s="13">
+        <v>0</v>
+      </c>
+      <c r="X52" s="13">
+        <v>1</v>
+      </c>
+      <c r="Y52" s="13">
+        <v>0</v>
+      </c>
+      <c r="Z52" s="13">
         <v>3</v>
       </c>
-      <c r="P52" s="13">
+      <c r="AA52" s="13">
+        <v>0</v>
+      </c>
+      <c r="AB52" s="13">
         <v>4</v>
       </c>
-      <c r="Q52" s="13">
-        <v>8</v>
-      </c>
-      <c r="R52" s="13">
-        <v>6</v>
-      </c>
-      <c r="S52" s="13">
-        <v>9</v>
-      </c>
-      <c r="T52" s="13">
-        <v>0</v>
-      </c>
-      <c r="U52" s="13">
-        <v>0</v>
-      </c>
-      <c r="V52" s="13">
-        <v>12</v>
-      </c>
-      <c r="W52" s="13">
-        <v>7</v>
-      </c>
-      <c r="X52" s="13">
-        <v>0</v>
-      </c>
-      <c r="Y52" s="13">
+      <c r="AC52" s="13">
+        <v>0</v>
+      </c>
+      <c r="AD52" s="13">
         <v>1</v>
       </c>
-      <c r="Z52" s="13">
-        <v>0</v>
-      </c>
-      <c r="AA52" s="13">
-        <v>3</v>
-      </c>
-      <c r="AB52" s="13">
-        <v>0</v>
-      </c>
-      <c r="AC52" s="13">
-        <v>4</v>
-      </c>
-      <c r="AD52" s="13">
-        <v>0</v>
-      </c>
       <c r="AE52" s="13">
+        <v>0</v>
+      </c>
+      <c r="AF52" s="13">
+        <v>0</v>
+      </c>
+      <c r="AG52" s="13">
+        <v>0</v>
+      </c>
+      <c r="AH52" s="13">
+        <v>2</v>
+      </c>
+      <c r="AI52" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="AJ52" s="13">
+        <v>0</v>
+      </c>
+      <c r="AK52" s="13">
+        <v>0</v>
+      </c>
+      <c r="AL52" s="13">
+        <v>0</v>
+      </c>
+      <c r="AM52" s="13">
+        <v>0</v>
+      </c>
+      <c r="AN52" s="13">
+        <v>0</v>
+      </c>
+      <c r="AO52" s="13">
         <v>1</v>
       </c>
-      <c r="AF52" s="13">
-        <v>0</v>
-      </c>
-      <c r="AG52" s="13">
-        <v>0</v>
-      </c>
-      <c r="AH52" s="13">
-        <v>0</v>
-      </c>
-      <c r="AI52" s="13">
-        <v>2</v>
-      </c>
-      <c r="AJ52" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="AK52" s="13">
-        <v>0</v>
-      </c>
-      <c r="AL52" s="13">
-        <v>0</v>
-      </c>
-      <c r="AM52" s="13">
-        <v>0</v>
-      </c>
-      <c r="AN52" s="13">
-        <v>0</v>
-      </c>
-      <c r="AO52" s="13">
-        <v>0</v>
-      </c>
       <c r="AP52" s="13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ52" s="13">
         <v>0</v>
@@ -7429,31 +7429,31 @@
         <v>0</v>
       </c>
       <c r="AT52" s="13">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="AU52" s="13">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="AV52" s="13">
-        <v>0</v>
+        <v>69</v>
       </c>
       <c r="AW52" s="13">
-        <v>69</v>
+        <v>17</v>
       </c>
       <c r="AX52" s="13">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AY52" s="13">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="AZ52" s="13">
-        <v>45</v>
+        <v>143</v>
       </c>
       <c r="BA52" s="13">
-        <v>143</v>
+        <v>113</v>
       </c>
       <c r="BB52" s="13">
-        <v>113</v>
+        <v>59</v>
       </c>
     </row>
     <row r="53" spans="2:54" x14ac:dyDescent="0.25">
@@ -7465,34 +7465,34 @@
       </c>
       <c r="D53" s="11"/>
       <c r="E53" s="11">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="F53" s="11">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="G53" s="11">
+        <v>7</v>
+      </c>
+      <c r="H53" s="11">
+        <v>15</v>
+      </c>
+      <c r="I53" s="11">
         <v>10</v>
       </c>
-      <c r="H53" s="11">
-        <v>7</v>
-      </c>
-      <c r="I53" s="11">
-        <v>15</v>
-      </c>
       <c r="J53" s="11">
+        <v>13</v>
+      </c>
+      <c r="K53" s="11">
         <v>10</v>
       </c>
-      <c r="K53" s="11">
-        <v>13</v>
-      </c>
       <c r="L53" s="11">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="M53" s="11">
-        <v>6</v>
+        <v>32</v>
       </c>
       <c r="N53" s="11">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="O53" s="11">
         <v>0</v>
@@ -7518,8 +7518,8 @@
       <c r="V53" s="11">
         <v>0</v>
       </c>
-      <c r="W53" s="11">
-        <v>0</v>
+      <c r="W53" s="11" t="s">
+        <v>59</v>
       </c>
       <c r="X53" s="11" t="s">
         <v>59</v>
@@ -7677,44 +7677,44 @@
       <c r="V54" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="W54" s="13" t="s">
-        <v>59</v>
+      <c r="W54" s="13">
+        <v>0</v>
       </c>
       <c r="X54" s="13">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="Y54" s="13">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="Z54" s="13">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="AA54" s="13">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="AB54" s="13">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="AC54" s="13">
-        <v>64</v>
+        <v>12</v>
       </c>
       <c r="AD54" s="13">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AE54" s="13">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="AF54" s="13">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="AG54" s="13">
-        <v>23</v>
+        <v>49</v>
       </c>
       <c r="AH54" s="13">
-        <v>49</v>
-      </c>
-      <c r="AI54" s="13">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="AI54" s="13" t="s">
+        <v>59</v>
       </c>
       <c r="AJ54" s="13" t="s">
         <v>59</v>
@@ -7749,29 +7749,29 @@
       <c r="AT54" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="AU54" s="13" t="s">
-        <v>59</v>
+      <c r="AU54" s="13">
+        <v>0</v>
       </c>
       <c r="AV54" s="13">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="AW54" s="13">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="AX54" s="13">
         <v>16</v>
       </c>
       <c r="AY54" s="13">
-        <v>16</v>
+        <v>51</v>
       </c>
       <c r="AZ54" s="13">
-        <v>51</v>
+        <v>87</v>
       </c>
       <c r="BA54" s="13">
-        <v>87</v>
+        <v>1</v>
       </c>
       <c r="BB54" s="13">
-        <v>1</v>
+        <v>56</v>
       </c>
     </row>
     <row r="55" spans="2:54" x14ac:dyDescent="0.25">
@@ -7878,59 +7878,59 @@
       <c r="AJ55" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="AK55" s="11" t="s">
-        <v>59</v>
+      <c r="AK55" s="11">
+        <v>36</v>
       </c>
       <c r="AL55" s="11">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="AM55" s="11">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="AN55" s="11">
-        <v>32</v>
+        <v>210</v>
       </c>
       <c r="AO55" s="11">
-        <v>210</v>
+        <v>280</v>
       </c>
       <c r="AP55" s="11">
-        <v>280</v>
+        <v>30</v>
       </c>
       <c r="AQ55" s="11">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="AR55" s="11">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="AS55" s="11">
-        <v>20</v>
+        <v>51</v>
       </c>
       <c r="AT55" s="11">
-        <v>51</v>
+        <v>97</v>
       </c>
       <c r="AU55" s="11">
-        <v>97</v>
+        <v>0</v>
       </c>
       <c r="AV55" s="11">
         <v>0</v>
       </c>
       <c r="AW55" s="11">
-        <v>0</v>
+        <v>63</v>
       </c>
       <c r="AX55" s="11">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="AY55" s="11">
-        <v>45</v>
+        <v>131</v>
       </c>
       <c r="AZ55" s="11">
-        <v>131</v>
+        <v>149</v>
       </c>
       <c r="BA55" s="11">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="BB55" s="11">
-        <v>156</v>
+        <v>206</v>
       </c>
     </row>
     <row r="56" spans="2:54" x14ac:dyDescent="0.25">
@@ -8070,8 +8070,8 @@
       <c r="AB57" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="AC57" s="11" t="s">
-        <v>59</v>
+      <c r="AC57" s="11">
+        <v>0</v>
       </c>
       <c r="AD57" s="11">
         <v>0</v>
@@ -8091,8 +8091,8 @@
       <c r="AI57" s="11">
         <v>0</v>
       </c>
-      <c r="AJ57" s="11">
-        <v>0</v>
+      <c r="AJ57" s="11" t="s">
+        <v>59</v>
       </c>
       <c r="AK57" s="11" t="s">
         <v>59</v>
@@ -8124,8 +8124,8 @@
       <c r="AT57" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="AU57" s="11" t="s">
-        <v>59</v>
+      <c r="AU57" s="11">
+        <v>0</v>
       </c>
       <c r="AV57" s="11" t="s">
         <v>59</v>
@@ -8136,8 +8136,8 @@
       <c r="AX57" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="AY57" s="11" t="s">
-        <v>59</v>
+      <c r="AY57" s="11">
+        <v>0</v>
       </c>
       <c r="AZ57" s="11" t="s">
         <v>59</v>
@@ -8220,17 +8220,17 @@
       <c r="Y58" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="Z58" s="13" t="s">
-        <v>59</v>
+      <c r="Z58" s="13">
+        <v>1000</v>
       </c>
       <c r="AA58" s="13">
         <v>1000</v>
       </c>
       <c r="AB58" s="13">
+        <v>5000</v>
+      </c>
+      <c r="AC58" s="13">
         <v>1000</v>
-      </c>
-      <c r="AC58" s="13">
-        <v>5000</v>
       </c>
       <c r="AD58" s="13">
         <v>1000</v>
@@ -8248,10 +8248,10 @@
         <v>1000</v>
       </c>
       <c r="AI58" s="13">
-        <v>1000</v>
-      </c>
-      <c r="AJ58" s="13">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="AJ58" s="13" t="s">
+        <v>59</v>
       </c>
       <c r="AK58" s="13" t="s">
         <v>59</v>
@@ -8283,8 +8283,8 @@
       <c r="AT58" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="AU58" s="13" t="s">
-        <v>59</v>
+      <c r="AU58" s="13">
+        <v>0</v>
       </c>
       <c r="AV58" s="13" t="s">
         <v>59</v>
@@ -8295,8 +8295,8 @@
       <c r="AX58" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="AY58" s="13" t="s">
-        <v>59</v>
+      <c r="AY58" s="13">
+        <v>0</v>
       </c>
       <c r="AZ58" s="13" t="s">
         <v>59</v>
@@ -8377,17 +8377,17 @@
       <c r="Y59" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="Z59" s="15" t="s">
-        <v>59</v>
+      <c r="Z59" s="15">
+        <v>1000</v>
       </c>
       <c r="AA59" s="15">
         <v>1000</v>
       </c>
       <c r="AB59" s="15">
+        <v>5000</v>
+      </c>
+      <c r="AC59" s="15">
         <v>1000</v>
-      </c>
-      <c r="AC59" s="15">
-        <v>5000</v>
       </c>
       <c r="AD59" s="15">
         <v>1000</v>
@@ -8405,7 +8405,7 @@
         <v>1000</v>
       </c>
       <c r="AI59" s="15">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AJ59" s="15">
         <v>0</v>
@@ -8593,23 +8593,23 @@
       <c r="Y61" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="Z61" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="AA61" s="11">
-        <v>0</v>
-      </c>
-      <c r="AB61" s="11" t="s">
-        <v>59</v>
+      <c r="Z61" s="11">
+        <v>0</v>
+      </c>
+      <c r="AA61" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="AB61" s="11">
+        <v>-1</v>
       </c>
       <c r="AC61" s="11">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AD61" s="11">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AE61" s="11">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AF61" s="11">
         <v>0</v>
@@ -8620,8 +8620,8 @@
       <c r="AH61" s="11">
         <v>0</v>
       </c>
-      <c r="AI61" s="11">
-        <v>0</v>
+      <c r="AI61" s="11" t="s">
+        <v>59</v>
       </c>
       <c r="AJ61" s="11" t="s">
         <v>59</v>
@@ -8632,33 +8632,33 @@
       <c r="AL61" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="AM61" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="AN61" s="11">
+      <c r="AM61" s="11">
         <v>1</v>
       </c>
+      <c r="AN61" s="11" t="s">
+        <v>59</v>
+      </c>
       <c r="AO61" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="AP61" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="AQ61" s="11">
+      <c r="AP61" s="11">
         <v>1</v>
       </c>
+      <c r="AQ61" s="11" t="s">
+        <v>59</v>
+      </c>
       <c r="AR61" s="11" t="s">
         <v>59</v>
       </c>
       <c r="AS61" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="AT61" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="AU61" s="11">
+      <c r="AT61" s="11">
         <v>14</v>
       </c>
+      <c r="AU61" s="11" t="s">
+        <v>59</v>
+      </c>
       <c r="AV61" s="11" t="s">
         <v>59</v>
       </c>
@@ -8668,8 +8668,8 @@
       <c r="AX61" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="AY61" s="11" t="s">
-        <v>59</v>
+      <c r="AY61" s="11">
+        <v>0</v>
       </c>
       <c r="AZ61" s="11" t="s">
         <v>59</v>
@@ -8812,11 +8812,11 @@
       <c r="AS62" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="AT62" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="AU62" s="13">
+      <c r="AT62" s="13">
         <v>8</v>
+      </c>
+      <c r="AU62" s="13" t="s">
+        <v>59</v>
       </c>
       <c r="AV62" s="13" t="s">
         <v>59</v>
@@ -8923,11 +8923,11 @@
       <c r="AC63" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="AD63" s="11" t="s">
-        <v>59</v>
+      <c r="AD63" s="11">
+        <v>-1</v>
       </c>
       <c r="AE63" s="11">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AF63" s="11">
         <v>0</v>
@@ -8938,8 +8938,8 @@
       <c r="AH63" s="11">
         <v>0</v>
       </c>
-      <c r="AI63" s="11">
-        <v>0</v>
+      <c r="AI63" s="11" t="s">
+        <v>59</v>
       </c>
       <c r="AJ63" s="11" t="s">
         <v>59</v>
@@ -8971,11 +8971,11 @@
       <c r="AS63" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="AT63" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="AU63" s="11">
+      <c r="AT63" s="11">
         <v>6</v>
+      </c>
+      <c r="AU63" s="11" t="s">
+        <v>59</v>
       </c>
       <c r="AV63" s="11" t="s">
         <v>59</v>
@@ -9145,8 +9145,8 @@
       <c r="AX64" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="AY64" s="13" t="s">
-        <v>59</v>
+      <c r="AY64" s="13">
+        <v>0</v>
       </c>
       <c r="AZ64" s="13" t="s">
         <v>59</v>
@@ -9292,8 +9292,8 @@
       <c r="AT65" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="AU65" s="11" t="s">
-        <v>59</v>
+      <c r="AU65" s="11">
+        <v>0</v>
       </c>
       <c r="AV65" s="11" t="s">
         <v>59</v>
@@ -9304,8 +9304,8 @@
       <c r="AX65" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="AY65" s="11" t="s">
-        <v>59</v>
+      <c r="AY65" s="11">
+        <v>0</v>
       </c>
       <c r="AZ65" s="11" t="s">
         <v>59</v>
@@ -9388,23 +9388,23 @@
       <c r="Y66" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="Z66" s="13" t="s">
-        <v>59</v>
+      <c r="Z66" s="13">
+        <v>0</v>
       </c>
       <c r="AA66" s="13">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="AB66" s="13">
         <v>-100</v>
       </c>
       <c r="AC66" s="13">
+        <v>0</v>
+      </c>
+      <c r="AD66" s="13">
         <v>-100</v>
       </c>
-      <c r="AD66" s="13">
-        <v>0</v>
-      </c>
       <c r="AE66" s="13">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="AF66" s="13">
         <v>100</v>
@@ -9415,8 +9415,8 @@
       <c r="AH66" s="13">
         <v>100</v>
       </c>
-      <c r="AI66" s="13">
-        <v>100</v>
+      <c r="AI66" s="13" t="s">
+        <v>59</v>
       </c>
       <c r="AJ66" s="13" t="s">
         <v>59</v>
@@ -9451,8 +9451,8 @@
       <c r="AT66" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="AU66" s="13" t="s">
-        <v>59</v>
+      <c r="AU66" s="13">
+        <v>0</v>
       </c>
       <c r="AV66" s="13" t="s">
         <v>59</v>
@@ -9463,8 +9463,8 @@
       <c r="AX66" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="AY66" s="13" t="s">
-        <v>59</v>
+      <c r="AY66" s="13">
+        <v>0</v>
       </c>
       <c r="AZ66" s="13" t="s">
         <v>59</v>
@@ -9553,11 +9553,11 @@
       <c r="AA67" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="AB67" s="11" t="s">
-        <v>59</v>
+      <c r="AB67" s="11">
+        <v>-2</v>
       </c>
       <c r="AC67" s="11">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AD67" s="11">
         <v>0</v>
@@ -9574,8 +9574,8 @@
       <c r="AH67" s="11">
         <v>0</v>
       </c>
-      <c r="AI67" s="11">
-        <v>0</v>
+      <c r="AI67" s="11" t="s">
+        <v>59</v>
       </c>
       <c r="AJ67" s="11" t="s">
         <v>59</v>
@@ -9607,11 +9607,11 @@
       <c r="AS67" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="AT67" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="AU67" s="11">
+      <c r="AT67" s="11">
         <v>3</v>
+      </c>
+      <c r="AU67" s="11" t="s">
+        <v>59</v>
       </c>
       <c r="AV67" s="11" t="s">
         <v>59</v>
@@ -9781,8 +9781,8 @@
       <c r="AX68" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="AY68" s="13" t="s">
-        <v>59</v>
+      <c r="AY68" s="13">
+        <v>0</v>
       </c>
       <c r="AZ68" s="13" t="s">
         <v>59</v>
@@ -9913,24 +9913,24 @@
       <c r="AO69" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="AP69" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="AQ69" s="11">
+      <c r="AP69" s="11">
         <v>1</v>
       </c>
+      <c r="AQ69" s="11" t="s">
+        <v>59</v>
+      </c>
       <c r="AR69" s="11" t="s">
         <v>59</v>
       </c>
       <c r="AS69" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="AT69" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="AU69" s="11">
+      <c r="AT69" s="11">
         <v>5</v>
       </c>
+      <c r="AU69" s="11" t="s">
+        <v>59</v>
+      </c>
       <c r="AV69" s="11" t="s">
         <v>59</v>
       </c>
@@ -9940,8 +9940,8 @@
       <c r="AX69" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="AY69" s="11" t="s">
-        <v>59</v>
+      <c r="AY69" s="11">
+        <v>0</v>
       </c>
       <c r="AZ69" s="11" t="s">
         <v>59</v>
@@ -10022,23 +10022,23 @@
       <c r="Y70" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="Z70" s="17" t="s">
-        <v>59</v>
+      <c r="Z70" s="17">
+        <v>0</v>
       </c>
       <c r="AA70" s="17">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="AB70" s="17">
-        <v>-100</v>
+        <v>-103</v>
       </c>
       <c r="AC70" s="17">
+        <v>0</v>
+      </c>
+      <c r="AD70" s="17">
         <v>-103</v>
       </c>
-      <c r="AD70" s="17">
-        <v>0</v>
-      </c>
       <c r="AE70" s="17">
-        <v>-103</v>
+        <v>100</v>
       </c>
       <c r="AF70" s="17">
         <v>100</v>
@@ -10050,7 +10050,7 @@
         <v>100</v>
       </c>
       <c r="AI70" s="17">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AJ70" s="17">
         <v>0</v>
@@ -10062,19 +10062,19 @@
         <v>0</v>
       </c>
       <c r="AM70" s="17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN70" s="17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO70" s="17">
         <v>0</v>
       </c>
       <c r="AP70" s="17">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AQ70" s="17">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AR70" s="17">
         <v>0</v>
@@ -10083,10 +10083,10 @@
         <v>0</v>
       </c>
       <c r="AT70" s="17">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="AU70" s="17">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="AV70" s="17">
         <v>0</v>
@@ -10117,154 +10117,154 @@
       <c r="C71" s="15"/>
       <c r="D71" s="15"/>
       <c r="E71" s="15">
-        <v>1086</v>
+        <v>1201</v>
       </c>
       <c r="F71" s="15">
-        <v>1201</v>
+        <v>1133</v>
       </c>
       <c r="G71" s="15">
-        <v>1133</v>
+        <v>1145</v>
       </c>
       <c r="H71" s="15">
-        <v>1145</v>
+        <v>1209</v>
       </c>
       <c r="I71" s="15">
-        <v>1209</v>
+        <v>1233</v>
       </c>
       <c r="J71" s="15">
-        <v>1233</v>
+        <v>1192</v>
       </c>
       <c r="K71" s="15">
-        <v>1192</v>
+        <v>1125</v>
       </c>
       <c r="L71" s="15">
-        <v>1125</v>
+        <v>1203</v>
       </c>
       <c r="M71" s="15">
-        <v>1203</v>
+        <v>1083</v>
       </c>
       <c r="N71" s="15">
+        <v>1049</v>
+      </c>
+      <c r="O71" s="15">
+        <v>1056</v>
+      </c>
+      <c r="P71" s="15">
         <v>1083</v>
       </c>
-      <c r="O71" s="15">
-        <v>1049</v>
-      </c>
-      <c r="P71" s="15">
-        <v>1056</v>
-      </c>
       <c r="Q71" s="15">
-        <v>1083</v>
+        <v>1113</v>
       </c>
       <c r="R71" s="15">
-        <v>1113</v>
+        <v>1123</v>
       </c>
       <c r="S71" s="15">
-        <v>1123</v>
+        <v>1191</v>
       </c>
       <c r="T71" s="15">
-        <v>1191</v>
+        <v>1199</v>
       </c>
       <c r="U71" s="15">
-        <v>1199</v>
+        <v>1182</v>
       </c>
       <c r="V71" s="15">
-        <v>1182</v>
+        <v>1146</v>
       </c>
       <c r="W71" s="15">
-        <v>1146</v>
+        <v>1000</v>
       </c>
       <c r="X71" s="15">
-        <v>1000</v>
+        <v>1104</v>
       </c>
       <c r="Y71" s="15">
-        <v>1104</v>
+        <v>1060</v>
       </c>
       <c r="Z71" s="15">
-        <v>1060</v>
+        <v>1210</v>
       </c>
       <c r="AA71" s="15">
-        <v>1210</v>
+        <v>1007</v>
       </c>
       <c r="AB71" s="15">
-        <v>1007</v>
+        <v>5010</v>
       </c>
       <c r="AC71" s="15">
-        <v>5010</v>
+        <v>1078</v>
       </c>
       <c r="AD71" s="15">
-        <v>1078</v>
+        <v>946</v>
       </c>
       <c r="AE71" s="15">
-        <v>946</v>
+        <v>1350</v>
       </c>
       <c r="AF71" s="15">
+        <v>1320</v>
+      </c>
+      <c r="AG71" s="15">
+        <v>1281</v>
+      </c>
+      <c r="AH71" s="15">
         <v>1350</v>
       </c>
-      <c r="AG71" s="15">
-        <v>1320</v>
-      </c>
-      <c r="AH71" s="15">
-        <v>1281</v>
-      </c>
       <c r="AI71" s="15">
-        <v>1350</v>
+        <v>51</v>
       </c>
       <c r="AJ71" s="15">
-        <v>51</v>
+        <v>77</v>
       </c>
       <c r="AK71" s="15">
-        <v>77</v>
+        <v>131</v>
       </c>
       <c r="AL71" s="15">
-        <v>131</v>
+        <v>159</v>
       </c>
       <c r="AM71" s="15">
-        <v>159</v>
+        <v>135</v>
       </c>
       <c r="AN71" s="15">
-        <v>135</v>
+        <v>500</v>
       </c>
       <c r="AO71" s="15">
-        <v>500</v>
+        <v>636</v>
       </c>
       <c r="AP71" s="15">
-        <v>636</v>
+        <v>123</v>
       </c>
       <c r="AQ71" s="15">
-        <v>123</v>
+        <v>286</v>
       </c>
       <c r="AR71" s="15">
-        <v>286</v>
+        <v>391</v>
       </c>
       <c r="AS71" s="15">
-        <v>391</v>
+        <v>446</v>
       </c>
       <c r="AT71" s="15">
-        <v>446</v>
+        <v>454</v>
       </c>
       <c r="AU71" s="15">
-        <v>454</v>
+        <v>0</v>
       </c>
       <c r="AV71" s="15">
-        <v>0</v>
+        <v>272</v>
       </c>
       <c r="AW71" s="15">
-        <v>272</v>
+        <v>442</v>
       </c>
       <c r="AX71" s="15">
-        <v>442</v>
+        <v>253</v>
       </c>
       <c r="AY71" s="15">
-        <v>253</v>
+        <v>506</v>
       </c>
       <c r="AZ71" s="15">
-        <v>506</v>
+        <v>981</v>
       </c>
       <c r="BA71" s="15">
-        <v>981</v>
+        <v>583</v>
       </c>
       <c r="BB71" s="15">
-        <v>583</v>
+        <v>591</v>
       </c>
     </row>
     <row r="72" spans="2:54" x14ac:dyDescent="0.25">
@@ -10710,154 +10710,154 @@
       </c>
       <c r="D78" s="11"/>
       <c r="E78" s="11">
-        <v>26411</v>
+        <v>51465</v>
       </c>
       <c r="F78" s="11">
-        <v>51465</v>
+        <v>24497</v>
       </c>
       <c r="G78" s="11">
-        <v>24497</v>
+        <v>31743</v>
       </c>
       <c r="H78" s="11">
-        <v>31743</v>
+        <v>42061</v>
       </c>
       <c r="I78" s="11">
-        <v>42061</v>
+        <v>35322</v>
       </c>
       <c r="J78" s="11">
-        <v>35322</v>
+        <v>261336</v>
       </c>
       <c r="K78" s="11">
-        <v>261336</v>
+        <v>93548</v>
       </c>
       <c r="L78" s="11">
-        <v>93548</v>
+        <v>212806</v>
       </c>
       <c r="M78" s="11">
-        <v>212806</v>
+        <v>53933</v>
       </c>
       <c r="N78" s="11">
-        <v>53933</v>
+        <v>34208</v>
       </c>
       <c r="O78" s="11">
-        <v>34208</v>
+        <v>91585</v>
       </c>
       <c r="P78" s="11">
-        <v>91585</v>
+        <v>110706</v>
       </c>
       <c r="Q78" s="11">
-        <v>110706</v>
+        <v>69302</v>
       </c>
       <c r="R78" s="11">
-        <v>69302</v>
+        <v>72665</v>
       </c>
       <c r="S78" s="11">
-        <v>72665</v>
+        <v>363829</v>
       </c>
       <c r="T78" s="11">
-        <v>363829</v>
+        <v>168538</v>
       </c>
       <c r="U78" s="11">
-        <v>168538</v>
+        <v>100535</v>
       </c>
       <c r="V78" s="11">
-        <v>100535</v>
+        <v>116834</v>
       </c>
       <c r="W78" s="11">
-        <v>116834</v>
+        <v>0</v>
       </c>
       <c r="X78" s="11">
-        <v>0</v>
+        <v>153753</v>
       </c>
       <c r="Y78" s="11">
-        <v>153753</v>
+        <v>138634</v>
       </c>
       <c r="Z78" s="11">
-        <v>138634</v>
+        <v>389236</v>
       </c>
       <c r="AA78" s="11">
-        <v>389236</v>
+        <v>36721</v>
       </c>
       <c r="AB78" s="11">
-        <v>36721</v>
+        <v>60851</v>
       </c>
       <c r="AC78" s="11">
-        <v>60851</v>
+        <v>116819</v>
       </c>
       <c r="AD78" s="11">
-        <v>116819</v>
+        <v>57878</v>
       </c>
       <c r="AE78" s="11">
-        <v>57878</v>
+        <v>563209</v>
       </c>
       <c r="AF78" s="11">
-        <v>563209</v>
+        <v>469542</v>
       </c>
       <c r="AG78" s="11">
-        <v>469542</v>
+        <v>309293</v>
       </c>
       <c r="AH78" s="11">
-        <v>309293</v>
+        <v>590644</v>
       </c>
       <c r="AI78" s="11">
-        <v>590644</v>
+        <v>141184</v>
       </c>
       <c r="AJ78" s="11">
-        <v>141184</v>
+        <v>212784</v>
       </c>
       <c r="AK78" s="11">
-        <v>212784</v>
+        <v>551152</v>
       </c>
       <c r="AL78" s="11">
-        <v>551152</v>
+        <v>690050</v>
       </c>
       <c r="AM78" s="11">
-        <v>690050</v>
+        <v>444782</v>
       </c>
       <c r="AN78" s="11">
-        <v>444782</v>
+        <v>1487059</v>
       </c>
       <c r="AO78" s="11">
-        <v>1487059</v>
+        <v>1872111</v>
       </c>
       <c r="AP78" s="11">
-        <v>1872111</v>
+        <v>461318</v>
       </c>
       <c r="AQ78" s="11">
-        <v>461318</v>
+        <v>1891362</v>
       </c>
       <c r="AR78" s="11">
-        <v>1891362</v>
+        <v>2212592</v>
       </c>
       <c r="AS78" s="11">
-        <v>2212592</v>
+        <v>2019541</v>
       </c>
       <c r="AT78" s="11">
-        <v>2019541</v>
+        <v>1124707</v>
       </c>
       <c r="AU78" s="11">
-        <v>1124707</v>
+        <v>0</v>
       </c>
       <c r="AV78" s="11">
-        <v>0</v>
+        <v>1071281</v>
       </c>
       <c r="AW78" s="11">
-        <v>1071281</v>
+        <v>2675061</v>
       </c>
       <c r="AX78" s="11">
-        <v>2675061</v>
+        <v>1332729</v>
       </c>
       <c r="AY78" s="11">
-        <v>1332729</v>
+        <v>2165245</v>
       </c>
       <c r="AZ78" s="11">
-        <v>2165245</v>
+        <v>4226687</v>
       </c>
       <c r="BA78" s="11">
-        <v>4226687</v>
+        <v>2045911</v>
       </c>
       <c r="BB78" s="11">
-        <v>2045911</v>
+        <v>2035028</v>
       </c>
     </row>
     <row r="79" spans="2:54" x14ac:dyDescent="0.25">
@@ -10869,22 +10869,22 @@
       </c>
       <c r="D79" s="13"/>
       <c r="E79" s="13">
-        <v>4348</v>
+        <v>2174</v>
       </c>
       <c r="F79" s="13">
-        <v>2174</v>
+        <v>1119</v>
       </c>
       <c r="G79" s="13">
-        <v>1119</v>
+        <v>5250</v>
       </c>
       <c r="H79" s="13">
-        <v>5250</v>
+        <v>0</v>
       </c>
       <c r="I79" s="13">
-        <v>0</v>
+        <v>199993</v>
       </c>
       <c r="J79" s="13">
-        <v>199993</v>
+        <v>0</v>
       </c>
       <c r="K79" s="13">
         <v>0</v>
@@ -10905,97 +10905,97 @@
         <v>0</v>
       </c>
       <c r="Q79" s="13">
-        <v>0</v>
+        <v>26547</v>
       </c>
       <c r="R79" s="13">
-        <v>26547</v>
+        <v>23733</v>
       </c>
       <c r="S79" s="13">
-        <v>23733</v>
+        <v>55191</v>
       </c>
       <c r="T79" s="13">
-        <v>55191</v>
+        <v>261434</v>
       </c>
       <c r="U79" s="13">
-        <v>261434</v>
+        <v>164223</v>
       </c>
       <c r="V79" s="13">
-        <v>164223</v>
+        <v>113523</v>
       </c>
       <c r="W79" s="13">
-        <v>113523</v>
+        <v>0</v>
       </c>
       <c r="X79" s="13">
-        <v>0</v>
+        <v>13693</v>
       </c>
       <c r="Y79" s="13">
-        <v>13693</v>
+        <v>0</v>
       </c>
       <c r="Z79" s="13">
-        <v>0</v>
+        <v>22947</v>
       </c>
       <c r="AA79" s="13">
-        <v>22947</v>
+        <v>0</v>
       </c>
       <c r="AB79" s="13">
-        <v>0</v>
+        <v>42610</v>
       </c>
       <c r="AC79" s="13">
-        <v>42610</v>
+        <v>0</v>
       </c>
       <c r="AD79" s="13">
         <v>0</v>
       </c>
       <c r="AE79" s="13">
-        <v>0</v>
+        <v>51667</v>
       </c>
       <c r="AF79" s="13">
-        <v>51667</v>
+        <v>14091</v>
       </c>
       <c r="AG79" s="13">
+        <v>4697</v>
+      </c>
+      <c r="AH79" s="13">
+        <v>56364</v>
+      </c>
+      <c r="AI79" s="13">
+        <v>0</v>
+      </c>
+      <c r="AJ79" s="13">
+        <v>0</v>
+      </c>
+      <c r="AK79" s="13">
+        <v>0</v>
+      </c>
+      <c r="AL79" s="13">
+        <v>9394</v>
+      </c>
+      <c r="AM79" s="13">
+        <v>4697</v>
+      </c>
+      <c r="AN79" s="13">
+        <v>9394</v>
+      </c>
+      <c r="AO79" s="13">
+        <v>4697</v>
+      </c>
+      <c r="AP79" s="13">
+        <v>0</v>
+      </c>
+      <c r="AQ79" s="13">
+        <v>0</v>
+      </c>
+      <c r="AR79" s="13">
         <v>14091</v>
       </c>
-      <c r="AH79" s="13">
-        <v>4697</v>
-      </c>
-      <c r="AI79" s="13">
-        <v>56364</v>
-      </c>
-      <c r="AJ79" s="13">
-        <v>0</v>
-      </c>
-      <c r="AK79" s="13">
-        <v>0</v>
-      </c>
-      <c r="AL79" s="13">
-        <v>0</v>
-      </c>
-      <c r="AM79" s="13">
-        <v>9394</v>
-      </c>
-      <c r="AN79" s="13">
-        <v>4697</v>
-      </c>
-      <c r="AO79" s="13">
-        <v>9394</v>
-      </c>
-      <c r="AP79" s="13">
-        <v>4697</v>
-      </c>
-      <c r="AQ79" s="13">
-        <v>0</v>
-      </c>
-      <c r="AR79" s="13">
-        <v>0</v>
-      </c>
       <c r="AS79" s="13">
-        <v>14091</v>
+        <v>23485</v>
       </c>
       <c r="AT79" s="13">
-        <v>23485</v>
+        <v>37576</v>
       </c>
       <c r="AU79" s="13">
-        <v>37576</v>
+        <v>0</v>
       </c>
       <c r="AV79" s="13">
         <v>0</v>
@@ -11028,31 +11028,31 @@
       </c>
       <c r="D80" s="11"/>
       <c r="E80" s="11">
-        <v>0</v>
+        <v>31224</v>
       </c>
       <c r="F80" s="11">
-        <v>31224</v>
+        <v>5857</v>
       </c>
       <c r="G80" s="11">
-        <v>5857</v>
+        <v>29142</v>
       </c>
       <c r="H80" s="11">
-        <v>29142</v>
+        <v>8753</v>
       </c>
       <c r="I80" s="11">
-        <v>8753</v>
+        <v>8153</v>
       </c>
       <c r="J80" s="11">
+        <v>0</v>
+      </c>
+      <c r="K80" s="11">
+        <v>0</v>
+      </c>
+      <c r="L80" s="11">
         <v>8153</v>
       </c>
-      <c r="K80" s="11">
-        <v>0</v>
-      </c>
-      <c r="L80" s="11">
-        <v>0</v>
-      </c>
       <c r="M80" s="11">
-        <v>8153</v>
+        <v>0</v>
       </c>
       <c r="N80" s="11">
         <v>0</v>
@@ -11081,8 +11081,8 @@
       <c r="V80" s="11">
         <v>0</v>
       </c>
-      <c r="W80" s="11">
-        <v>0</v>
+      <c r="W80" s="11" t="s">
+        <v>59</v>
       </c>
       <c r="X80" s="11" t="s">
         <v>59</v>
@@ -11187,62 +11187,62 @@
       </c>
       <c r="D81" s="13"/>
       <c r="E81" s="13">
-        <v>27544</v>
+        <v>92899</v>
       </c>
       <c r="F81" s="13">
-        <v>92899</v>
+        <v>101015</v>
       </c>
       <c r="G81" s="13">
-        <v>101015</v>
+        <v>88285</v>
       </c>
       <c r="H81" s="13">
-        <v>88285</v>
+        <v>1906</v>
       </c>
       <c r="I81" s="13">
-        <v>1906</v>
+        <v>2995</v>
       </c>
       <c r="J81" s="13">
-        <v>2995</v>
+        <v>9232</v>
       </c>
       <c r="K81" s="13">
-        <v>9232</v>
+        <v>0</v>
       </c>
       <c r="L81" s="13">
         <v>0</v>
       </c>
       <c r="M81" s="13">
-        <v>0</v>
+        <v>63165</v>
       </c>
       <c r="N81" s="13">
-        <v>63165</v>
+        <v>11293</v>
       </c>
       <c r="O81" s="13">
-        <v>11293</v>
+        <v>15458</v>
       </c>
       <c r="P81" s="13">
-        <v>15458</v>
+        <v>73534</v>
       </c>
       <c r="Q81" s="13">
-        <v>73534</v>
+        <v>2341</v>
       </c>
       <c r="R81" s="13">
-        <v>2341</v>
+        <v>193754</v>
       </c>
       <c r="S81" s="13">
-        <v>193754</v>
+        <v>14434</v>
       </c>
       <c r="T81" s="13">
-        <v>14434</v>
+        <v>45045</v>
       </c>
       <c r="U81" s="13">
-        <v>45045</v>
+        <v>215415</v>
       </c>
       <c r="V81" s="13">
-        <v>215415</v>
-      </c>
-      <c r="W81" s="13">
         <v>140217</v>
       </c>
+      <c r="W81" s="13" t="s">
+        <v>59</v>
+      </c>
       <c r="X81" s="13" t="s">
         <v>59</v>
       </c>
@@ -11276,44 +11276,44 @@
       <c r="AH81" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="AI81" s="13" t="s">
-        <v>59</v>
+      <c r="AI81" s="13">
+        <v>0</v>
       </c>
       <c r="AJ81" s="13">
         <v>0</v>
       </c>
       <c r="AK81" s="13">
-        <v>0</v>
+        <v>4758</v>
       </c>
       <c r="AL81" s="13">
-        <v>4758</v>
+        <v>362390</v>
       </c>
       <c r="AM81" s="13">
-        <v>362390</v>
+        <v>420840</v>
       </c>
       <c r="AN81" s="13">
-        <v>420840</v>
+        <v>374080</v>
       </c>
       <c r="AO81" s="13">
         <v>374080</v>
       </c>
       <c r="AP81" s="13">
-        <v>374080</v>
+        <v>292250</v>
       </c>
       <c r="AQ81" s="13">
-        <v>292250</v>
+        <v>259015</v>
       </c>
       <c r="AR81" s="13">
-        <v>259015</v>
+        <v>11690</v>
       </c>
       <c r="AS81" s="13">
-        <v>11690</v>
+        <v>1009715</v>
       </c>
       <c r="AT81" s="13">
-        <v>1009715</v>
-      </c>
-      <c r="AU81" s="13">
         <v>764017</v>
+      </c>
+      <c r="AU81" s="13" t="s">
+        <v>59</v>
       </c>
       <c r="AV81" s="13" t="s">
         <v>59</v>
@@ -11346,154 +11346,154 @@
       </c>
       <c r="D82" s="11"/>
       <c r="E82" s="11">
-        <v>13904</v>
+        <v>19405</v>
       </c>
       <c r="F82" s="11">
-        <v>19405</v>
+        <v>23172</v>
       </c>
       <c r="G82" s="11">
-        <v>23172</v>
+        <v>14374</v>
       </c>
       <c r="H82" s="11">
-        <v>14374</v>
+        <v>26282</v>
       </c>
       <c r="I82" s="11">
-        <v>26282</v>
+        <v>44003</v>
       </c>
       <c r="J82" s="11">
-        <v>44003</v>
+        <v>81383</v>
       </c>
       <c r="K82" s="11">
-        <v>81383</v>
+        <v>51448</v>
       </c>
       <c r="L82" s="11">
-        <v>51448</v>
+        <v>74541</v>
       </c>
       <c r="M82" s="11">
-        <v>74541</v>
+        <v>5786</v>
       </c>
       <c r="N82" s="11">
-        <v>5786</v>
+        <v>42882</v>
       </c>
       <c r="O82" s="11">
-        <v>42882</v>
+        <v>23131</v>
       </c>
       <c r="P82" s="11">
-        <v>23131</v>
+        <v>9727</v>
       </c>
       <c r="Q82" s="11">
-        <v>9727</v>
+        <v>163618</v>
       </c>
       <c r="R82" s="11">
-        <v>163618</v>
+        <v>61139</v>
       </c>
       <c r="S82" s="11">
-        <v>61139</v>
+        <v>129500</v>
       </c>
       <c r="T82" s="11">
-        <v>129500</v>
+        <v>104527</v>
       </c>
       <c r="U82" s="11">
-        <v>104527</v>
+        <v>46119</v>
       </c>
       <c r="V82" s="11">
-        <v>46119</v>
+        <v>52976</v>
       </c>
       <c r="W82" s="11">
-        <v>52976</v>
+        <v>0</v>
       </c>
       <c r="X82" s="11">
-        <v>0</v>
+        <v>65602</v>
       </c>
       <c r="Y82" s="11">
-        <v>65602</v>
+        <v>0</v>
       </c>
       <c r="Z82" s="11">
-        <v>0</v>
+        <v>43431</v>
       </c>
       <c r="AA82" s="11">
-        <v>43431</v>
+        <v>40992</v>
       </c>
       <c r="AB82" s="11">
+        <v>0</v>
+      </c>
+      <c r="AC82" s="11">
+        <v>52704</v>
+      </c>
+      <c r="AD82" s="11">
+        <v>0</v>
+      </c>
+      <c r="AE82" s="11">
+        <v>93696</v>
+      </c>
+      <c r="AF82" s="11">
         <v>40992</v>
       </c>
-      <c r="AC82" s="11">
-        <v>0</v>
-      </c>
-      <c r="AD82" s="11">
-        <v>52704</v>
-      </c>
-      <c r="AE82" s="11">
-        <v>0</v>
-      </c>
-      <c r="AF82" s="11">
-        <v>93696</v>
-      </c>
       <c r="AG82" s="11">
-        <v>40992</v>
+        <v>23424</v>
       </c>
       <c r="AH82" s="11">
-        <v>23424</v>
+        <v>163968</v>
       </c>
       <c r="AI82" s="11">
-        <v>163968</v>
+        <v>0</v>
       </c>
       <c r="AJ82" s="11">
-        <v>0</v>
+        <v>29280</v>
       </c>
       <c r="AK82" s="11">
-        <v>29280</v>
+        <v>35136</v>
       </c>
       <c r="AL82" s="11">
-        <v>35136</v>
+        <v>11712</v>
       </c>
       <c r="AM82" s="11">
+        <v>0</v>
+      </c>
+      <c r="AN82" s="11">
+        <v>117120</v>
+      </c>
+      <c r="AO82" s="11">
+        <v>122976</v>
+      </c>
+      <c r="AP82" s="11">
         <v>11712</v>
       </c>
-      <c r="AN82" s="11">
-        <v>0</v>
-      </c>
-      <c r="AO82" s="11">
-        <v>117120</v>
-      </c>
-      <c r="AP82" s="11">
-        <v>122976</v>
-      </c>
       <c r="AQ82" s="11">
-        <v>11712</v>
+        <v>34622</v>
       </c>
       <c r="AR82" s="11">
-        <v>34622</v>
+        <v>455459</v>
       </c>
       <c r="AS82" s="11">
-        <v>455459</v>
+        <v>287846</v>
       </c>
       <c r="AT82" s="11">
-        <v>287846</v>
+        <v>585917</v>
       </c>
       <c r="AU82" s="11">
-        <v>585917</v>
+        <v>0</v>
       </c>
       <c r="AV82" s="11">
-        <v>0</v>
+        <v>420700</v>
       </c>
       <c r="AW82" s="11">
-        <v>420700</v>
+        <v>207938</v>
       </c>
       <c r="AX82" s="11">
-        <v>207938</v>
+        <v>165136</v>
       </c>
       <c r="AY82" s="11">
-        <v>165136</v>
+        <v>178969</v>
       </c>
       <c r="AZ82" s="11">
-        <v>178969</v>
+        <v>1154634</v>
       </c>
       <c r="BA82" s="11">
-        <v>1154634</v>
+        <v>757065</v>
       </c>
       <c r="BB82" s="11">
-        <v>757065</v>
+        <v>331959</v>
       </c>
     </row>
     <row r="83" spans="2:54" x14ac:dyDescent="0.25">
@@ -11505,103 +11505,103 @@
       </c>
       <c r="D83" s="13"/>
       <c r="E83" s="13">
-        <v>1335</v>
+        <v>37008</v>
       </c>
       <c r="F83" s="13">
-        <v>37008</v>
+        <v>24927</v>
       </c>
       <c r="G83" s="13">
-        <v>24927</v>
+        <v>36849</v>
       </c>
       <c r="H83" s="13">
-        <v>36849</v>
+        <v>320103</v>
       </c>
       <c r="I83" s="13">
-        <v>320103</v>
+        <v>61419</v>
       </c>
       <c r="J83" s="13">
-        <v>61419</v>
+        <v>24620</v>
       </c>
       <c r="K83" s="13">
-        <v>24620</v>
+        <v>49306</v>
       </c>
       <c r="L83" s="13">
-        <v>49306</v>
+        <v>108748</v>
       </c>
       <c r="M83" s="13">
-        <v>108748</v>
+        <v>18771</v>
       </c>
       <c r="N83" s="13">
-        <v>18771</v>
+        <v>18081</v>
       </c>
       <c r="O83" s="13">
-        <v>18081</v>
+        <v>4734</v>
       </c>
       <c r="P83" s="13">
-        <v>4734</v>
+        <v>6881</v>
       </c>
       <c r="Q83" s="13">
-        <v>6881</v>
+        <v>17846</v>
       </c>
       <c r="R83" s="13">
-        <v>17846</v>
+        <v>31711</v>
       </c>
       <c r="S83" s="13">
-        <v>31711</v>
+        <v>25078</v>
       </c>
       <c r="T83" s="13">
-        <v>25078</v>
+        <v>13803</v>
       </c>
       <c r="U83" s="13">
-        <v>13803</v>
+        <v>3770</v>
       </c>
       <c r="V83" s="13">
-        <v>3770</v>
+        <v>21613</v>
       </c>
       <c r="W83" s="13">
-        <v>21613</v>
+        <v>0</v>
       </c>
       <c r="X83" s="13">
-        <v>0</v>
+        <v>26401</v>
       </c>
       <c r="Y83" s="13">
-        <v>26401</v>
+        <v>0</v>
       </c>
       <c r="Z83" s="13">
-        <v>0</v>
+        <v>40568</v>
       </c>
       <c r="AA83" s="13">
-        <v>40568</v>
+        <v>36638</v>
       </c>
       <c r="AB83" s="13">
-        <v>36638</v>
+        <v>47411</v>
       </c>
       <c r="AC83" s="13">
-        <v>47411</v>
+        <v>42291</v>
       </c>
       <c r="AD83" s="13">
-        <v>42291</v>
+        <v>11527</v>
       </c>
       <c r="AE83" s="13">
-        <v>11527</v>
+        <v>427769</v>
       </c>
       <c r="AF83" s="13">
-        <v>427769</v>
+        <v>163234</v>
       </c>
       <c r="AG83" s="13">
-        <v>163234</v>
+        <v>134437</v>
       </c>
       <c r="AH83" s="13">
-        <v>134437</v>
+        <v>364549</v>
       </c>
       <c r="AI83" s="13">
-        <v>364549</v>
+        <v>190155</v>
       </c>
       <c r="AJ83" s="13">
-        <v>190155</v>
-      </c>
-      <c r="AK83" s="13">
         <v>122593</v>
+      </c>
+      <c r="AK83" s="13" t="s">
+        <v>59</v>
       </c>
       <c r="AL83" s="13" t="s">
         <v>59</v>
@@ -11664,61 +11664,61 @@
       </c>
       <c r="D84" s="11"/>
       <c r="E84" s="11">
-        <v>29582</v>
+        <v>46849</v>
       </c>
       <c r="F84" s="11">
-        <v>46849</v>
+        <v>49695</v>
       </c>
       <c r="G84" s="11">
-        <v>49695</v>
+        <v>62374</v>
       </c>
       <c r="H84" s="11">
-        <v>62374</v>
+        <v>34642</v>
       </c>
       <c r="I84" s="11">
-        <v>34642</v>
+        <v>26772</v>
       </c>
       <c r="J84" s="11">
-        <v>26772</v>
+        <v>48599</v>
       </c>
       <c r="K84" s="11">
-        <v>48599</v>
+        <v>17669</v>
       </c>
       <c r="L84" s="11">
-        <v>17669</v>
+        <v>37785</v>
       </c>
       <c r="M84" s="11">
-        <v>37785</v>
+        <v>32242</v>
       </c>
       <c r="N84" s="11">
-        <v>32242</v>
+        <v>45526</v>
       </c>
       <c r="O84" s="11">
-        <v>45526</v>
+        <v>35969</v>
       </c>
       <c r="P84" s="11">
-        <v>35969</v>
+        <v>60701</v>
       </c>
       <c r="Q84" s="11">
-        <v>60701</v>
+        <v>55087</v>
       </c>
       <c r="R84" s="11">
-        <v>55087</v>
+        <v>64565</v>
       </c>
       <c r="S84" s="11">
-        <v>64565</v>
+        <v>81648</v>
       </c>
       <c r="T84" s="11">
-        <v>81648</v>
+        <v>86626</v>
       </c>
       <c r="U84" s="11">
-        <v>86626</v>
+        <v>114710</v>
       </c>
       <c r="V84" s="11">
-        <v>114710</v>
-      </c>
-      <c r="W84" s="11">
         <v>82248</v>
+      </c>
+      <c r="W84" s="11" t="s">
+        <v>59</v>
       </c>
       <c r="X84" s="11" t="s">
         <v>59</v>
@@ -11823,7 +11823,7 @@
       </c>
       <c r="D85" s="13"/>
       <c r="E85" s="13">
-        <v>678</v>
+        <v>0</v>
       </c>
       <c r="F85" s="13">
         <v>0</v>
@@ -11840,8 +11840,8 @@
       <c r="J85" s="13">
         <v>0</v>
       </c>
-      <c r="K85" s="13">
-        <v>0</v>
+      <c r="K85" s="13" t="s">
+        <v>59</v>
       </c>
       <c r="L85" s="13" t="s">
         <v>59</v>
@@ -11876,17 +11876,17 @@
       <c r="V85" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="W85" s="13" t="s">
-        <v>59</v>
+      <c r="W85" s="13">
+        <v>71528</v>
       </c>
       <c r="X85" s="13">
-        <v>71528</v>
+        <v>132376</v>
       </c>
       <c r="Y85" s="13">
-        <v>132376</v>
-      </c>
-      <c r="Z85" s="13">
         <v>107188</v>
+      </c>
+      <c r="Z85" s="13" t="s">
+        <v>59</v>
       </c>
       <c r="AA85" s="13" t="s">
         <v>59</v>
@@ -11982,10 +11982,10 @@
       </c>
       <c r="D86" s="11"/>
       <c r="E86" s="11">
-        <v>0</v>
+        <v>749</v>
       </c>
       <c r="F86" s="11">
-        <v>749</v>
+        <v>0</v>
       </c>
       <c r="G86" s="11">
         <v>0</v>
@@ -11997,13 +11997,13 @@
         <v>0</v>
       </c>
       <c r="J86" s="11">
-        <v>0</v>
+        <v>7400</v>
       </c>
       <c r="K86" s="11">
-        <v>7400</v>
+        <v>4440</v>
       </c>
       <c r="L86" s="11">
-        <v>4440</v>
+        <v>0</v>
       </c>
       <c r="M86" s="11">
         <v>0</v>
@@ -12035,8 +12035,8 @@
       <c r="V86" s="11">
         <v>0</v>
       </c>
-      <c r="W86" s="11">
-        <v>0</v>
+      <c r="W86" s="11" t="s">
+        <v>59</v>
       </c>
       <c r="X86" s="11" t="s">
         <v>59</v>
@@ -12141,34 +12141,34 @@
       </c>
       <c r="D87" s="13"/>
       <c r="E87" s="13">
-        <v>1299</v>
+        <v>2596</v>
       </c>
       <c r="F87" s="13">
-        <v>2596</v>
+        <v>0</v>
       </c>
       <c r="G87" s="13">
-        <v>0</v>
+        <v>2597</v>
       </c>
       <c r="H87" s="13">
-        <v>2597</v>
+        <v>0</v>
       </c>
       <c r="I87" s="13">
         <v>0</v>
       </c>
       <c r="J87" s="13">
-        <v>0</v>
+        <v>5212</v>
       </c>
       <c r="K87" s="13">
-        <v>5212</v>
+        <v>0</v>
       </c>
       <c r="L87" s="13">
         <v>0</v>
       </c>
       <c r="M87" s="13">
-        <v>0</v>
+        <v>8818</v>
       </c>
       <c r="N87" s="13">
-        <v>8818</v>
+        <v>0</v>
       </c>
       <c r="O87" s="13">
         <v>0</v>
@@ -12194,8 +12194,8 @@
       <c r="V87" s="13">
         <v>0</v>
       </c>
-      <c r="W87" s="13">
-        <v>0</v>
+      <c r="W87" s="13" t="s">
+        <v>59</v>
       </c>
       <c r="X87" s="13" t="s">
         <v>59</v>
@@ -12317,8 +12317,8 @@
       <c r="J88" s="11">
         <v>0</v>
       </c>
-      <c r="K88" s="11">
-        <v>0</v>
+      <c r="K88" s="11" t="s">
+        <v>59</v>
       </c>
       <c r="L88" s="11" t="s">
         <v>59</v>
@@ -12476,8 +12476,8 @@
       <c r="J89" s="13">
         <v>0</v>
       </c>
-      <c r="K89" s="13">
-        <v>0</v>
+      <c r="K89" s="13" t="s">
+        <v>59</v>
       </c>
       <c r="L89" s="13" t="s">
         <v>59</v>
@@ -12618,34 +12618,34 @@
       </c>
       <c r="D90" s="11"/>
       <c r="E90" s="11">
-        <v>0</v>
+        <v>6646</v>
       </c>
       <c r="F90" s="11">
-        <v>6646</v>
+        <v>16615</v>
       </c>
       <c r="G90" s="11">
-        <v>16615</v>
+        <v>3369</v>
       </c>
       <c r="H90" s="11">
-        <v>3369</v>
+        <v>178556</v>
       </c>
       <c r="I90" s="11">
-        <v>178556</v>
+        <v>37059</v>
       </c>
       <c r="J90" s="11">
-        <v>37059</v>
+        <v>25168</v>
       </c>
       <c r="K90" s="11">
-        <v>25168</v>
+        <v>6112</v>
       </c>
       <c r="L90" s="11">
+        <v>6738</v>
+      </c>
+      <c r="M90" s="11">
         <v>6112</v>
       </c>
-      <c r="M90" s="11">
-        <v>6738</v>
-      </c>
       <c r="N90" s="11">
-        <v>6112</v>
+        <v>0</v>
       </c>
       <c r="O90" s="11">
         <v>0</v>
@@ -12671,8 +12671,8 @@
       <c r="V90" s="11">
         <v>0</v>
       </c>
-      <c r="W90" s="11">
-        <v>0</v>
+      <c r="W90" s="11" t="s">
+        <v>59</v>
       </c>
       <c r="X90" s="11" t="s">
         <v>59</v>
@@ -12803,59 +12803,59 @@
       <c r="M91" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="N91" s="13" t="s">
-        <v>59</v>
+      <c r="N91" s="13">
+        <v>23101</v>
       </c>
       <c r="O91" s="13">
-        <v>23101</v>
+        <v>30141</v>
       </c>
       <c r="P91" s="13">
-        <v>30141</v>
+        <v>52747</v>
       </c>
       <c r="Q91" s="13">
-        <v>52747</v>
+        <v>45211</v>
       </c>
       <c r="R91" s="13">
-        <v>45211</v>
+        <v>74553</v>
       </c>
       <c r="S91" s="13">
-        <v>74553</v>
+        <v>0</v>
       </c>
       <c r="T91" s="13">
         <v>0</v>
       </c>
       <c r="U91" s="13">
-        <v>0</v>
+        <v>80499</v>
       </c>
       <c r="V91" s="13">
-        <v>80499</v>
+        <v>64461</v>
       </c>
       <c r="W91" s="13">
-        <v>64461</v>
+        <v>0</v>
       </c>
       <c r="X91" s="13">
-        <v>0</v>
+        <v>8498</v>
       </c>
       <c r="Y91" s="13">
-        <v>8498</v>
+        <v>0</v>
       </c>
       <c r="Z91" s="13">
-        <v>0</v>
+        <v>23567</v>
       </c>
       <c r="AA91" s="13">
-        <v>23567</v>
+        <v>0</v>
       </c>
       <c r="AB91" s="13">
-        <v>0</v>
+        <v>30138</v>
       </c>
       <c r="AC91" s="13">
-        <v>30138</v>
+        <v>0</v>
       </c>
       <c r="AD91" s="13">
-        <v>0</v>
+        <v>7534</v>
       </c>
       <c r="AE91" s="13">
-        <v>7534</v>
+        <v>0</v>
       </c>
       <c r="AF91" s="13">
         <v>0</v>
@@ -12864,13 +12864,13 @@
         <v>0</v>
       </c>
       <c r="AH91" s="13">
-        <v>0</v>
-      </c>
-      <c r="AI91" s="13">
         <v>21762</v>
       </c>
-      <c r="AJ91" s="13" t="s">
-        <v>59</v>
+      <c r="AI91" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="AJ91" s="13">
+        <v>0</v>
       </c>
       <c r="AK91" s="13">
         <v>0</v>
@@ -12885,10 +12885,10 @@
         <v>0</v>
       </c>
       <c r="AO91" s="13">
-        <v>0</v>
+        <v>9652</v>
       </c>
       <c r="AP91" s="13">
-        <v>9652</v>
+        <v>0</v>
       </c>
       <c r="AQ91" s="13">
         <v>0</v>
@@ -12900,31 +12900,31 @@
         <v>0</v>
       </c>
       <c r="AT91" s="13">
-        <v>0</v>
+        <v>705471</v>
       </c>
       <c r="AU91" s="13">
-        <v>705471</v>
+        <v>0</v>
       </c>
       <c r="AV91" s="13">
-        <v>0</v>
+        <v>1863235</v>
       </c>
       <c r="AW91" s="13">
-        <v>1863235</v>
+        <v>459058</v>
       </c>
       <c r="AX91" s="13">
-        <v>459058</v>
+        <v>433401</v>
       </c>
       <c r="AY91" s="13">
-        <v>433401</v>
+        <v>1286973</v>
       </c>
       <c r="AZ91" s="13">
-        <v>1286973</v>
+        <v>4163032</v>
       </c>
       <c r="BA91" s="13">
-        <v>4163032</v>
+        <v>3445655</v>
       </c>
       <c r="BB91" s="13">
-        <v>3445655</v>
+        <v>1796799</v>
       </c>
     </row>
     <row r="92" spans="2:54" x14ac:dyDescent="0.25">
@@ -12936,34 +12936,34 @@
       </c>
       <c r="D92" s="11"/>
       <c r="E92" s="11">
-        <v>0</v>
+        <v>32943</v>
       </c>
       <c r="F92" s="11">
-        <v>32943</v>
+        <v>14219</v>
       </c>
       <c r="G92" s="11">
-        <v>14219</v>
+        <v>8501</v>
       </c>
       <c r="H92" s="11">
-        <v>8501</v>
+        <v>20288</v>
       </c>
       <c r="I92" s="11">
-        <v>20288</v>
+        <v>15063</v>
       </c>
       <c r="J92" s="11">
-        <v>15063</v>
+        <v>28111</v>
       </c>
       <c r="K92" s="11">
-        <v>28111</v>
+        <v>22660</v>
       </c>
       <c r="L92" s="11">
-        <v>22660</v>
+        <v>21049</v>
       </c>
       <c r="M92" s="11">
-        <v>21049</v>
+        <v>104006</v>
       </c>
       <c r="N92" s="11">
-        <v>104006</v>
+        <v>0</v>
       </c>
       <c r="O92" s="11">
         <v>0</v>
@@ -12989,8 +12989,8 @@
       <c r="V92" s="11">
         <v>0</v>
       </c>
-      <c r="W92" s="11">
-        <v>0</v>
+      <c r="W92" s="11" t="s">
+        <v>59</v>
       </c>
       <c r="X92" s="11" t="s">
         <v>59</v>
@@ -13148,44 +13148,44 @@
       <c r="V93" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="W93" s="13" t="s">
-        <v>59</v>
+      <c r="W93" s="13">
+        <v>0</v>
       </c>
       <c r="X93" s="13">
-        <v>0</v>
+        <v>101231</v>
       </c>
       <c r="Y93" s="13">
-        <v>101231</v>
+        <v>67051</v>
       </c>
       <c r="Z93" s="13">
-        <v>67051</v>
+        <v>125451</v>
       </c>
       <c r="AA93" s="13">
-        <v>125451</v>
+        <v>345387</v>
       </c>
       <c r="AB93" s="13">
-        <v>345387</v>
+        <v>415377</v>
       </c>
       <c r="AC93" s="13">
-        <v>415377</v>
+        <v>76594</v>
       </c>
       <c r="AD93" s="13">
-        <v>76594</v>
+        <v>76697</v>
       </c>
       <c r="AE93" s="13">
-        <v>76697</v>
+        <v>67664</v>
       </c>
       <c r="AF93" s="13">
-        <v>67664</v>
+        <v>152927</v>
       </c>
       <c r="AG93" s="13">
-        <v>152927</v>
+        <v>323910</v>
       </c>
       <c r="AH93" s="13">
-        <v>323910</v>
-      </c>
-      <c r="AI93" s="13">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="AI93" s="13" t="s">
+        <v>59</v>
       </c>
       <c r="AJ93" s="13" t="s">
         <v>59</v>
@@ -13220,29 +13220,29 @@
       <c r="AT93" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="AU93" s="13" t="s">
-        <v>59</v>
+      <c r="AU93" s="13">
+        <v>0</v>
       </c>
       <c r="AV93" s="13">
-        <v>0</v>
+        <v>365612</v>
       </c>
       <c r="AW93" s="13">
-        <v>365612</v>
+        <v>219604</v>
       </c>
       <c r="AX93" s="13">
-        <v>219604</v>
+        <v>228494</v>
       </c>
       <c r="AY93" s="13">
-        <v>228494</v>
+        <v>734200</v>
       </c>
       <c r="AZ93" s="13">
-        <v>734200</v>
+        <v>1252458</v>
       </c>
       <c r="BA93" s="13">
-        <v>1252458</v>
+        <v>14396</v>
       </c>
       <c r="BB93" s="13">
-        <v>14396</v>
+        <v>806180</v>
       </c>
     </row>
     <row r="94" spans="2:54" x14ac:dyDescent="0.25">
@@ -13349,59 +13349,59 @@
       <c r="AJ94" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="AK94" s="11" t="s">
-        <v>59</v>
+      <c r="AK94" s="11">
+        <v>73546</v>
       </c>
       <c r="AL94" s="11">
-        <v>73546</v>
+        <v>115153</v>
       </c>
       <c r="AM94" s="11">
-        <v>115153</v>
+        <v>72264</v>
       </c>
       <c r="AN94" s="11">
-        <v>72264</v>
+        <v>1401764</v>
       </c>
       <c r="AO94" s="11">
-        <v>1401764</v>
+        <v>2215490</v>
       </c>
       <c r="AP94" s="11">
-        <v>2215490</v>
+        <v>65734</v>
       </c>
       <c r="AQ94" s="11">
-        <v>65734</v>
+        <v>15165</v>
       </c>
       <c r="AR94" s="11">
-        <v>15165</v>
+        <v>195134</v>
       </c>
       <c r="AS94" s="11">
-        <v>195134</v>
+        <v>467855</v>
       </c>
       <c r="AT94" s="11">
-        <v>467855</v>
+        <v>760960</v>
       </c>
       <c r="AU94" s="11">
-        <v>760960</v>
+        <v>0</v>
       </c>
       <c r="AV94" s="11">
         <v>0</v>
       </c>
       <c r="AW94" s="11">
-        <v>0</v>
+        <v>465621</v>
       </c>
       <c r="AX94" s="11">
-        <v>465621</v>
+        <v>140972</v>
       </c>
       <c r="AY94" s="11">
-        <v>140972</v>
+        <v>513724</v>
       </c>
       <c r="AZ94" s="11">
-        <v>513724</v>
+        <v>590272</v>
       </c>
       <c r="BA94" s="11">
-        <v>590272</v>
+        <v>434587</v>
       </c>
       <c r="BB94" s="11">
-        <v>434587</v>
+        <v>663028</v>
       </c>
     </row>
     <row r="95" spans="2:54" x14ac:dyDescent="0.25">
@@ -13541,8 +13541,8 @@
       <c r="AB96" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="AC96" s="11" t="s">
-        <v>59</v>
+      <c r="AC96" s="11">
+        <v>0</v>
       </c>
       <c r="AD96" s="11">
         <v>0</v>
@@ -13560,64 +13560,64 @@
         <v>0</v>
       </c>
       <c r="AI96" s="11">
-        <v>0</v>
+        <v>59861</v>
       </c>
       <c r="AJ96" s="11">
-        <v>59861</v>
+        <v>137145</v>
       </c>
       <c r="AK96" s="11">
-        <v>137145</v>
+        <v>206704</v>
       </c>
       <c r="AL96" s="11">
-        <v>206704</v>
+        <v>190852</v>
       </c>
       <c r="AM96" s="11">
-        <v>190852</v>
+        <v>172176</v>
       </c>
       <c r="AN96" s="11">
-        <v>172176</v>
+        <v>211093</v>
       </c>
       <c r="AO96" s="11">
-        <v>211093</v>
+        <v>193568</v>
       </c>
       <c r="AP96" s="11">
-        <v>193568</v>
+        <v>218580</v>
       </c>
       <c r="AQ96" s="11">
-        <v>218580</v>
+        <v>269665</v>
       </c>
       <c r="AR96" s="11">
-        <v>269665</v>
+        <v>959793</v>
       </c>
       <c r="AS96" s="11">
-        <v>959793</v>
+        <v>361972</v>
       </c>
       <c r="AT96" s="11">
-        <v>361972</v>
+        <v>226510</v>
       </c>
       <c r="AU96" s="11">
-        <v>226510</v>
+        <v>157929</v>
       </c>
       <c r="AV96" s="11">
-        <v>157929</v>
+        <v>222591</v>
       </c>
       <c r="AW96" s="11">
-        <v>222591</v>
+        <v>436466</v>
       </c>
       <c r="AX96" s="11">
-        <v>436466</v>
+        <v>247939</v>
       </c>
       <c r="AY96" s="11">
-        <v>247939</v>
+        <v>393539</v>
       </c>
       <c r="AZ96" s="11">
-        <v>393539</v>
+        <v>311348</v>
       </c>
       <c r="BA96" s="11">
-        <v>311348</v>
+        <v>335996</v>
       </c>
       <c r="BB96" s="11">
-        <v>335996</v>
+        <v>513735</v>
       </c>
     </row>
     <row r="97" spans="2:54" x14ac:dyDescent="0.25">
@@ -13691,92 +13691,92 @@
       <c r="Y97" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="Z97" s="13" t="s">
-        <v>59</v>
+      <c r="Z97" s="13">
+        <v>205535</v>
       </c>
       <c r="AA97" s="13">
-        <v>205535</v>
+        <v>144758</v>
       </c>
       <c r="AB97" s="13">
-        <v>144758</v>
+        <v>229839</v>
       </c>
       <c r="AC97" s="13">
-        <v>229839</v>
+        <v>154828</v>
       </c>
       <c r="AD97" s="13">
-        <v>154828</v>
+        <v>103627</v>
       </c>
       <c r="AE97" s="13">
-        <v>103627</v>
+        <v>403061</v>
       </c>
       <c r="AF97" s="13">
-        <v>403061</v>
+        <v>219925</v>
       </c>
       <c r="AG97" s="13">
-        <v>219925</v>
+        <v>265284</v>
       </c>
       <c r="AH97" s="13">
-        <v>265284</v>
+        <v>430975</v>
       </c>
       <c r="AI97" s="13">
-        <v>430975</v>
+        <v>545</v>
       </c>
       <c r="AJ97" s="13">
-        <v>545</v>
+        <v>1555</v>
       </c>
       <c r="AK97" s="13">
-        <v>1555</v>
+        <v>1670</v>
       </c>
       <c r="AL97" s="13">
-        <v>1670</v>
+        <v>1474</v>
       </c>
       <c r="AM97" s="13">
-        <v>1474</v>
+        <v>1580</v>
       </c>
       <c r="AN97" s="13">
-        <v>1580</v>
+        <v>2418</v>
       </c>
       <c r="AO97" s="13">
-        <v>2418</v>
+        <v>2271</v>
       </c>
       <c r="AP97" s="13">
-        <v>2271</v>
+        <v>3086</v>
       </c>
       <c r="AQ97" s="13">
-        <v>3086</v>
+        <v>3177</v>
       </c>
       <c r="AR97" s="13">
-        <v>3177</v>
+        <v>3019</v>
       </c>
       <c r="AS97" s="13">
-        <v>3019</v>
+        <v>2234</v>
       </c>
       <c r="AT97" s="13">
-        <v>2234</v>
+        <v>186904</v>
       </c>
       <c r="AU97" s="13">
-        <v>186904</v>
+        <v>1471</v>
       </c>
       <c r="AV97" s="13">
-        <v>1471</v>
+        <v>2757</v>
       </c>
       <c r="AW97" s="13">
-        <v>2757</v>
+        <v>355207</v>
       </c>
       <c r="AX97" s="13">
-        <v>355207</v>
+        <v>212784</v>
       </c>
       <c r="AY97" s="13">
-        <v>212784</v>
+        <v>203775</v>
       </c>
       <c r="AZ97" s="13">
-        <v>203775</v>
+        <v>310984</v>
       </c>
       <c r="BA97" s="13">
-        <v>310984</v>
+        <v>225176</v>
       </c>
       <c r="BB97" s="13">
-        <v>225176</v>
+        <v>393616</v>
       </c>
     </row>
     <row r="98" spans="2:54" x14ac:dyDescent="0.25">
@@ -13850,92 +13850,92 @@
       <c r="Y98" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="Z98" s="15" t="s">
-        <v>59</v>
+      <c r="Z98" s="15">
+        <v>205535</v>
       </c>
       <c r="AA98" s="15">
-        <v>205535</v>
+        <v>144758</v>
       </c>
       <c r="AB98" s="15">
-        <v>144758</v>
+        <v>229839</v>
       </c>
       <c r="AC98" s="15">
-        <v>229839</v>
+        <v>154828</v>
       </c>
       <c r="AD98" s="15">
-        <v>154828</v>
+        <v>103627</v>
       </c>
       <c r="AE98" s="15">
-        <v>103627</v>
+        <v>403061</v>
       </c>
       <c r="AF98" s="15">
-        <v>403061</v>
+        <v>219925</v>
       </c>
       <c r="AG98" s="15">
-        <v>219925</v>
+        <v>265284</v>
       </c>
       <c r="AH98" s="15">
-        <v>265284</v>
+        <v>430975</v>
       </c>
       <c r="AI98" s="15">
-        <v>430975</v>
+        <v>60406</v>
       </c>
       <c r="AJ98" s="15">
-        <v>60406</v>
+        <v>138700</v>
       </c>
       <c r="AK98" s="15">
-        <v>138700</v>
+        <v>208374</v>
       </c>
       <c r="AL98" s="15">
-        <v>208374</v>
+        <v>192326</v>
       </c>
       <c r="AM98" s="15">
-        <v>192326</v>
+        <v>173756</v>
       </c>
       <c r="AN98" s="15">
-        <v>173756</v>
+        <v>213511</v>
       </c>
       <c r="AO98" s="15">
-        <v>213511</v>
+        <v>195839</v>
       </c>
       <c r="AP98" s="15">
-        <v>195839</v>
+        <v>221666</v>
       </c>
       <c r="AQ98" s="15">
-        <v>221666</v>
+        <v>272842</v>
       </c>
       <c r="AR98" s="15">
-        <v>272842</v>
+        <v>962812</v>
       </c>
       <c r="AS98" s="15">
-        <v>962812</v>
+        <v>364206</v>
       </c>
       <c r="AT98" s="15">
-        <v>364206</v>
+        <v>413414</v>
       </c>
       <c r="AU98" s="15">
-        <v>413414</v>
+        <v>159400</v>
       </c>
       <c r="AV98" s="15">
-        <v>159400</v>
+        <v>225348</v>
       </c>
       <c r="AW98" s="15">
-        <v>225348</v>
+        <v>791673</v>
       </c>
       <c r="AX98" s="15">
-        <v>791673</v>
+        <v>460723</v>
       </c>
       <c r="AY98" s="15">
-        <v>460723</v>
+        <v>597314</v>
       </c>
       <c r="AZ98" s="15">
-        <v>597314</v>
+        <v>622332</v>
       </c>
       <c r="BA98" s="15">
-        <v>622332</v>
+        <v>561172</v>
       </c>
       <c r="BB98" s="15">
-        <v>561172</v>
+        <v>907351</v>
       </c>
     </row>
     <row r="99" spans="2:54" x14ac:dyDescent="0.25">
@@ -14066,23 +14066,23 @@
       <c r="Y100" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="Z100" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="AA100" s="11">
-        <v>0</v>
-      </c>
-      <c r="AB100" s="11" t="s">
-        <v>59</v>
+      <c r="Z100" s="11">
+        <v>0</v>
+      </c>
+      <c r="AA100" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="AB100" s="11">
+        <v>-2636</v>
       </c>
       <c r="AC100" s="11">
-        <v>-2636</v>
+        <v>0</v>
       </c>
       <c r="AD100" s="11">
-        <v>0</v>
+        <v>-5272</v>
       </c>
       <c r="AE100" s="11">
-        <v>-5272</v>
+        <v>0</v>
       </c>
       <c r="AF100" s="11">
         <v>0</v>
@@ -14093,8 +14093,8 @@
       <c r="AH100" s="11">
         <v>0</v>
       </c>
-      <c r="AI100" s="11">
-        <v>0</v>
+      <c r="AI100" s="11" t="s">
+        <v>59</v>
       </c>
       <c r="AJ100" s="11" t="s">
         <v>59</v>
@@ -14105,20 +14105,20 @@
       <c r="AL100" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="AM100" s="11" t="s">
-        <v>59</v>
+      <c r="AM100" s="11">
+        <v>-5490</v>
       </c>
       <c r="AN100" s="11">
+        <v>0</v>
+      </c>
+      <c r="AO100" s="11">
+        <v>0</v>
+      </c>
+      <c r="AP100" s="11">
         <v>-5490</v>
       </c>
-      <c r="AO100" s="11">
-        <v>0</v>
-      </c>
-      <c r="AP100" s="11">
-        <v>0</v>
-      </c>
       <c r="AQ100" s="11">
-        <v>-5490</v>
+        <v>0</v>
       </c>
       <c r="AR100" s="11">
         <v>0</v>
@@ -14127,28 +14127,28 @@
         <v>0</v>
       </c>
       <c r="AT100" s="11">
-        <v>0</v>
-      </c>
-      <c r="AU100" s="11">
         <v>-107182</v>
       </c>
+      <c r="AU100" s="11" t="s">
+        <v>59</v>
+      </c>
       <c r="AV100" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="AW100" s="11" t="s">
-        <v>59</v>
+      <c r="AW100" s="11">
+        <v>-9041</v>
       </c>
       <c r="AX100" s="11">
-        <v>-9041</v>
+        <v>-31679</v>
       </c>
       <c r="AY100" s="11">
-        <v>-31679</v>
+        <v>0</v>
       </c>
       <c r="AZ100" s="11">
-        <v>0</v>
+        <v>-8474</v>
       </c>
       <c r="BA100" s="11">
-        <v>-8474</v>
+        <v>0</v>
       </c>
       <c r="BB100" s="11">
         <v>0</v>
@@ -14285,11 +14285,11 @@
       <c r="AS101" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="AT101" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="AU101" s="13">
+      <c r="AT101" s="13">
         <v>-37576</v>
+      </c>
+      <c r="AU101" s="13" t="s">
+        <v>59</v>
       </c>
       <c r="AV101" s="13" t="s">
         <v>59</v>
@@ -14396,11 +14396,11 @@
       <c r="AC102" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="AD102" s="11" t="s">
-        <v>59</v>
+      <c r="AD102" s="11">
+        <v>-6649</v>
       </c>
       <c r="AE102" s="11">
-        <v>-6649</v>
+        <v>0</v>
       </c>
       <c r="AF102" s="11">
         <v>0</v>
@@ -14411,8 +14411,8 @@
       <c r="AH102" s="11">
         <v>0</v>
       </c>
-      <c r="AI102" s="11">
-        <v>0</v>
+      <c r="AI102" s="11" t="s">
+        <v>59</v>
       </c>
       <c r="AJ102" s="11" t="s">
         <v>59</v>
@@ -14432,8 +14432,8 @@
       <c r="AO102" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="AP102" s="11" t="s">
-        <v>59</v>
+      <c r="AP102" s="11">
+        <v>0</v>
       </c>
       <c r="AQ102" s="11">
         <v>0</v>
@@ -14445,10 +14445,10 @@
         <v>0</v>
       </c>
       <c r="AT102" s="11">
-        <v>0</v>
-      </c>
-      <c r="AU102" s="11">
         <v>-70614</v>
+      </c>
+      <c r="AU102" s="11" t="s">
+        <v>59</v>
       </c>
       <c r="AV102" s="11" t="s">
         <v>59</v>
@@ -14618,11 +14618,11 @@
       <c r="AX103" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="AY103" s="13" t="s">
-        <v>59</v>
+      <c r="AY103" s="13">
+        <v>-9836</v>
       </c>
       <c r="AZ103" s="13">
-        <v>-9836</v>
+        <v>0</v>
       </c>
       <c r="BA103" s="13">
         <v>0</v>
@@ -14744,50 +14744,50 @@
       <c r="AM104" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="AN104" s="11" t="s">
-        <v>59</v>
+      <c r="AN104" s="11">
+        <v>-1463</v>
       </c>
       <c r="AO104" s="11">
-        <v>-1463</v>
+        <v>-1119</v>
       </c>
       <c r="AP104" s="11">
-        <v>-1119</v>
+        <v>-1505</v>
       </c>
       <c r="AQ104" s="11">
-        <v>-1505</v>
+        <v>-131</v>
       </c>
       <c r="AR104" s="11">
-        <v>-131</v>
+        <v>-61</v>
       </c>
       <c r="AS104" s="11">
-        <v>-61</v>
+        <v>-328</v>
       </c>
       <c r="AT104" s="11">
-        <v>-328</v>
+        <v>-27022</v>
       </c>
       <c r="AU104" s="11">
-        <v>-27022</v>
+        <v>0</v>
       </c>
       <c r="AV104" s="11">
-        <v>-3189</v>
+        <v>-167</v>
       </c>
       <c r="AW104" s="11">
-        <v>-167</v>
+        <v>-891</v>
       </c>
       <c r="AX104" s="11">
-        <v>-891</v>
+        <v>-172</v>
       </c>
       <c r="AY104" s="11">
-        <v>-172</v>
+        <v>-21203</v>
       </c>
       <c r="AZ104" s="11">
-        <v>-18014</v>
+        <v>-287</v>
       </c>
       <c r="BA104" s="11">
-        <v>-287</v>
+        <v>-1137</v>
       </c>
       <c r="BB104" s="11">
-        <v>-1137</v>
+        <v>-2984</v>
       </c>
     </row>
     <row r="105" spans="2:54" x14ac:dyDescent="0.25">
@@ -14861,50 +14861,50 @@
       <c r="Y105" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="Z105" s="13" t="s">
-        <v>59</v>
+      <c r="Z105" s="13">
+        <v>0</v>
       </c>
       <c r="AA105" s="13">
-        <v>0</v>
+        <v>-3097</v>
       </c>
       <c r="AB105" s="13">
-        <v>-3097</v>
+        <v>-654</v>
       </c>
       <c r="AC105" s="13">
-        <v>-654</v>
+        <v>0</v>
       </c>
       <c r="AD105" s="13">
-        <v>0</v>
+        <v>-2303</v>
       </c>
       <c r="AE105" s="13">
-        <v>-2303</v>
+        <v>-1615</v>
       </c>
       <c r="AF105" s="13">
-        <v>-1615</v>
+        <v>-62</v>
       </c>
       <c r="AG105" s="13">
-        <v>-62</v>
+        <v>-452</v>
       </c>
       <c r="AH105" s="13">
-        <v>-452</v>
-      </c>
-      <c r="AI105" s="13">
         <v>-116</v>
       </c>
-      <c r="AJ105" s="13" t="s">
-        <v>59</v>
+      <c r="AI105" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="AJ105" s="13">
+        <v>-1035</v>
       </c>
       <c r="AK105" s="13">
-        <v>-1035</v>
+        <v>-162</v>
       </c>
       <c r="AL105" s="13">
-        <v>-162</v>
+        <v>-261</v>
       </c>
       <c r="AM105" s="13">
-        <v>-261</v>
+        <v>-170</v>
       </c>
       <c r="AN105" s="13">
-        <v>-170</v>
+        <v>0</v>
       </c>
       <c r="AO105" s="13">
         <v>0</v>
@@ -14927,8 +14927,8 @@
       <c r="AU105" s="13">
         <v>0</v>
       </c>
-      <c r="AV105" s="13" t="s">
-        <v>59</v>
+      <c r="AV105" s="13">
+        <v>0</v>
       </c>
       <c r="AW105" s="13">
         <v>0</v>
@@ -14937,7 +14937,7 @@
         <v>0</v>
       </c>
       <c r="AY105" s="13">
-        <v>0</v>
+        <v>3189</v>
       </c>
       <c r="AZ105" s="13">
         <v>0</v>
@@ -15026,11 +15026,11 @@
       <c r="AA106" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="AB106" s="11" t="s">
-        <v>59</v>
+      <c r="AB106" s="11">
+        <v>-15069</v>
       </c>
       <c r="AC106" s="11">
-        <v>-15069</v>
+        <v>0</v>
       </c>
       <c r="AD106" s="11">
         <v>0</v>
@@ -15042,13 +15042,13 @@
         <v>0</v>
       </c>
       <c r="AG106" s="11">
-        <v>0</v>
+        <v>-4373</v>
       </c>
       <c r="AH106" s="11">
-        <v>-4373</v>
-      </c>
-      <c r="AI106" s="11">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="AI106" s="11" t="s">
+        <v>59</v>
       </c>
       <c r="AJ106" s="11" t="s">
         <v>59</v>
@@ -15062,8 +15062,8 @@
       <c r="AM106" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="AN106" s="11" t="s">
-        <v>59</v>
+      <c r="AN106" s="11">
+        <v>0</v>
       </c>
       <c r="AO106" s="11">
         <v>0</v>
@@ -15081,11 +15081,11 @@
         <v>0</v>
       </c>
       <c r="AT106" s="11">
-        <v>0</v>
-      </c>
-      <c r="AU106" s="11">
         <v>-30386</v>
       </c>
+      <c r="AU106" s="11" t="s">
+        <v>59</v>
+      </c>
       <c r="AV106" s="11" t="s">
         <v>59</v>
       </c>
@@ -15101,11 +15101,11 @@
       <c r="AZ106" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="BA106" s="11" t="s">
-        <v>59</v>
+      <c r="BA106" s="11">
+        <v>-28893</v>
       </c>
       <c r="BB106" s="11">
-        <v>-28893</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107" spans="2:54" x14ac:dyDescent="0.25">
@@ -15251,11 +15251,11 @@
       <c r="AW107" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="AX107" s="13" t="s">
-        <v>59</v>
+      <c r="AX107" s="13">
+        <v>-12607</v>
       </c>
       <c r="AY107" s="13">
-        <v>-12607</v>
+        <v>0</v>
       </c>
       <c r="AZ107" s="13">
         <v>0</v>
@@ -15377,20 +15377,20 @@
       <c r="AL108" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="AM108" s="11" t="s">
-        <v>59</v>
+      <c r="AM108" s="11">
+        <v>-17405</v>
       </c>
       <c r="AN108" s="11">
-        <v>-17405</v>
+        <v>0</v>
       </c>
       <c r="AO108" s="11">
         <v>0</v>
       </c>
       <c r="AP108" s="11">
-        <v>0</v>
+        <v>-12991</v>
       </c>
       <c r="AQ108" s="11">
-        <v>-12991</v>
+        <v>0</v>
       </c>
       <c r="AR108" s="11">
         <v>0</v>
@@ -15399,25 +15399,25 @@
         <v>0</v>
       </c>
       <c r="AT108" s="11">
-        <v>0</v>
-      </c>
-      <c r="AU108" s="11">
         <v>-14148</v>
       </c>
+      <c r="AU108" s="11" t="s">
+        <v>59</v>
+      </c>
       <c r="AV108" s="11" t="s">
         <v>59</v>
       </c>
       <c r="AW108" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="AX108" s="11" t="s">
-        <v>59</v>
+      <c r="AX108" s="11">
+        <v>-14893</v>
       </c>
       <c r="AY108" s="11">
-        <v>-14893</v>
+        <v>-1587</v>
       </c>
       <c r="AZ108" s="11">
-        <v>-1587</v>
+        <v>0</v>
       </c>
       <c r="BA108" s="11">
         <v>0</v>
@@ -15497,92 +15497,92 @@
       <c r="Y109" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="Z109" s="17" t="s">
-        <v>59</v>
+      <c r="Z109" s="17">
+        <v>0</v>
       </c>
       <c r="AA109" s="17">
-        <v>0</v>
+        <v>-3097</v>
       </c>
       <c r="AB109" s="17">
-        <v>-3097</v>
+        <v>-18359</v>
       </c>
       <c r="AC109" s="17">
-        <v>-18359</v>
+        <v>0</v>
       </c>
       <c r="AD109" s="17">
-        <v>0</v>
+        <v>-14224</v>
       </c>
       <c r="AE109" s="17">
-        <v>-14224</v>
+        <v>-1615</v>
       </c>
       <c r="AF109" s="17">
-        <v>-1615</v>
+        <v>-62</v>
       </c>
       <c r="AG109" s="17">
-        <v>-62</v>
+        <v>-4825</v>
       </c>
       <c r="AH109" s="17">
-        <v>-4825</v>
+        <v>-116</v>
       </c>
       <c r="AI109" s="17">
-        <v>-116</v>
+        <v>0</v>
       </c>
       <c r="AJ109" s="17">
-        <v>0</v>
+        <v>-1035</v>
       </c>
       <c r="AK109" s="17">
-        <v>-1035</v>
+        <v>-162</v>
       </c>
       <c r="AL109" s="17">
-        <v>-162</v>
+        <v>-261</v>
       </c>
       <c r="AM109" s="17">
-        <v>-261</v>
+        <v>-23065</v>
       </c>
       <c r="AN109" s="17">
-        <v>-23065</v>
+        <v>-1463</v>
       </c>
       <c r="AO109" s="17">
-        <v>-1463</v>
+        <v>-1119</v>
       </c>
       <c r="AP109" s="17">
-        <v>-1119</v>
+        <v>-19986</v>
       </c>
       <c r="AQ109" s="17">
-        <v>-19986</v>
+        <v>-131</v>
       </c>
       <c r="AR109" s="17">
-        <v>-131</v>
+        <v>-61</v>
       </c>
       <c r="AS109" s="17">
-        <v>-61</v>
+        <v>-328</v>
       </c>
       <c r="AT109" s="17">
-        <v>-328</v>
+        <v>-286928</v>
       </c>
       <c r="AU109" s="17">
-        <v>-286928</v>
+        <v>-3189</v>
       </c>
       <c r="AV109" s="17">
-        <v>-3189</v>
+        <v>-167</v>
       </c>
       <c r="AW109" s="17">
-        <v>-167</v>
+        <v>-9932</v>
       </c>
       <c r="AX109" s="17">
-        <v>-9932</v>
+        <v>-59351</v>
       </c>
       <c r="AY109" s="17">
-        <v>-59351</v>
+        <v>-29437</v>
       </c>
       <c r="AZ109" s="17">
-        <v>-29437</v>
+        <v>-8761</v>
       </c>
       <c r="BA109" s="17">
-        <v>-8761</v>
+        <v>-30030</v>
       </c>
       <c r="BB109" s="17">
-        <v>-30030</v>
+        <v>-2984</v>
       </c>
     </row>
     <row r="110" spans="2:54" x14ac:dyDescent="0.25">
@@ -15713,92 +15713,92 @@
       <c r="Y111" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="Z111" s="11" t="s">
-        <v>59</v>
+      <c r="Z111" s="11">
+        <v>-40011</v>
       </c>
       <c r="AA111" s="11">
-        <v>-40011</v>
+        <v>-13877</v>
       </c>
       <c r="AB111" s="11">
-        <v>-13877</v>
+        <v>-18824</v>
       </c>
       <c r="AC111" s="11">
-        <v>-18824</v>
+        <v>0</v>
       </c>
       <c r="AD111" s="11">
-        <v>0</v>
+        <v>-12804</v>
       </c>
       <c r="AE111" s="11">
-        <v>-12804</v>
+        <v>-18914</v>
       </c>
       <c r="AF111" s="11">
-        <v>-18914</v>
+        <v>-21977</v>
       </c>
       <c r="AG111" s="11">
-        <v>-21977</v>
+        <v>-23570</v>
       </c>
       <c r="AH111" s="11">
-        <v>-23570</v>
+        <v>-19266</v>
       </c>
       <c r="AI111" s="11">
-        <v>-19266</v>
+        <v>-11400</v>
       </c>
       <c r="AJ111" s="11">
-        <v>-11400</v>
+        <v>-22632</v>
       </c>
       <c r="AK111" s="11">
-        <v>-22632</v>
+        <v>-27895</v>
       </c>
       <c r="AL111" s="11">
-        <v>-27895</v>
+        <v>-80056</v>
       </c>
       <c r="AM111" s="11">
-        <v>-80056</v>
+        <v>-78578</v>
       </c>
       <c r="AN111" s="11">
-        <v>-78578</v>
+        <v>-77596</v>
       </c>
       <c r="AO111" s="11">
-        <v>-77596</v>
+        <v>-61991</v>
       </c>
       <c r="AP111" s="11">
-        <v>-61991</v>
+        <v>-45253</v>
       </c>
       <c r="AQ111" s="11">
-        <v>-45253</v>
+        <v>-45636</v>
       </c>
       <c r="AR111" s="11">
-        <v>-45636</v>
+        <v>-30643</v>
       </c>
       <c r="AS111" s="11">
-        <v>-30643</v>
+        <v>-47617</v>
       </c>
       <c r="AT111" s="11">
-        <v>-47617</v>
+        <v>-48126</v>
       </c>
       <c r="AU111" s="11">
-        <v>-48126</v>
+        <v>-23469</v>
       </c>
       <c r="AV111" s="11">
-        <v>-23469</v>
+        <v>-31324</v>
       </c>
       <c r="AW111" s="11">
-        <v>-31324</v>
+        <v>-44385</v>
       </c>
       <c r="AX111" s="11">
-        <v>-44385</v>
+        <v>-34437</v>
       </c>
       <c r="AY111" s="11">
-        <v>-34437</v>
+        <v>-61128</v>
       </c>
       <c r="AZ111" s="11">
-        <v>-61128</v>
+        <v>-44357</v>
       </c>
       <c r="BA111" s="11">
-        <v>-44357</v>
+        <v>-33852</v>
       </c>
       <c r="BB111" s="11">
-        <v>-33852</v>
+        <v>-59452</v>
       </c>
     </row>
     <row r="112" spans="2:54" x14ac:dyDescent="0.25">
@@ -15808,154 +15808,154 @@
       <c r="C112" s="17"/>
       <c r="D112" s="17"/>
       <c r="E112" s="17">
-        <v>105101</v>
+        <v>323958</v>
       </c>
       <c r="F112" s="17">
-        <v>323958</v>
+        <v>261116</v>
       </c>
       <c r="G112" s="17">
-        <v>261116</v>
+        <v>282484</v>
       </c>
       <c r="H112" s="17">
-        <v>282484</v>
+        <v>632591</v>
       </c>
       <c r="I112" s="17">
-        <v>632591</v>
+        <v>430779</v>
       </c>
       <c r="J112" s="17">
-        <v>430779</v>
+        <v>491061</v>
       </c>
       <c r="K112" s="17">
-        <v>491061</v>
+        <v>245183</v>
       </c>
       <c r="L112" s="17">
-        <v>245183</v>
+        <v>469820</v>
       </c>
       <c r="M112" s="17">
-        <v>469820</v>
+        <v>292833</v>
       </c>
       <c r="N112" s="17">
-        <v>292833</v>
+        <v>175091</v>
       </c>
       <c r="O112" s="17">
-        <v>175091</v>
+        <v>201018</v>
       </c>
       <c r="P112" s="17">
-        <v>201018</v>
+        <v>314296</v>
       </c>
       <c r="Q112" s="17">
-        <v>314296</v>
+        <v>379952</v>
       </c>
       <c r="R112" s="17">
-        <v>379952</v>
+        <v>522120</v>
       </c>
       <c r="S112" s="17">
-        <v>522120</v>
+        <v>669680</v>
       </c>
       <c r="T112" s="17">
-        <v>669680</v>
+        <v>679973</v>
       </c>
       <c r="U112" s="17">
-        <v>679973</v>
+        <v>725271</v>
       </c>
       <c r="V112" s="17">
-        <v>725271</v>
+        <v>591872</v>
       </c>
       <c r="W112" s="17">
-        <v>591872</v>
+        <v>71528</v>
       </c>
       <c r="X112" s="17">
-        <v>71528</v>
+        <v>501554</v>
       </c>
       <c r="Y112" s="17">
-        <v>501554</v>
+        <v>312873</v>
       </c>
       <c r="Z112" s="17">
-        <v>312873</v>
+        <v>810724</v>
       </c>
       <c r="AA112" s="17">
-        <v>810724</v>
+        <v>587522</v>
       </c>
       <c r="AB112" s="17">
-        <v>587522</v>
+        <v>789043</v>
       </c>
       <c r="AC112" s="17">
-        <v>789043</v>
+        <v>443236</v>
       </c>
       <c r="AD112" s="17">
-        <v>443236</v>
+        <v>230235</v>
       </c>
       <c r="AE112" s="17">
-        <v>230235</v>
+        <v>1586537</v>
       </c>
       <c r="AF112" s="17">
-        <v>1586537</v>
+        <v>1038672</v>
       </c>
       <c r="AG112" s="17">
-        <v>1038672</v>
+        <v>1032650</v>
       </c>
       <c r="AH112" s="17">
-        <v>1032650</v>
+        <v>1608880</v>
       </c>
       <c r="AI112" s="17">
-        <v>1608880</v>
+        <v>380345</v>
       </c>
       <c r="AJ112" s="17">
-        <v>380345</v>
+        <v>479690</v>
       </c>
       <c r="AK112" s="17">
-        <v>479690</v>
+        <v>844909</v>
       </c>
       <c r="AL112" s="17">
-        <v>844909</v>
+        <v>1300708</v>
       </c>
       <c r="AM112" s="17">
-        <v>1300708</v>
+        <v>1014696</v>
       </c>
       <c r="AN112" s="17">
-        <v>1014696</v>
+        <v>3523869</v>
       </c>
       <c r="AO112" s="17">
-        <v>3523869</v>
+        <v>4731735</v>
       </c>
       <c r="AP112" s="17">
-        <v>4731735</v>
+        <v>987441</v>
       </c>
       <c r="AQ112" s="17">
-        <v>987441</v>
+        <v>2427239</v>
       </c>
       <c r="AR112" s="17">
-        <v>2427239</v>
+        <v>3821074</v>
       </c>
       <c r="AS112" s="17">
-        <v>3821074</v>
+        <v>4124703</v>
       </c>
       <c r="AT112" s="17">
-        <v>4124703</v>
+        <v>4057008</v>
       </c>
       <c r="AU112" s="17">
-        <v>4057008</v>
+        <v>135931</v>
       </c>
       <c r="AV112" s="17">
-        <v>132742</v>
+        <v>3914685</v>
       </c>
       <c r="AW112" s="17">
-        <v>3914685</v>
+        <v>4764638</v>
       </c>
       <c r="AX112" s="17">
-        <v>4764638</v>
+        <v>2667667</v>
       </c>
       <c r="AY112" s="17">
-        <v>2667667</v>
+        <v>5385860</v>
       </c>
       <c r="AZ112" s="17">
-        <v>5385860</v>
+        <v>11956297</v>
       </c>
       <c r="BA112" s="17">
-        <v>11956297</v>
+        <v>7194904</v>
       </c>
       <c r="BB112" s="17">
-        <v>7194904</v>
+        <v>6477909</v>
       </c>
     </row>
     <row r="113" spans="2:54" x14ac:dyDescent="0.25">
@@ -16401,154 +16401,154 @@
       </c>
       <c r="D119" s="11"/>
       <c r="E119" s="11">
-        <v>1390052632</v>
+        <v>1319615385</v>
       </c>
       <c r="F119" s="11">
-        <v>1319615385</v>
+        <v>1289315789</v>
       </c>
       <c r="G119" s="11">
-        <v>1289315789</v>
+        <v>1322625000</v>
       </c>
       <c r="H119" s="11">
-        <v>1322625000</v>
+        <v>1314406250</v>
       </c>
       <c r="I119" s="11">
-        <v>1314406250</v>
+        <v>1535739130</v>
       </c>
       <c r="J119" s="11">
-        <v>1535739130</v>
+        <v>2375781818</v>
       </c>
       <c r="K119" s="11">
-        <v>2375781818</v>
+        <v>2598555556</v>
       </c>
       <c r="L119" s="11">
-        <v>2598555556</v>
+        <v>2728282051</v>
       </c>
       <c r="M119" s="11">
-        <v>2728282051</v>
+        <v>3172529412</v>
       </c>
       <c r="N119" s="11">
-        <v>3172529412</v>
+        <v>2850666667</v>
       </c>
       <c r="O119" s="11">
-        <v>2850666667</v>
+        <v>3270892857</v>
       </c>
       <c r="P119" s="11">
-        <v>3270892857</v>
+        <v>3163028571</v>
       </c>
       <c r="Q119" s="11">
-        <v>3163028571</v>
+        <v>3647473684</v>
       </c>
       <c r="R119" s="11">
-        <v>3647473684</v>
+        <v>2794807692</v>
       </c>
       <c r="S119" s="11">
-        <v>2794807692</v>
+        <v>3675040404</v>
       </c>
       <c r="T119" s="11">
-        <v>3675040404</v>
+        <v>3663869565</v>
       </c>
       <c r="U119" s="11">
-        <v>3663869565</v>
+        <v>3046515152</v>
       </c>
       <c r="V119" s="11">
-        <v>3046515152</v>
-      </c>
-      <c r="W119" s="11">
         <v>2781761905</v>
       </c>
-      <c r="X119" s="11" t="s">
-        <v>59</v>
+      <c r="W119" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="X119" s="11">
+        <v>3494386364</v>
       </c>
       <c r="Y119" s="11">
-        <v>3494386364</v>
+        <v>3224046512</v>
       </c>
       <c r="Z119" s="11">
-        <v>3224046512</v>
+        <v>3139000000</v>
       </c>
       <c r="AA119" s="11">
-        <v>3139000000</v>
+        <v>4080111111</v>
       </c>
       <c r="AB119" s="11">
-        <v>4080111111</v>
+        <v>5070916667</v>
       </c>
       <c r="AC119" s="11">
-        <v>5070916667</v>
+        <v>4672760000</v>
       </c>
       <c r="AD119" s="11">
-        <v>4672760000</v>
+        <v>4823166667</v>
       </c>
       <c r="AE119" s="11">
-        <v>4823166667</v>
+        <v>5313292453</v>
       </c>
       <c r="AF119" s="11">
-        <v>5313292453</v>
+        <v>5275752809</v>
       </c>
       <c r="AG119" s="11">
-        <v>5275752809</v>
+        <v>5154883333</v>
       </c>
       <c r="AH119" s="11">
-        <v>5154883333</v>
+        <v>5226938053</v>
       </c>
       <c r="AI119" s="11">
-        <v>5226938053</v>
+        <v>5430153846</v>
       </c>
       <c r="AJ119" s="11">
-        <v>5430153846</v>
+        <v>5456000000</v>
       </c>
       <c r="AK119" s="11">
-        <v>5456000000</v>
+        <v>6263090909</v>
       </c>
       <c r="AL119" s="11">
-        <v>6263090909</v>
+        <v>6765196078</v>
       </c>
       <c r="AM119" s="11">
-        <v>6765196078</v>
+        <v>6842800000</v>
       </c>
       <c r="AN119" s="11">
-        <v>6842800000</v>
+        <v>6301097458</v>
       </c>
       <c r="AO119" s="11">
-        <v>6301097458</v>
+        <v>6219637874</v>
       </c>
       <c r="AP119" s="11">
-        <v>6219637874</v>
+        <v>7208093750</v>
       </c>
       <c r="AQ119" s="11">
-        <v>7208093750</v>
+        <v>7626459677</v>
       </c>
       <c r="AR119" s="11">
-        <v>7626459677</v>
+        <v>7254400000</v>
       </c>
       <c r="AS119" s="11">
-        <v>7254400000</v>
+        <v>7370587591</v>
       </c>
       <c r="AT119" s="11">
-        <v>7370587591</v>
-      </c>
-      <c r="AU119" s="11">
         <v>6985757764</v>
       </c>
-      <c r="AV119" s="11" t="s">
-        <v>59</v>
+      <c r="AU119" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="AV119" s="11">
+        <v>8369382813</v>
       </c>
       <c r="AW119" s="11">
-        <v>8369382813</v>
+        <v>8281922601</v>
       </c>
       <c r="AX119" s="11">
-        <v>8281922601</v>
+        <v>8381943396</v>
       </c>
       <c r="AY119" s="11">
-        <v>8381943396</v>
+        <v>8327865385</v>
       </c>
       <c r="AZ119" s="11">
-        <v>8327865385</v>
+        <v>8750904762</v>
       </c>
       <c r="BA119" s="11">
-        <v>8750904762</v>
+        <v>8743209402</v>
       </c>
       <c r="BB119" s="11">
-        <v>8743209402</v>
+        <v>8809645022</v>
       </c>
     </row>
     <row r="120" spans="2:54" x14ac:dyDescent="0.25">
@@ -16563,19 +16563,19 @@
         <v>1087000000</v>
       </c>
       <c r="F120" s="13">
-        <v>1087000000</v>
+        <v>1119000000</v>
       </c>
       <c r="G120" s="13">
-        <v>1119000000</v>
+        <v>1050000000</v>
       </c>
       <c r="H120" s="13">
-        <v>1050000000</v>
+        <v>0</v>
       </c>
       <c r="I120" s="13">
-        <v>0</v>
+        <v>1999930000</v>
       </c>
       <c r="J120" s="13">
-        <v>1999930000</v>
+        <v>0</v>
       </c>
       <c r="K120" s="13">
         <v>0</v>
@@ -16596,49 +16596,49 @@
         <v>0</v>
       </c>
       <c r="Q120" s="13">
-        <v>0</v>
+        <v>3318375000</v>
       </c>
       <c r="R120" s="13">
-        <v>3318375000</v>
+        <v>3390428571</v>
       </c>
       <c r="S120" s="13">
-        <v>3390428571</v>
+        <v>3449437500</v>
       </c>
       <c r="T120" s="13">
-        <v>3449437500</v>
+        <v>3485786667</v>
       </c>
       <c r="U120" s="13">
-        <v>3485786667</v>
+        <v>3494106383</v>
       </c>
       <c r="V120" s="13">
-        <v>3494106383</v>
-      </c>
-      <c r="W120" s="13">
         <v>3440090909</v>
       </c>
-      <c r="X120" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="Y120" s="13">
+      <c r="W120" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="X120" s="13">
         <v>3423250000</v>
       </c>
-      <c r="Z120" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="AA120" s="13">
+      <c r="Y120" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="Z120" s="13">
         <v>3278142857</v>
       </c>
-      <c r="AB120" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="AC120" s="13">
+      <c r="AA120" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="AB120" s="13">
         <v>4734444444</v>
       </c>
+      <c r="AC120" s="13" t="s">
+        <v>59</v>
+      </c>
       <c r="AD120" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="AE120" s="13" t="s">
-        <v>59</v>
+      <c r="AE120" s="13">
+        <v>4697000000</v>
       </c>
       <c r="AF120" s="13">
         <v>4697000000</v>
@@ -16649,17 +16649,17 @@
       <c r="AH120" s="13">
         <v>4697000000</v>
       </c>
-      <c r="AI120" s="13">
+      <c r="AI120" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="AJ120" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="AK120" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="AL120" s="13">
         <v>4697000000</v>
-      </c>
-      <c r="AJ120" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="AK120" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="AL120" s="13" t="s">
-        <v>59</v>
       </c>
       <c r="AM120" s="13">
         <v>4697000000</v>
@@ -16670,14 +16670,14 @@
       <c r="AO120" s="13">
         <v>4697000000</v>
       </c>
-      <c r="AP120" s="13">
+      <c r="AP120" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="AQ120" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="AR120" s="13">
         <v>4697000000</v>
-      </c>
-      <c r="AQ120" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="AR120" s="13" t="s">
-        <v>59</v>
       </c>
       <c r="AS120" s="13">
         <v>4697000000</v>
@@ -16685,8 +16685,8 @@
       <c r="AT120" s="13">
         <v>4697000000</v>
       </c>
-      <c r="AU120" s="13">
-        <v>4697000000</v>
+      <c r="AU120" s="13" t="s">
+        <v>59</v>
       </c>
       <c r="AV120" s="13" t="s">
         <v>59</v>
@@ -16719,31 +16719,31 @@
       </c>
       <c r="D121" s="11"/>
       <c r="E121" s="11">
-        <v>0</v>
+        <v>3122400000</v>
       </c>
       <c r="F121" s="11">
-        <v>3122400000</v>
+        <v>1952333333</v>
       </c>
       <c r="G121" s="11">
-        <v>1952333333</v>
+        <v>2914200000</v>
       </c>
       <c r="H121" s="11">
-        <v>2914200000</v>
+        <v>2917666667</v>
       </c>
       <c r="I121" s="11">
-        <v>2917666667</v>
+        <v>2717666667</v>
       </c>
       <c r="J121" s="11">
+        <v>0</v>
+      </c>
+      <c r="K121" s="11">
+        <v>0</v>
+      </c>
+      <c r="L121" s="11">
         <v>2717666667</v>
       </c>
-      <c r="K121" s="11">
-        <v>0</v>
-      </c>
-      <c r="L121" s="11">
-        <v>0</v>
-      </c>
       <c r="M121" s="11">
-        <v>2717666667</v>
+        <v>0</v>
       </c>
       <c r="N121" s="11">
         <v>0</v>
@@ -16772,8 +16772,8 @@
       <c r="V121" s="11">
         <v>0</v>
       </c>
-      <c r="W121" s="11">
-        <v>0</v>
+      <c r="W121" s="11" t="s">
+        <v>59</v>
       </c>
       <c r="X121" s="11" t="s">
         <v>59</v>
@@ -16878,62 +16878,62 @@
       </c>
       <c r="D122" s="13"/>
       <c r="E122" s="13">
-        <v>1967428571</v>
+        <v>2019543478</v>
       </c>
       <c r="F122" s="13">
-        <v>2019543478</v>
+        <v>1905943396</v>
       </c>
       <c r="G122" s="13">
-        <v>1905943396</v>
+        <v>1839270833</v>
       </c>
       <c r="H122" s="13">
-        <v>1839270833</v>
+        <v>1906000000</v>
       </c>
       <c r="I122" s="13">
-        <v>1906000000</v>
+        <v>2995000000</v>
       </c>
       <c r="J122" s="13">
-        <v>2995000000</v>
+        <v>3077333333</v>
       </c>
       <c r="K122" s="13">
-        <v>3077333333</v>
+        <v>0</v>
       </c>
       <c r="L122" s="13">
         <v>0</v>
       </c>
       <c r="M122" s="13">
-        <v>0</v>
+        <v>3324473684</v>
       </c>
       <c r="N122" s="13">
-        <v>3324473684</v>
+        <v>3764333333</v>
       </c>
       <c r="O122" s="13">
-        <v>3764333333</v>
+        <v>3091600000</v>
       </c>
       <c r="P122" s="13">
-        <v>3091600000</v>
+        <v>4902266667</v>
       </c>
       <c r="Q122" s="13">
-        <v>4902266667</v>
+        <v>2341000000</v>
       </c>
       <c r="R122" s="13">
-        <v>2341000000</v>
+        <v>3875080000</v>
       </c>
       <c r="S122" s="13">
-        <v>3875080000</v>
+        <v>4811333333</v>
       </c>
       <c r="T122" s="13">
-        <v>4811333333</v>
+        <v>4095000000</v>
       </c>
       <c r="U122" s="13">
-        <v>4095000000</v>
+        <v>3167867647</v>
       </c>
       <c r="V122" s="13">
-        <v>3167867647</v>
-      </c>
-      <c r="W122" s="13">
         <v>3595307692</v>
       </c>
+      <c r="W122" s="13" t="s">
+        <v>59</v>
+      </c>
       <c r="X122" s="13" t="s">
         <v>59</v>
       </c>
@@ -16973,11 +16973,11 @@
       <c r="AJ122" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="AK122" s="13" t="s">
-        <v>59</v>
+      <c r="AK122" s="13">
+        <v>4758000000</v>
       </c>
       <c r="AL122" s="13">
-        <v>4758000000</v>
+        <v>11690000000</v>
       </c>
       <c r="AM122" s="13">
         <v>11690000000</v>
@@ -16992,19 +16992,19 @@
         <v>11690000000</v>
       </c>
       <c r="AQ122" s="13">
+        <v>11773409091</v>
+      </c>
+      <c r="AR122" s="13">
         <v>11690000000</v>
       </c>
-      <c r="AR122" s="13">
-        <v>11773409091</v>
-      </c>
       <c r="AS122" s="13">
-        <v>11690000000</v>
+        <v>12165240964</v>
       </c>
       <c r="AT122" s="13">
-        <v>12165240964</v>
-      </c>
-      <c r="AU122" s="13">
         <v>12524868852</v>
+      </c>
+      <c r="AU122" s="13" t="s">
+        <v>59</v>
       </c>
       <c r="AV122" s="13" t="s">
         <v>59</v>
@@ -17037,85 +17037,85 @@
       </c>
       <c r="D123" s="11"/>
       <c r="E123" s="11">
-        <v>1390400000</v>
+        <v>1386071429</v>
       </c>
       <c r="F123" s="11">
-        <v>1386071429</v>
+        <v>1448250000</v>
       </c>
       <c r="G123" s="11">
-        <v>1448250000</v>
+        <v>1437400000</v>
       </c>
       <c r="H123" s="11">
-        <v>1437400000</v>
+        <v>1460111111</v>
       </c>
       <c r="I123" s="11">
-        <v>1460111111</v>
+        <v>2444611111</v>
       </c>
       <c r="J123" s="11">
-        <v>2444611111</v>
+        <v>2543218750</v>
       </c>
       <c r="K123" s="11">
-        <v>2543218750</v>
+        <v>2858222222</v>
       </c>
       <c r="L123" s="11">
-        <v>2858222222</v>
+        <v>2981640000</v>
       </c>
       <c r="M123" s="11">
-        <v>2981640000</v>
+        <v>2893000000</v>
       </c>
       <c r="N123" s="11">
-        <v>2893000000</v>
+        <v>3573500000</v>
       </c>
       <c r="O123" s="11">
-        <v>3573500000</v>
+        <v>2891375000</v>
       </c>
       <c r="P123" s="11">
-        <v>2891375000</v>
+        <v>2431750000</v>
       </c>
       <c r="Q123" s="11">
-        <v>2431750000</v>
+        <v>4090450000</v>
       </c>
       <c r="R123" s="11">
-        <v>4090450000</v>
+        <v>4367071429</v>
       </c>
       <c r="S123" s="11">
-        <v>4367071429</v>
+        <v>4177419355</v>
       </c>
       <c r="T123" s="11">
-        <v>4177419355</v>
+        <v>4355291667</v>
       </c>
       <c r="U123" s="11">
-        <v>4355291667</v>
+        <v>4192636364</v>
       </c>
       <c r="V123" s="11">
-        <v>4192636364</v>
-      </c>
-      <c r="W123" s="11">
         <v>4075076923</v>
       </c>
-      <c r="X123" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="Y123" s="11">
+      <c r="W123" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="X123" s="11">
         <v>4373466667</v>
       </c>
-      <c r="Z123" s="11" t="s">
-        <v>59</v>
+      <c r="Y123" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="Z123" s="11">
+        <v>4343100000</v>
       </c>
       <c r="AA123" s="11">
-        <v>4343100000</v>
-      </c>
-      <c r="AB123" s="11">
         <v>5856000000</v>
       </c>
-      <c r="AC123" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="AD123" s="11">
+      <c r="AB123" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="AC123" s="11">
         <v>5856000000</v>
       </c>
-      <c r="AE123" s="11" t="s">
-        <v>59</v>
+      <c r="AD123" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="AE123" s="11">
+        <v>5856000000</v>
       </c>
       <c r="AF123" s="11">
         <v>5856000000</v>
@@ -17124,13 +17124,13 @@
         <v>5856000000</v>
       </c>
       <c r="AH123" s="11">
+        <v>6072888889</v>
+      </c>
+      <c r="AI123" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="AJ123" s="11">
         <v>5856000000</v>
-      </c>
-      <c r="AI123" s="11">
-        <v>6072888889</v>
-      </c>
-      <c r="AJ123" s="11" t="s">
-        <v>59</v>
       </c>
       <c r="AK123" s="11">
         <v>5856000000</v>
@@ -17138,11 +17138,11 @@
       <c r="AL123" s="11">
         <v>5856000000</v>
       </c>
-      <c r="AM123" s="11">
+      <c r="AM123" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="AN123" s="11">
         <v>5856000000</v>
-      </c>
-      <c r="AN123" s="11" t="s">
-        <v>59</v>
       </c>
       <c r="AO123" s="11">
         <v>5856000000</v>
@@ -17151,40 +17151,40 @@
         <v>5856000000</v>
       </c>
       <c r="AQ123" s="11">
-        <v>5856000000</v>
+        <v>8655500000</v>
       </c>
       <c r="AR123" s="11">
-        <v>8655500000</v>
+        <v>7346112903</v>
       </c>
       <c r="AS123" s="11">
-        <v>7346112903</v>
+        <v>8722606061</v>
       </c>
       <c r="AT123" s="11">
-        <v>8722606061</v>
-      </c>
-      <c r="AU123" s="11">
         <v>9300269841</v>
       </c>
-      <c r="AV123" s="11" t="s">
-        <v>59</v>
+      <c r="AU123" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="AV123" s="11">
+        <v>9145652174</v>
       </c>
       <c r="AW123" s="11">
-        <v>9145652174</v>
+        <v>9040782609</v>
       </c>
       <c r="AX123" s="11">
-        <v>9040782609</v>
+        <v>9174222222</v>
       </c>
       <c r="AY123" s="11">
-        <v>9174222222</v>
+        <v>9419421053</v>
       </c>
       <c r="AZ123" s="11">
-        <v>9419421053</v>
+        <v>9702806723</v>
       </c>
       <c r="BA123" s="11">
-        <v>9702806723</v>
+        <v>9583101266</v>
       </c>
       <c r="BB123" s="11">
-        <v>9583101266</v>
+        <v>8511769231</v>
       </c>
     </row>
     <row r="124" spans="2:54" x14ac:dyDescent="0.25">
@@ -17196,103 +17196,103 @@
       </c>
       <c r="D124" s="13"/>
       <c r="E124" s="13">
-        <v>333750000</v>
+        <v>638068966</v>
       </c>
       <c r="F124" s="13">
-        <v>638068966</v>
+        <v>958730769</v>
       </c>
       <c r="G124" s="13">
-        <v>958730769</v>
+        <v>969710526</v>
       </c>
       <c r="H124" s="13">
-        <v>969710526</v>
+        <v>3679344828</v>
       </c>
       <c r="I124" s="13">
-        <v>3679344828</v>
+        <v>916701493</v>
       </c>
       <c r="J124" s="13">
-        <v>916701493</v>
+        <v>1172380952</v>
       </c>
       <c r="K124" s="13">
-        <v>1172380952</v>
+        <v>865017544</v>
       </c>
       <c r="L124" s="13">
-        <v>865017544</v>
+        <v>1221887640</v>
       </c>
       <c r="M124" s="13">
-        <v>1221887640</v>
+        <v>1877100000</v>
       </c>
       <c r="N124" s="13">
-        <v>1877100000</v>
+        <v>951631579</v>
       </c>
       <c r="O124" s="13">
-        <v>951631579</v>
+        <v>430363636</v>
       </c>
       <c r="P124" s="13">
-        <v>430363636</v>
+        <v>327666667</v>
       </c>
       <c r="Q124" s="13">
-        <v>327666667</v>
+        <v>457589744</v>
       </c>
       <c r="R124" s="13">
-        <v>457589744</v>
+        <v>1865352941</v>
       </c>
       <c r="S124" s="13">
-        <v>1865352941</v>
+        <v>597095238</v>
       </c>
       <c r="T124" s="13">
-        <v>597095238</v>
+        <v>321000000</v>
       </c>
       <c r="U124" s="13">
-        <v>321000000</v>
+        <v>342727273</v>
       </c>
       <c r="V124" s="13">
-        <v>342727273</v>
-      </c>
-      <c r="W124" s="13">
         <v>1801083333</v>
       </c>
-      <c r="X124" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="Y124" s="13">
+      <c r="W124" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="X124" s="13">
         <v>1389526316</v>
       </c>
-      <c r="Z124" s="13" t="s">
-        <v>59</v>
+      <c r="Y124" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="Z124" s="13">
+        <v>1014200000</v>
       </c>
       <c r="AA124" s="13">
-        <v>1014200000</v>
+        <v>1077588235</v>
       </c>
       <c r="AB124" s="13">
-        <v>1077588235</v>
+        <v>1975458333</v>
       </c>
       <c r="AC124" s="13">
-        <v>1975458333</v>
+        <v>1321593750</v>
       </c>
       <c r="AD124" s="13">
-        <v>1321593750</v>
+        <v>523954545</v>
       </c>
       <c r="AE124" s="13">
-        <v>523954545</v>
+        <v>4035556604</v>
       </c>
       <c r="AF124" s="13">
-        <v>4035556604</v>
+        <v>1665653061</v>
       </c>
       <c r="AG124" s="13">
-        <v>1665653061</v>
+        <v>2006522388</v>
       </c>
       <c r="AH124" s="13">
-        <v>2006522388</v>
+        <v>3797385417</v>
       </c>
       <c r="AI124" s="13">
-        <v>3797385417</v>
+        <v>7606200000</v>
       </c>
       <c r="AJ124" s="13">
-        <v>7606200000</v>
-      </c>
-      <c r="AK124" s="13">
         <v>3714939394</v>
+      </c>
+      <c r="AK124" s="13" t="s">
+        <v>59</v>
       </c>
       <c r="AL124" s="13" t="s">
         <v>59</v>
@@ -17355,61 +17355,61 @@
       </c>
       <c r="D125" s="11"/>
       <c r="E125" s="11">
-        <v>29582000</v>
+        <v>46849000</v>
       </c>
       <c r="F125" s="11">
-        <v>46849000</v>
+        <v>49695000</v>
       </c>
       <c r="G125" s="11">
-        <v>49695000</v>
+        <v>62374000</v>
       </c>
       <c r="H125" s="11">
-        <v>62374000</v>
+        <v>34642000</v>
       </c>
       <c r="I125" s="11">
-        <v>34642000</v>
+        <v>26772000</v>
       </c>
       <c r="J125" s="11">
-        <v>26772000</v>
+        <v>48599000</v>
       </c>
       <c r="K125" s="11">
-        <v>48599000</v>
+        <v>17669000</v>
       </c>
       <c r="L125" s="11">
-        <v>17669000</v>
+        <v>37785000</v>
       </c>
       <c r="M125" s="11">
-        <v>37785000</v>
+        <v>32242000</v>
       </c>
       <c r="N125" s="11">
-        <v>32242000</v>
+        <v>45526000</v>
       </c>
       <c r="O125" s="11">
-        <v>45526000</v>
+        <v>35969000</v>
       </c>
       <c r="P125" s="11">
-        <v>35969000</v>
+        <v>60701000</v>
       </c>
       <c r="Q125" s="11">
-        <v>60701000</v>
+        <v>55087000</v>
       </c>
       <c r="R125" s="11">
-        <v>55087000</v>
+        <v>64565000</v>
       </c>
       <c r="S125" s="11">
-        <v>64565000</v>
+        <v>81648000</v>
       </c>
       <c r="T125" s="11">
-        <v>81648000</v>
+        <v>86626000</v>
       </c>
       <c r="U125" s="11">
-        <v>86626000</v>
+        <v>114710000</v>
       </c>
       <c r="V125" s="11">
-        <v>114710000</v>
-      </c>
-      <c r="W125" s="11">
         <v>82248000</v>
+      </c>
+      <c r="W125" s="11" t="s">
+        <v>59</v>
       </c>
       <c r="X125" s="11" t="s">
         <v>59</v>
@@ -17514,7 +17514,7 @@
       </c>
       <c r="D126" s="13"/>
       <c r="E126" s="13">
-        <v>19941176</v>
+        <v>0</v>
       </c>
       <c r="F126" s="13">
         <v>0</v>
@@ -17531,8 +17531,8 @@
       <c r="J126" s="13">
         <v>0</v>
       </c>
-      <c r="K126" s="13">
-        <v>0</v>
+      <c r="K126" s="13" t="s">
+        <v>59</v>
       </c>
       <c r="L126" s="13" t="s">
         <v>59</v>
@@ -17567,17 +17567,17 @@
       <c r="V126" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="W126" s="13" t="s">
-        <v>59</v>
+      <c r="W126" s="13">
+        <v>71528000</v>
       </c>
       <c r="X126" s="13">
-        <v>71528000</v>
+        <v>132376000</v>
       </c>
       <c r="Y126" s="13">
-        <v>132376000</v>
-      </c>
-      <c r="Z126" s="13">
         <v>107188000</v>
+      </c>
+      <c r="Z126" s="13" t="s">
+        <v>59</v>
       </c>
       <c r="AA126" s="13" t="s">
         <v>59</v>
@@ -17673,10 +17673,10 @@
       </c>
       <c r="D127" s="11"/>
       <c r="E127" s="11">
-        <v>0</v>
+        <v>749000000</v>
       </c>
       <c r="F127" s="11">
-        <v>749000000</v>
+        <v>0</v>
       </c>
       <c r="G127" s="11">
         <v>0</v>
@@ -17688,13 +17688,13 @@
         <v>0</v>
       </c>
       <c r="J127" s="11">
-        <v>0</v>
+        <v>1480000000</v>
       </c>
       <c r="K127" s="11">
         <v>1480000000</v>
       </c>
       <c r="L127" s="11">
-        <v>1480000000</v>
+        <v>0</v>
       </c>
       <c r="M127" s="11">
         <v>0</v>
@@ -17726,8 +17726,8 @@
       <c r="V127" s="11">
         <v>0</v>
       </c>
-      <c r="W127" s="11">
-        <v>0</v>
+      <c r="W127" s="11" t="s">
+        <v>59</v>
       </c>
       <c r="X127" s="11" t="s">
         <v>59</v>
@@ -17832,34 +17832,34 @@
       </c>
       <c r="D128" s="13"/>
       <c r="E128" s="13">
-        <v>1299000000</v>
+        <v>1298000000</v>
       </c>
       <c r="F128" s="13">
-        <v>1298000000</v>
+        <v>0</v>
       </c>
       <c r="G128" s="13">
-        <v>0</v>
+        <v>1298500000</v>
       </c>
       <c r="H128" s="13">
-        <v>1298500000</v>
+        <v>0</v>
       </c>
       <c r="I128" s="13">
         <v>0</v>
       </c>
       <c r="J128" s="13">
-        <v>0</v>
+        <v>2606000000</v>
       </c>
       <c r="K128" s="13">
-        <v>2606000000</v>
+        <v>0</v>
       </c>
       <c r="L128" s="13">
         <v>0</v>
       </c>
       <c r="M128" s="13">
-        <v>0</v>
+        <v>2939333333</v>
       </c>
       <c r="N128" s="13">
-        <v>2939333333</v>
+        <v>0</v>
       </c>
       <c r="O128" s="13">
         <v>0</v>
@@ -17885,8 +17885,8 @@
       <c r="V128" s="13">
         <v>0</v>
       </c>
-      <c r="W128" s="13">
-        <v>0</v>
+      <c r="W128" s="13" t="s">
+        <v>59</v>
       </c>
       <c r="X128" s="13" t="s">
         <v>59</v>
@@ -18008,8 +18008,8 @@
       <c r="J129" s="11">
         <v>0</v>
       </c>
-      <c r="K129" s="11">
-        <v>0</v>
+      <c r="K129" s="11" t="s">
+        <v>59</v>
       </c>
       <c r="L129" s="11" t="s">
         <v>59</v>
@@ -18167,8 +18167,8 @@
       <c r="J130" s="13">
         <v>0</v>
       </c>
-      <c r="K130" s="13">
-        <v>0</v>
+      <c r="K130" s="13" t="s">
+        <v>59</v>
       </c>
       <c r="L130" s="13" t="s">
         <v>59</v>
@@ -18309,31 +18309,31 @@
       </c>
       <c r="D131" s="11"/>
       <c r="E131" s="11">
-        <v>0</v>
+        <v>3323000000</v>
       </c>
       <c r="F131" s="11">
         <v>3323000000</v>
       </c>
       <c r="G131" s="11">
-        <v>3323000000</v>
+        <v>3369000000</v>
       </c>
       <c r="H131" s="11">
+        <v>3368981132</v>
+      </c>
+      <c r="I131" s="11">
         <v>3369000000</v>
       </c>
-      <c r="I131" s="11">
-        <v>3368981132</v>
-      </c>
       <c r="J131" s="11">
+        <v>4194666667</v>
+      </c>
+      <c r="K131" s="11">
+        <v>6112000000</v>
+      </c>
+      <c r="L131" s="11">
         <v>3369000000</v>
       </c>
-      <c r="K131" s="11">
-        <v>4194666667</v>
-      </c>
-      <c r="L131" s="11">
-        <v>6112000000</v>
-      </c>
       <c r="M131" s="11">
-        <v>3369000000</v>
+        <v>0</v>
       </c>
       <c r="N131" s="11">
         <v>0</v>
@@ -18362,8 +18362,8 @@
       <c r="V131" s="11">
         <v>0</v>
       </c>
-      <c r="W131" s="11">
-        <v>0</v>
+      <c r="W131" s="11" t="s">
+        <v>59</v>
       </c>
       <c r="X131" s="11" t="s">
         <v>59</v>
@@ -18494,72 +18494,72 @@
       <c r="M132" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="N132" s="13" t="s">
-        <v>59</v>
+      <c r="N132" s="13">
+        <v>7700333333</v>
       </c>
       <c r="O132" s="13">
-        <v>7700333333</v>
+        <v>7535250000</v>
       </c>
       <c r="P132" s="13">
-        <v>7535250000</v>
+        <v>6593375000</v>
       </c>
       <c r="Q132" s="13">
-        <v>6593375000</v>
+        <v>7535166667</v>
       </c>
       <c r="R132" s="13">
-        <v>7535166667</v>
+        <v>8283666667</v>
       </c>
       <c r="S132" s="13">
-        <v>8283666667</v>
+        <v>0</v>
       </c>
       <c r="T132" s="13">
         <v>0</v>
       </c>
       <c r="U132" s="13">
-        <v>0</v>
+        <v>6708250000</v>
       </c>
       <c r="V132" s="13">
-        <v>6708250000</v>
-      </c>
-      <c r="W132" s="13">
         <v>9208714286</v>
       </c>
-      <c r="X132" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="Y132" s="13">
+      <c r="W132" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="X132" s="13">
         <v>8498000000</v>
       </c>
-      <c r="Z132" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="AA132" s="13">
+      <c r="Y132" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="Z132" s="13">
         <v>7855666667</v>
       </c>
-      <c r="AB132" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="AC132" s="13">
+      <c r="AA132" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="AB132" s="13">
         <v>7534500000</v>
       </c>
-      <c r="AD132" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="AE132" s="13">
+      <c r="AC132" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="AD132" s="13">
         <v>7534000000</v>
       </c>
+      <c r="AE132" s="13" t="s">
+        <v>59</v>
+      </c>
       <c r="AF132" s="13" t="s">
         <v>59</v>
       </c>
       <c r="AG132" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="AH132" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="AI132" s="13">
+      <c r="AH132" s="13">
         <v>10881000000</v>
       </c>
+      <c r="AI132" s="13" t="s">
+        <v>59</v>
+      </c>
       <c r="AJ132" s="13" t="s">
         <v>59</v>
       </c>
@@ -18575,12 +18575,12 @@
       <c r="AN132" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="AO132" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="AP132" s="13">
+      <c r="AO132" s="13">
         <v>9652000000</v>
       </c>
+      <c r="AP132" s="13" t="s">
+        <v>59</v>
+      </c>
       <c r="AQ132" s="13" t="s">
         <v>59</v>
       </c>
@@ -18590,32 +18590,32 @@
       <c r="AS132" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="AT132" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="AU132" s="13">
+      <c r="AT132" s="13">
         <v>25195392857</v>
       </c>
-      <c r="AV132" s="13" t="s">
-        <v>59</v>
+      <c r="AU132" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="AV132" s="13">
+        <v>27003405797</v>
       </c>
       <c r="AW132" s="13">
-        <v>27003405797</v>
+        <v>27003411765</v>
       </c>
       <c r="AX132" s="13">
-        <v>27003411765</v>
+        <v>28893400000</v>
       </c>
       <c r="AY132" s="13">
-        <v>28893400000</v>
+        <v>28599400000</v>
       </c>
       <c r="AZ132" s="13">
-        <v>28599400000</v>
+        <v>29112111888</v>
       </c>
       <c r="BA132" s="13">
-        <v>29112111888</v>
+        <v>30492522124</v>
       </c>
       <c r="BB132" s="13">
-        <v>30492522124</v>
+        <v>30454220339</v>
       </c>
     </row>
     <row r="133" spans="2:54" x14ac:dyDescent="0.25">
@@ -18627,34 +18627,34 @@
       </c>
       <c r="D133" s="11"/>
       <c r="E133" s="11">
-        <v>0</v>
+        <v>1220111111</v>
       </c>
       <c r="F133" s="11">
-        <v>1220111111</v>
+        <v>1421900000</v>
       </c>
       <c r="G133" s="11">
-        <v>1421900000</v>
+        <v>1214428571</v>
       </c>
       <c r="H133" s="11">
-        <v>1214428571</v>
+        <v>1352533333</v>
       </c>
       <c r="I133" s="11">
-        <v>1352533333</v>
+        <v>1506300000</v>
       </c>
       <c r="J133" s="11">
-        <v>1506300000</v>
+        <v>2162384615</v>
       </c>
       <c r="K133" s="11">
-        <v>2162384615</v>
+        <v>2266000000</v>
       </c>
       <c r="L133" s="11">
-        <v>2266000000</v>
+        <v>3508166667</v>
       </c>
       <c r="M133" s="11">
-        <v>3508166667</v>
+        <v>3250187500</v>
       </c>
       <c r="N133" s="11">
-        <v>3250187500</v>
+        <v>0</v>
       </c>
       <c r="O133" s="11">
         <v>0</v>
@@ -18680,8 +18680,8 @@
       <c r="V133" s="11">
         <v>0</v>
       </c>
-      <c r="W133" s="11">
-        <v>0</v>
+      <c r="W133" s="11" t="s">
+        <v>59</v>
       </c>
       <c r="X133" s="11" t="s">
         <v>59</v>
@@ -18842,39 +18842,39 @@
       <c r="W134" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="X134" s="13" t="s">
-        <v>59</v>
+      <c r="X134" s="13">
+        <v>4820523810</v>
       </c>
       <c r="Y134" s="13">
-        <v>4820523810</v>
+        <v>3944176471</v>
       </c>
       <c r="Z134" s="13">
-        <v>3944176471</v>
+        <v>4825038462</v>
       </c>
       <c r="AA134" s="13">
-        <v>4825038462</v>
+        <v>6059421053</v>
       </c>
       <c r="AB134" s="13">
-        <v>6059421053</v>
+        <v>6490265625</v>
       </c>
       <c r="AC134" s="13">
-        <v>6490265625</v>
+        <v>6382833333</v>
       </c>
       <c r="AD134" s="13">
-        <v>6382833333</v>
+        <v>5478357143</v>
       </c>
       <c r="AE134" s="13">
-        <v>5478357143</v>
+        <v>6151272727</v>
       </c>
       <c r="AF134" s="13">
-        <v>6151272727</v>
+        <v>6649000000</v>
       </c>
       <c r="AG134" s="13">
-        <v>6649000000</v>
-      </c>
-      <c r="AH134" s="13">
         <v>6610408163</v>
       </c>
+      <c r="AH134" s="13" t="s">
+        <v>59</v>
+      </c>
       <c r="AI134" s="13" t="s">
         <v>59</v>
       </c>
@@ -18914,26 +18914,26 @@
       <c r="AU134" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="AV134" s="13" t="s">
-        <v>59</v>
+      <c r="AV134" s="13">
+        <v>12607310345</v>
       </c>
       <c r="AW134" s="13">
-        <v>12607310345</v>
+        <v>13725250000</v>
       </c>
       <c r="AX134" s="13">
-        <v>13725250000</v>
+        <v>14280875000</v>
       </c>
       <c r="AY134" s="13">
-        <v>14280875000</v>
+        <v>14396078431</v>
       </c>
       <c r="AZ134" s="13">
-        <v>14396078431</v>
+        <v>14396068966</v>
       </c>
       <c r="BA134" s="13">
-        <v>14396068966</v>
+        <v>14396000000</v>
       </c>
       <c r="BB134" s="13">
-        <v>14396000000</v>
+        <v>14396071429</v>
       </c>
     </row>
     <row r="135" spans="2:54" x14ac:dyDescent="0.25">
@@ -19040,59 +19040,59 @@
       <c r="AJ135" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="AK135" s="11" t="s">
-        <v>59</v>
+      <c r="AK135" s="11">
+        <v>2042944444</v>
       </c>
       <c r="AL135" s="11">
-        <v>2042944444</v>
+        <v>5234227273</v>
       </c>
       <c r="AM135" s="11">
-        <v>5234227273</v>
+        <v>2258250000</v>
       </c>
       <c r="AN135" s="11">
-        <v>2258250000</v>
+        <v>6675066667</v>
       </c>
       <c r="AO135" s="11">
-        <v>6675066667</v>
+        <v>7912464286</v>
       </c>
       <c r="AP135" s="11">
-        <v>7912464286</v>
+        <v>2191133333</v>
       </c>
       <c r="AQ135" s="11">
-        <v>2191133333</v>
+        <v>1263750000</v>
       </c>
       <c r="AR135" s="11">
-        <v>1263750000</v>
+        <v>9756700000</v>
       </c>
       <c r="AS135" s="11">
-        <v>9756700000</v>
+        <v>9173627451</v>
       </c>
       <c r="AT135" s="11">
-        <v>9173627451</v>
-      </c>
-      <c r="AU135" s="11">
         <v>7844948454</v>
       </c>
+      <c r="AU135" s="11" t="s">
+        <v>59</v>
+      </c>
       <c r="AV135" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="AW135" s="11" t="s">
-        <v>59</v>
+      <c r="AW135" s="11">
+        <v>7390809524</v>
       </c>
       <c r="AX135" s="11">
-        <v>7390809524</v>
+        <v>3132711111</v>
       </c>
       <c r="AY135" s="11">
-        <v>3132711111</v>
+        <v>3921557252</v>
       </c>
       <c r="AZ135" s="11">
-        <v>3921557252</v>
+        <v>3961557047</v>
       </c>
       <c r="BA135" s="11">
-        <v>3961557047</v>
+        <v>2785814103</v>
       </c>
       <c r="BB135" s="11">
-        <v>2785814103</v>
+        <v>3218582524</v>
       </c>
     </row>
     <row r="136" spans="2:54" x14ac:dyDescent="0.25">
@@ -19232,8 +19232,8 @@
       <c r="AB137" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="AC137" s="11" t="s">
-        <v>59</v>
+      <c r="AC137" s="11">
+        <v>0</v>
       </c>
       <c r="AD137" s="11">
         <v>0</v>
@@ -19382,35 +19382,35 @@
       <c r="Y138" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="Z138" s="13" t="s">
-        <v>59</v>
+      <c r="Z138" s="13">
+        <v>205535000</v>
       </c>
       <c r="AA138" s="13">
-        <v>205535000</v>
+        <v>144758000</v>
       </c>
       <c r="AB138" s="13">
-        <v>144758000</v>
+        <v>45967800</v>
       </c>
       <c r="AC138" s="13">
-        <v>45967800</v>
+        <v>154828000</v>
       </c>
       <c r="AD138" s="13">
-        <v>154828000</v>
+        <v>103627000</v>
       </c>
       <c r="AE138" s="13">
-        <v>103627000</v>
+        <v>403061000</v>
       </c>
       <c r="AF138" s="13">
-        <v>403061000</v>
+        <v>219925000</v>
       </c>
       <c r="AG138" s="13">
-        <v>219925000</v>
+        <v>265284000</v>
       </c>
       <c r="AH138" s="13">
-        <v>265284000</v>
+        <v>430975000</v>
       </c>
       <c r="AI138" s="13">
-        <v>430975000</v>
+        <v>0</v>
       </c>
       <c r="AJ138" s="13">
         <v>0</v>
